--- a/Korrelation/DOE2_features_reduced_features.xlsx
+++ b/Korrelation/DOE2_features_reduced_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>global_maxima</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>global_minima</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Trajectory_length</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>peak_count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valley_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
@@ -511,33 +521,39 @@
         <v>499.3834602522287</v>
       </c>
       <c r="D2" t="n">
+        <v>348.5066833496094</v>
+      </c>
+      <c r="E2" t="n">
         <v>-12.51357650756836</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>771.4228786747894</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>8763.272700517256</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>-851.8818012497936</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>267.4665407192271</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>-6.642470533199469</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.650691982844232</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>-13.96977494918673</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -552,33 +568,39 @@
         <v>512.8641824871</v>
       </c>
       <c r="D3" t="n">
+        <v>346.0928344726562</v>
+      </c>
+      <c r="E3" t="n">
         <v>-11.48237705230713</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>763.6202867938053</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
         <v>8198.752635243722</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>-864.4946424851287</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>168.846826059785</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>-4.084430922082472</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.621845981142731</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-14.44173495756528</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -593,33 +615,39 @@
         <v>496.7008829411938</v>
       </c>
       <c r="D4" t="n">
+        <v>345.6765747070312</v>
+      </c>
+      <c r="E4" t="n">
         <v>-11.80859088897705</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>766.8095566171745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>23</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>23</v>
+      </c>
+      <c r="I4" t="n">
         <v>8564.332685610021</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>-856.0616319628148</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>323.8859487683093</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>-6.049243688316164</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.642235441330973</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-10.94479215966778</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -634,33 +662,39 @@
         <v>499.456320434214</v>
       </c>
       <c r="D5" t="n">
+        <v>348.4383544921875</v>
+      </c>
+      <c r="E5" t="n">
         <v>-13.02900123596191</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>774.2737559274437</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
         <v>24</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>7114.380702775554</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>-1260.636555188319</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>258.5960809649355</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>-9.500590205390456</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>3.681940361171194</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-19.11206905706532</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -675,33 +709,39 @@
         <v>508.3451178425571</v>
       </c>
       <c r="D6" t="n">
+        <v>343.7697448730469</v>
+      </c>
+      <c r="E6" t="n">
         <v>-11.56051349639893</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>755.3487157966917</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>23</v>
+      </c>
+      <c r="H6" t="n">
         <v>22</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>8699.308725925765</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>-841.5537744627829</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>270.0543976451958</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>-9.332547096777994</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>3.651835755080313</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-12.40769799321375</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -716,33 +756,39 @@
         <v>500.9658576543261</v>
       </c>
       <c r="D7" t="n">
+        <v>349.5340270996094</v>
+      </c>
+      <c r="E7" t="n">
         <v>-12.30334186553955</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>775.8158132525808</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>27</v>
+      </c>
+      <c r="H7" t="n">
         <v>26</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>8960.662052828055</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>-857.6895109319196</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>269.2522607761431</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>-9.513055781880913</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3.683419169639217</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-8.854906825537356</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -757,33 +803,39 @@
         <v>510.0441566816122</v>
       </c>
       <c r="D8" t="n">
+        <v>351.390380859375</v>
+      </c>
+      <c r="E8" t="n">
         <v>-12.56788730621338</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>768.8767333447061</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
         <v>26</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8973.245193916879</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>-824.6238248202205</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>317.1478791008322</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>-7.213521510923938</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3.615788847773181</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-9.872512147066679</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -798,33 +850,39 @@
         <v>514.0167921744837</v>
       </c>
       <c r="D9" t="n">
+        <v>348.2393188476562</v>
+      </c>
+      <c r="E9" t="n">
         <v>-11.97397518157959</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>771.4468635115848</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>23</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I9" t="n">
         <v>8343.420123958898</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>-856.4469012882214</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>333.8170601439424</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>-8.671630773158542</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>3.681849526903629</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-11.95213335622883</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -839,33 +897,39 @@
         <v>516.1400366113097</v>
       </c>
       <c r="D10" t="n">
+        <v>342.9004211425781</v>
+      </c>
+      <c r="E10" t="n">
         <v>-11.32680320739746</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>757.7526117757594</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>22</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" t="n">
         <v>8275.073961739034</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>-849.0769045404768</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>179.3489144888887</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>-5.817521065228659</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.687080669831222</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-9.900342766744563</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -880,33 +944,39 @@
         <v>497.7185059953937</v>
       </c>
       <c r="D11" t="n">
+        <v>343.6047058105469</v>
+      </c>
+      <c r="E11" t="n">
         <v>-12.95016384124756</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>765.4718170303239</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
         <v>24</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>8161.713165347614</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>-845.5384514954403</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>299.4802181035957</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>-9.230204200631787</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.535858674413475</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-15.25555563538972</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -921,33 +991,39 @@
         <v>510.3681460541234</v>
       </c>
       <c r="D12" t="n">
+        <v>346.4740600585938</v>
+      </c>
+      <c r="E12" t="n">
         <v>-11.27669715881348</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>769.6824494353282</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>24</v>
+      </c>
+      <c r="I12" t="n">
         <v>8510.642174952796</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>-851.9307028732565</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>328.8815687578856</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>-10.08437613973075</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.678525297158354</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-9.172535376823088</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -962,33 +1038,39 @@
         <v>501.7853034588129</v>
       </c>
       <c r="D13" t="n">
+        <v>342.5437316894531</v>
+      </c>
+      <c r="E13" t="n">
         <v>-12.21994972229004</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>768.216328665676</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
         <v>24</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>6354.71321507303</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>-870.6818618656773</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>126.6649130277487</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>-5.006397148766629</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.654049745679222</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-14.306803792029</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1003,33 +1085,39 @@
         <v>503.986664964356</v>
       </c>
       <c r="D14" t="n">
+        <v>349.5431213378906</v>
+      </c>
+      <c r="E14" t="n">
         <v>-13.2402868270874</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>764.3920537354561</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>26</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>26</v>
+      </c>
+      <c r="I14" t="n">
         <v>8309.349106303165</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>-823.1730296125938</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>227.4547455321415</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>-4.671383277763046</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3.567155485532448</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-11.15769002124251</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1044,33 +1132,39 @@
         <v>503.9452454951949</v>
       </c>
       <c r="D15" t="n">
+        <v>344.8727722167969</v>
+      </c>
+      <c r="E15" t="n">
         <v>-11.377610206604</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>764.7680158834949</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
         <v>21</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>9470.64001029206</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>-1063.011189173723</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>354.2353780293042</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>-6.645572990490842</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.662358699993515</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-19.22737665224279</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1085,33 +1179,39 @@
         <v>507.9329080481695</v>
       </c>
       <c r="D16" t="n">
+        <v>342.1316528320312</v>
+      </c>
+      <c r="E16" t="n">
         <v>-12.22100067138672</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>771.0384661601936</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>25</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" t="n">
         <v>8182.859121760152</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>-852.5733378954371</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>252.5273679587022</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>-7.978123674184419</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>3.69202382763983</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-10.68321211498335</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1126,33 +1226,39 @@
         <v>493.7409897550869</v>
       </c>
       <c r="D17" t="n">
+        <v>346.7582397460938</v>
+      </c>
+      <c r="E17" t="n">
         <v>-12.95436859130859</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>758.4163431123933</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>26</v>
+      </c>
+      <c r="H17" t="n">
         <v>25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>8956.965554099323</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>-819.747814776845</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>322.6813778772677</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>-6.748131504861309</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3.61070101157187</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-15.33342027827259</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1167,33 +1273,39 @@
         <v>506.8636068616153</v>
       </c>
       <c r="D18" t="n">
+        <v>345.7024841308594</v>
+      </c>
+      <c r="E18" t="n">
         <v>-11.57978534698486</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>769.9713280338177</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>8450.377691702934</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>-842.853073158398</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>320.1231508777573</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>-8.313941439093176</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>3.673632622269664</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-8.129910412882023</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1208,33 +1320,39 @@
         <v>497.4459448920609</v>
       </c>
       <c r="D19" t="n">
+        <v>341.0125122070312</v>
+      </c>
+      <c r="E19" t="n">
         <v>-12.03319072723389</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>756.4717266370614</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" t="n">
         <v>23</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>8340.093071505427</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>-815.1508857985027</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>362.9141650241227</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>-8.46141077641995</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3.667947437098015</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-8.257819406821623</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1249,33 +1367,39 @@
         <v>503.7584814311321</v>
       </c>
       <c r="D20" t="n">
+        <v>344.2680053710938</v>
+      </c>
+      <c r="E20" t="n">
         <v>-11.86570453643799</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>760.12351942398</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>27</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
         <v>7999.00675978871</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>-842.727875231808</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>263.6101511633374</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>-8.50491063723878</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>3.67527562912406</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-12.29352449026777</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1290,33 +1414,39 @@
         <v>490.2087520716778</v>
       </c>
       <c r="D21" t="n">
+        <v>339.245849609375</v>
+      </c>
+      <c r="E21" t="n">
         <v>-12.04195117950439</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>754.670525737459</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
+        <v>23</v>
+      </c>
+      <c r="I21" t="n">
         <v>6509.507121103804</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>-1523.848019198157</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>227.7396937812805</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>-4.937419059860038</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3.618735435548155</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-25.42011651910399</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1331,33 +1461,39 @@
         <v>494.0090647249968</v>
       </c>
       <c r="D22" t="n">
+        <v>346.4337768554688</v>
+      </c>
+      <c r="E22" t="n">
         <v>-11.93473148345947</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>761.6110694660844</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>25</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" t="n">
         <v>8558.289200656935</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>-859.888677112594</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>251.4361468622566</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>-8.174114407144959</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.667825975647876</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-14.33058890291828</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1372,33 +1508,39 @@
         <v>480.0416932680964</v>
       </c>
       <c r="D23" t="n">
+        <v>342.9585876464844</v>
+      </c>
+      <c r="E23" t="n">
         <v>-13.12991428375244</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>765.8944424173375</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>27</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
+        <v>27</v>
+      </c>
+      <c r="I23" t="n">
         <v>9442.071524038058</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>-826.6459808070147</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>307.9772240556566</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>-4.86360845314748</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.61603888877932</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-8.113308319107331</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1413,33 +1555,39 @@
         <v>493.2624111060764</v>
       </c>
       <c r="D24" t="n">
+        <v>347.15380859375</v>
+      </c>
+      <c r="E24" t="n">
         <v>-12.03739547729492</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>763.5332563359059</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>26</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
+        <v>26</v>
+      </c>
+      <c r="I24" t="n">
         <v>9654.157488818788</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>-869.4809251004252</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>243.1027513945306</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>-4.868671804015016</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.629291494249401</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-13.71272035131037</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1454,33 +1602,39 @@
         <v>498.8632507733939</v>
       </c>
       <c r="D25" t="n">
+        <v>344.2935791015625</v>
+      </c>
+      <c r="E25" t="n">
         <v>-11.76163768768311</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>773.922930176553</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>23</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
         <v>8245.855654382556</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>-861.6113089932119</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>251.2223848439261</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>-6.291604988803702</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.656479298569905</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-9.209412538539238</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1495,33 +1649,39 @@
         <v>486.403939171278</v>
       </c>
       <c r="D26" t="n">
+        <v>342.4364929199219</v>
+      </c>
+      <c r="E26" t="n">
         <v>-13.38675022125244</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>767.0368707734374</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
+        <v>18</v>
+      </c>
+      <c r="H26" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>8384.129555941196</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>-1489.625108076286</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>301.9165491587858</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>-7.924943066856589</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>3.600752992226957</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-25.51103993943071</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1536,33 +1696,39 @@
         <v>518.4915686616063</v>
       </c>
       <c r="D27" t="n">
+        <v>437.1888427734375</v>
+      </c>
+      <c r="E27" t="n">
         <v>-11.78301239013672</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>942.1699814984065</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>22</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" t="n">
         <v>12884.1964024039</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>-904.3375335376247</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>466.4906826352217</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>-7.305611467111946</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.674483288549808</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-16.12869126284002</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1577,33 +1743,39 @@
         <v>512.5497405923237</v>
       </c>
       <c r="D28" t="n">
+        <v>445.021484375</v>
+      </c>
+      <c r="E28" t="n">
         <v>-12.11202907562256</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>959.3027211136149</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
         <v>25</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>14253.57010294373</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>-1216.685679889346</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>523.2851494285026</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>-8.433729840921238</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3.64596611556457</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-18.61547646508891</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1618,33 +1790,39 @@
         <v>507.3535337621927</v>
       </c>
       <c r="D29" t="n">
+        <v>434.1979064941406</v>
+      </c>
+      <c r="E29" t="n">
         <v>-13.43580532073975</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>938.9140878146271</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
+        <v>22</v>
+      </c>
+      <c r="H29" t="n">
         <v>21</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>13842.08355559507</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>-853.32111492433</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>515.3269000136233</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>-7.627347655966926</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3.562958736486952</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-11.33342780338499</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1659,33 +1837,39 @@
         <v>524.58927447937</v>
       </c>
       <c r="D30" t="n">
+        <v>436.1012268066406</v>
+      </c>
+      <c r="E30" t="n">
         <v>-11.46976280212402</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>942.837034849802</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>24</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
+        <v>24</v>
+      </c>
+      <c r="I30" t="n">
         <v>10408.67622776553</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>-830.0295513456547</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>359.3184197439523</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>-6.205904010198129</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.661200876517171</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-11.32367023952095</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1700,33 +1884,39 @@
         <v>520.0904594024479</v>
       </c>
       <c r="D31" t="n">
+        <v>430.6522827148438</v>
+      </c>
+      <c r="E31" t="n">
         <v>-11.61097049713135</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>931.3879852502431</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>25</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
+        <v>25</v>
+      </c>
+      <c r="I31" t="n">
         <v>13305.57103911321</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>-840.5697067225146</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>392.0689330044219</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>-8.226705433994653</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>3.693936496553483</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-10.54334720428378</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1741,33 +1931,39 @@
         <v>513.6993052780718</v>
       </c>
       <c r="D32" t="n">
+        <v>434.6236267089844</v>
+      </c>
+      <c r="E32" t="n">
         <v>-12.79318904876709</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>941.6470812547312</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>21</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
+        <v>21</v>
+      </c>
+      <c r="I32" t="n">
         <v>13815.43625887935</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>-907.6854189493937</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>531.1022383979772</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>-6.611031066183592</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>3.585301895071651</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-9.194336519272541</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1782,33 +1978,39 @@
         <v>505.124414338988</v>
       </c>
       <c r="D33" t="n">
+        <v>437.8272399902344</v>
+      </c>
+      <c r="E33" t="n">
         <v>-11.92176628112793</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>944.3926406336121</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
+        <v>23</v>
+      </c>
+      <c r="H33" t="n">
         <v>22</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>12899.97549008364</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>-901.186208079125</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>330.5164396127092</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>-6.690951641336023</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3.655253196516403</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-9.808044081982105</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1823,33 +2025,39 @@
         <v>519.8943799581007</v>
       </c>
       <c r="D34" t="n">
+        <v>441.7123718261719</v>
+      </c>
+      <c r="E34" t="n">
         <v>-12.00936412811279</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>952.7870646239683</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
+        <v>23</v>
+      </c>
+      <c r="H34" t="n">
         <v>22</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>14338.61247222452</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>-888.4222717019262</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>547.2428315651265</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>-9.646969730339084</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.681136589036932</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-9.196476997765972</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1864,33 +2072,39 @@
         <v>511.8791128055307</v>
       </c>
       <c r="D35" t="n">
+        <v>432.5661315917969</v>
+      </c>
+      <c r="E35" t="n">
         <v>-12.92458534240723</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>936.127189598725</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>24</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
+        <v>24</v>
+      </c>
+      <c r="I35" t="n">
         <v>13148.77618283678</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>-855.0824058022226</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>550.1430267792715</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>-9.579680502450822</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>3.648946733275062</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-10.66028388341531</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1905,33 +2119,39 @@
         <v>530.4291209439843</v>
       </c>
       <c r="D36" t="n">
+        <v>443.0834655761719</v>
+      </c>
+      <c r="E36" t="n">
         <v>-11.711181640625</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>954.7275152874313</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>21</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
+        <v>21</v>
+      </c>
+      <c r="I36" t="n">
         <v>9244.431790844872</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>-876.8981735702373</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>384.5136906088264</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>-7.234483353187781</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>3.698344075917921</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-9.45128820619316</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1946,33 +2166,39 @@
         <v>523.8852440558339</v>
       </c>
       <c r="D37" t="n">
+        <v>439.9621887207031</v>
+      </c>
+      <c r="E37" t="n">
         <v>-11.77460289001465</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>949.471374623231</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>24</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
+        <v>24</v>
+      </c>
+      <c r="I37" t="n">
         <v>14370.87923836797</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>-866.8213854995104</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>536.7534724462957</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>-7.145633550407847</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>3.639967842919351</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-11.62064911940915</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1987,33 +2213,39 @@
         <v>512.5555159617617</v>
       </c>
       <c r="D38" t="n">
+        <v>436.7410278320312</v>
+      </c>
+      <c r="E38" t="n">
         <v>-12.79388904571533</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>942.7016138668962</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>22</v>
+      </c>
+      <c r="H38" t="n">
         <v>21</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>9684.400399464008</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>-856.0259526954155</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>411.0986545640834</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>-7.494226316033822</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.65141626589664</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-11.52343771884522</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2028,33 +2260,39 @@
         <v>526.9857891688148</v>
       </c>
       <c r="D39" t="n">
+        <v>437.5269470214844</v>
+      </c>
+      <c r="E39" t="n">
         <v>-11.65546989440918</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>941.2226968489384</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>22</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
+        <v>22</v>
+      </c>
+      <c r="I39" t="n">
         <v>13984.67572999715</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>-1046.929589100145</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>515.4379745071384</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>-6.844638871707101</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3.673414546960326</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-17.5076843335414</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2069,33 +2307,39 @@
         <v>510.2334075639137</v>
       </c>
       <c r="D40" t="n">
+        <v>441.6083068847656</v>
+      </c>
+      <c r="E40" t="n">
         <v>-12.23256301879883</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>951.69654070408</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
+        <v>21</v>
+      </c>
+      <c r="H40" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>13191.73474522827</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>-1048.42405044254</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>516.6027123880217</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>-8.17036084475496</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.658801012555135</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-16.92749604288219</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2110,33 +2354,39 @@
         <v>529.6607907399906</v>
       </c>
       <c r="D41" t="n">
+        <v>433.22802734375</v>
+      </c>
+      <c r="E41" t="n">
         <v>-11.77460289001465</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>934.0028988899828</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" t="n">
         <v>24</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>13754.08779642542</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>-809.9688909342656</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>492.6889924406782</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>-6.244783977232022</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.683847773039003</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-11.2992880841045</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2151,33 +2401,39 @@
         <v>485.2363567943504</v>
       </c>
       <c r="D42" t="n">
+        <v>449.4619750976562</v>
+      </c>
+      <c r="E42" t="n">
         <v>-12.89830589294434</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>970.5283400220776</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
+        <v>26</v>
+      </c>
+      <c r="H42" t="n">
         <v>25</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>11184.69589989291</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>-866.9983829606831</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>394.9582181915106</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>-7.905798902617158</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>3.616768961971482</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-13.86901337411022</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2192,33 +2448,39 @@
         <v>504.9187129882845</v>
       </c>
       <c r="D43" t="n">
+        <v>449.7850341796875</v>
+      </c>
+      <c r="E43" t="n">
         <v>-11.58293914794922</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>968.2306886214112</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>26</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
+        <v>26</v>
+      </c>
+      <c r="I43" t="n">
         <v>15240.60513234784</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>-1334.582653722447</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>492.7922810534984</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>-7.648686726013919</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>3.627359003905156</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-21.77036919508694</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2233,33 +2495,39 @@
         <v>497.8239600054233</v>
       </c>
       <c r="D44" t="n">
+        <v>441.7775573730469</v>
+      </c>
+      <c r="E44" t="n">
         <v>-11.92281818389893</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>955.7282354879875</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>26</v>
+      </c>
+      <c r="H44" t="n">
         <v>25</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>13776.09818379642</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>-861.1096669665321</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>540.2205726994732</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>-8.246464617670267</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>3.632991946558553</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-8.187089522287041</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2274,33 +2542,39 @@
         <v>485.8185922934032</v>
       </c>
       <c r="D45" t="n">
+        <v>442.3784790039062</v>
+      </c>
+      <c r="E45" t="n">
         <v>-13.24974822998047</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>952.98278370627</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>13340.97756514288</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>-1278.344782450409</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>585.1076307237448</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>-11.27291725332527</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>3.598924403544998</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-20.89502780607805</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2315,33 +2589,39 @@
         <v>490.2196783453701</v>
       </c>
       <c r="D46" t="n">
+        <v>434.7329406738281</v>
+      </c>
+      <c r="E46" t="n">
         <v>-12.02688407897949</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>939.6043781894599</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
+        <v>29</v>
+      </c>
+      <c r="H46" t="n">
         <v>30</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>13890.88906796857</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>-836.9728077140612</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>584.7142605348756</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>-6.76329767429364</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3.628076068292593</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-7.477169070779717</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2356,33 +2636,39 @@
         <v>531.3473167523612</v>
       </c>
       <c r="D47" t="n">
+        <v>357.822509765625</v>
+      </c>
+      <c r="E47" t="n">
         <v>-11.82260608673096</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>806.2337269878318</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>24</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
+        <v>24</v>
+      </c>
+      <c r="I47" t="n">
         <v>7263.335317543071</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>-877.076167259107</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>286.3146438715427</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>-7.74963710489654</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.60314466077097</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-13.14091700308204</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2397,33 +2683,39 @@
         <v>531.6606561861415</v>
       </c>
       <c r="D48" t="n">
+        <v>361.7419738769531</v>
+      </c>
+      <c r="E48" t="n">
         <v>-13.31281852722168</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>808.7030524036777</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" t="n">
         <v>24</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>8320.605278122905</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>-900.8052942547488</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>313.0801477187783</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>-9.786738046956271</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3.532519460904277</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-9.631689203121546</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2438,33 +2730,39 @@
         <v>544.930956560126</v>
       </c>
       <c r="D49" t="n">
+        <v>363.3975830078125</v>
+      </c>
+      <c r="E49" t="n">
         <v>-11.57242679595947</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>811.1256096543116</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
+        <v>28</v>
+      </c>
+      <c r="H49" t="n">
         <v>27</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>8208.316062665743</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>-878.7214244691636</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>298.9016272820882</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>-11.94846412820433</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>3.585386677169892</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-7.568429913645461</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2479,33 +2777,39 @@
         <v>534.9554040115556</v>
       </c>
       <c r="D50" t="n">
+        <v>365.1043395996094</v>
+      </c>
+      <c r="E50" t="n">
         <v>-11.91616058349609</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>802.0753985677161</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
+        <v>24</v>
+      </c>
+      <c r="H50" t="n">
         <v>23</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>8841.986998574213</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>-879.1399025088394</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>363.7139461401939</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>-10.28717787080858</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3.636572226022393</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-5.735406450665171</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2520,33 +2824,39 @@
         <v>516.7415119800423</v>
       </c>
       <c r="D51" t="n">
+        <v>363.3656921386719</v>
+      </c>
+      <c r="E51" t="n">
         <v>-13.31877517700195</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>814.4935736811564</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
+        <v>25</v>
+      </c>
+      <c r="I51" t="n">
         <v>8720.14498598289</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>-928.8837188637953</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>332.7237827633671</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>-12.50482857627238</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>3.487403793595102</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-8.644779130605553</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2561,33 +2871,39 @@
         <v>544.819982062193</v>
       </c>
       <c r="D52" t="n">
+        <v>360.9974060058594</v>
+      </c>
+      <c r="E52" t="n">
         <v>-11.66598129272461</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>810.5430416507293</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>24</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
+        <v>24</v>
+      </c>
+      <c r="I52" t="n">
         <v>8039.399192366636</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>-961.5924659254185</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>286.8536059620913</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>-10.46180288611075</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3.639922542434449</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-15.44632008517958</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2602,33 +2918,39 @@
         <v>530.5501851825125</v>
       </c>
       <c r="D53" t="n">
+        <v>361.3281860351562</v>
+      </c>
+      <c r="E53" t="n">
         <v>-11.90599918365479</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>808.0093148267014</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>21</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>21</v>
+      </c>
+      <c r="I53" t="n">
         <v>8298.916259895999</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>-888.493307576211</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>354.2387692185596</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>-15.58411256148259</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>3.627697028155695</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-12.8170473394149</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2643,33 +2965,39 @@
         <v>517.5904739416875</v>
       </c>
       <c r="D54" t="n">
+        <v>361.9263000488281</v>
+      </c>
+      <c r="E54" t="n">
         <v>-12.92633724212646</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>807.9358568238697</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>33</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
+        <v>33</v>
+      </c>
+      <c r="I54" t="n">
         <v>7341.04747802901</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>-884.4421466195238</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>262.7002016908529</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>-10.17345060884493</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.529600242029689</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-13.33451429869217</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2684,33 +3012,39 @@
         <v>532.0913080488001</v>
       </c>
       <c r="D55" t="n">
+        <v>365.0153503417969</v>
+      </c>
+      <c r="E55" t="n">
         <v>-11.73500823974609</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>810.7344250273354</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
+        <v>26</v>
+      </c>
+      <c r="H55" t="n">
         <v>25</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>9127.624428375388</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>-844.8240320119039</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>373.8946725636171</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>-9.347424227101625</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>3.629639738764138</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-13.33523754377758</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2725,33 +3059,39 @@
         <v>538.3917274865316</v>
       </c>
       <c r="D56" t="n">
+        <v>367.5101318359375</v>
+      </c>
+      <c r="E56" t="n">
         <v>-11.99219512939453</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>812.7978255067761</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>24</v>
+      </c>
+      <c r="H56" t="n">
         <v>23</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>8890.659506447339</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>-854.233608867482</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>324.1219131818034</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>-11.36626633249817</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>3.615764970146973</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-9.206159460058343</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2766,33 +3106,39 @@
         <v>532.7311749419646</v>
       </c>
       <c r="D57" t="n">
+        <v>361.2181396484375</v>
+      </c>
+      <c r="E57" t="n">
         <v>-12.4599666595459</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>800.8106034855156</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
+        <v>27</v>
+      </c>
+      <c r="H57" t="n">
         <v>26</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>8656.315430555085</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>-867.7508278999092</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>346.3208870670255</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>-8.132697929629945</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>3.601350595857779</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-14.5993009688409</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2807,33 +3153,39 @@
         <v>528.1978664338722</v>
       </c>
       <c r="D58" t="n">
+        <v>361.6995849609375</v>
+      </c>
+      <c r="E58" t="n">
         <v>-12.61448955535889</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>798.7514930294557</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
+        <v>26</v>
+      </c>
+      <c r="H58" t="n">
         <v>25</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>8656.796748729415</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>-885.9377934478377</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>387.5344894465047</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>-9.967612752057436</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>3.575348393988441</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-5.672376249361506</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2848,33 +3200,39 @@
         <v>465.164403553295</v>
       </c>
       <c r="D59" t="n">
+        <v>364.7973937988281</v>
+      </c>
+      <c r="E59" t="n">
         <v>-22.24988555908203</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>810.715287461857</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>22</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
+        <v>22</v>
+      </c>
+      <c r="I59" t="n">
         <v>9784.821589929457</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>-870.1110578718731</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>391.1545765460449</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>-10.75656941658075</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>2.993189168886122</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-12.31777594757467</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2889,33 +3247,39 @@
         <v>501.7548216058575</v>
       </c>
       <c r="D60" t="n">
+        <v>368.5640869140625</v>
+      </c>
+      <c r="E60" t="n">
         <v>-23.17036247253418</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>817.6425846781565</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>26</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
+        <v>26</v>
+      </c>
+      <c r="I60" t="n">
         <v>9904.951177533216</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>-911.9272216168613</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>426.3575858468323</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>-9.316797783407983</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>2.966055148990067</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-10.76688669886751</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2930,33 +3294,39 @@
         <v>522.9564719670485</v>
       </c>
       <c r="D61" t="n">
+        <v>350.6668395996094</v>
+      </c>
+      <c r="E61" t="n">
         <v>-20.77824401855469</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>776.2210731251373</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>25</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
+        <v>25</v>
+      </c>
+      <c r="I61" t="n">
         <v>9028.187265403769</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>-873.2824823348124</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>325.0253616512633</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>-7.822100978846374</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>3.344394910154735</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-19.72675132429277</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2971,33 +3341,39 @@
         <v>575.3962618390517</v>
       </c>
       <c r="D62" t="n">
+        <v>352.08837890625</v>
+      </c>
+      <c r="E62" t="n">
         <v>-19.04696273803711</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>784.1162294677572</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>25</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
+        <v>25</v>
+      </c>
+      <c r="I62" t="n">
         <v>9231.755534167125</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>-845.8611803208319</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>305.9038517358887</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>-8.694762354100245</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>3.414574861300817</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-16.43883903905081</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3012,33 +3388,39 @@
         <v>636.4124199493742</v>
       </c>
       <c r="D63" t="n">
+        <v>354.1465759277344</v>
+      </c>
+      <c r="E63" t="n">
         <v>-15.91972541809082</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>781.6408437752751</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>30</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
+        <v>30</v>
+      </c>
+      <c r="I63" t="n">
         <v>9306.270119712488</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>-983.4421077834627</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>342.0562016487456</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>-8.401922780964153</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>3.52378056298321</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-16.62265863826967</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3053,33 +3435,39 @@
         <v>664.9278333789616</v>
       </c>
       <c r="D64" t="n">
+        <v>355.0505676269531</v>
+      </c>
+      <c r="E64" t="n">
         <v>-13.33839702606201</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>798.8066818035289</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>31</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
+        <v>31</v>
+      </c>
+      <c r="I64" t="n">
         <v>9246.958511264602</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>-851.9178900929463</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>364.7202601780988</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>-12.24334639692797</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>3.463645078546196</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-15.97312447300497</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3094,33 +3482,39 @@
         <v>687.3124303806179</v>
       </c>
       <c r="D65" t="n">
+        <v>359.7875061035156</v>
+      </c>
+      <c r="E65" t="n">
         <v>-11.22063446044922</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>796.2708190028268</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
+        <v>27</v>
+      </c>
+      <c r="H65" t="n">
         <v>26</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>7437.958048356813</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>-913.8569670722932</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>285.1058070151507</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>-7.553627059608901</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>3.349151026933202</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-15.84019297114647</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3135,33 +3529,39 @@
         <v>692.3497267943787</v>
       </c>
       <c r="D66" t="n">
+        <v>363.8537902832031</v>
+      </c>
+      <c r="E66" t="n">
         <v>-10.12391185760498</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>791.2305757141174</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
+        <v>22</v>
+      </c>
+      <c r="H66" t="n">
         <v>23</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>8883.409336164234</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>-1003.258559365896</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>260.9639464254464</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>-6.60764035617199</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>3.327204704668514</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-16.69596190488796</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3176,33 +3576,39 @@
         <v>676.2104008495688</v>
       </c>
       <c r="D67" t="n">
+        <v>362.6670227050781</v>
+      </c>
+      <c r="E67" t="n">
         <v>-10.48621559143066</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>798.1012734668091</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
+        <v>23</v>
+      </c>
+      <c r="H67" t="n">
         <v>22</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>9096.869618617722</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>-853.6636606759525</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>324.7653013732555</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>-9.201602987826343</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>3.229007735345647</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-14.53556948343171</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3217,33 +3623,39 @@
         <v>687.0877546381848</v>
       </c>
       <c r="D68" t="n">
+        <v>365.1989440917969</v>
+      </c>
+      <c r="E68" t="n">
         <v>-8.756687164306641</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>793.7903254971145</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
+        <v>28</v>
+      </c>
+      <c r="H68" t="n">
         <v>27</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>9940.083142429274</v>
       </c>
-      <c r="H68" t="n">
+      <c r="J68" t="n">
         <v>-893.643725299507</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>380.7146387309092</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>-8.639922143198564</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>3.308625561734645</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-12.42133310833207</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3258,33 +3670,39 @@
         <v>659.9673965797772</v>
       </c>
       <c r="D69" t="n">
+        <v>361.1336975097656</v>
+      </c>
+      <c r="E69" t="n">
         <v>-9.977798461914062</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>800.5156822030845</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>26</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
+        <v>26</v>
+      </c>
+      <c r="I69" t="n">
         <v>9258.249708242143</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>-905.9094440191643</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>287.9796216658135</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>-9.357393293128892</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>3.285368845502136</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-12.59692547098505</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3299,33 +3717,39 @@
         <v>650.5552359395218</v>
       </c>
       <c r="D70" t="n">
+        <v>356.4051818847656</v>
+      </c>
+      <c r="E70" t="n">
         <v>-10.80892562866211</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>778.5872829503298</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>22</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
+        <v>22</v>
+      </c>
+      <c r="I70" t="n">
         <v>9372.782458633099</v>
       </c>
-      <c r="H70" t="n">
+      <c r="J70" t="n">
         <v>-933.2122526628841</v>
       </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
         <v>317.4450667662313</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>-8.52384045940259</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>3.181452523343445</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-17.62132106742616</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O70" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3340,33 +3764,39 @@
         <v>651.4513095295097</v>
       </c>
       <c r="D71" t="n">
+        <v>358.4364013671875</v>
+      </c>
+      <c r="E71" t="n">
         <v>-9.85270881652832</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>790.3765489854364</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>22</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
+        <v>22</v>
+      </c>
+      <c r="I71" t="n">
         <v>8490.038354261866</v>
       </c>
-      <c r="H71" t="n">
+      <c r="J71" t="n">
         <v>-1084.660457043718</v>
       </c>
-      <c r="I71" t="n">
+      <c r="K71" t="n">
         <v>330.8633190617712</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>-8.914458665385668</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>3.349547220071997</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-19.70825315368703</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3381,33 +3811,39 @@
         <v>637.7582157724495</v>
       </c>
       <c r="D72" t="n">
+        <v>357.5232849121094</v>
+      </c>
+      <c r="E72" t="n">
         <v>-10.66806888580322</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>786.30687041305</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
+        <v>24</v>
+      </c>
+      <c r="H72" t="n">
         <v>23</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>9828.693230954381</v>
       </c>
-      <c r="H72" t="n">
+      <c r="J72" t="n">
         <v>-1233.266899849341</v>
       </c>
-      <c r="I72" t="n">
+      <c r="K72" t="n">
         <v>384.0102530466447</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>-10.23050797513927</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>3.341771535277827</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-20.92713463509149</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3422,33 +3858,39 @@
         <v>630.2713877018707</v>
       </c>
       <c r="D73" t="n">
+        <v>358.7748718261719</v>
+      </c>
+      <c r="E73" t="n">
         <v>-11.18945026397705</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>781.3843834330461</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
+        <v>22</v>
+      </c>
+      <c r="H73" t="n">
         <v>21</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>9300.592484590157</v>
       </c>
-      <c r="H73" t="n">
+      <c r="J73" t="n">
         <v>-891.1212895216549</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
         <v>300.8907310388158</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>-7.432528249747878</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3.208850525045119</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-12.31166686568859</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3463,33 +3905,39 @@
         <v>627.593252321754</v>
       </c>
       <c r="D74" t="n">
+        <v>353.6045227050781</v>
+      </c>
+      <c r="E74" t="n">
         <v>-10.37654304504395</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>784.4561819055685</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
+        <v>23</v>
+      </c>
+      <c r="H74" t="n">
         <v>22</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>8525.243246564012</v>
       </c>
-      <c r="H74" t="n">
+      <c r="J74" t="n">
         <v>-951.971877320665</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>314.683168233619</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>-7.630506426704899</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>3.331334156622889</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-16.9777281020115</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3504,33 +3952,39 @@
         <v>613.4021941727108</v>
       </c>
       <c r="D75" t="n">
+        <v>355.5057373046875</v>
+      </c>
+      <c r="E75" t="n">
         <v>-10.99007797241211</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>789.9977812403993</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
+        <v>29</v>
+      </c>
+      <c r="H75" t="n">
         <v>28</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>9000.084323478823</v>
       </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>-889.2577620655943</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>282.4702522539794</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>-10.25911413806562</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3.310327350072238</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-11.55360660751868</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3545,33 +3999,39 @@
         <v>612.3128643109106</v>
       </c>
       <c r="D76" t="n">
+        <v>351.7716064453125</v>
+      </c>
+      <c r="E76" t="n">
         <v>-11.71713829040527</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>783.1482339792917</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>26</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
+        <v>26</v>
+      </c>
+      <c r="I76" t="n">
         <v>6914.77894062453</v>
       </c>
-      <c r="H76" t="n">
+      <c r="J76" t="n">
         <v>-1142.584252847762</v>
       </c>
-      <c r="I76" t="n">
+      <c r="K76" t="n">
         <v>218.6392543003249</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>-11.95706741178979</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>3.346261941658097</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-16.94832258391992</v>
       </c>
-      <c r="M76" t="n">
+      <c r="O76" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3586,33 +4046,39 @@
         <v>638.4353254539367</v>
       </c>
       <c r="D77" t="n">
+        <v>359.2412414550781</v>
+      </c>
+      <c r="E77" t="n">
         <v>-10.50373554229736</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>792.2407746947289</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
+        <v>24</v>
+      </c>
+      <c r="H77" t="n">
         <v>23</v>
       </c>
-      <c r="G77" t="n">
+      <c r="I77" t="n">
         <v>8539.906308550746</v>
       </c>
-      <c r="H77" t="n">
+      <c r="J77" t="n">
         <v>-973.341870627652</v>
       </c>
-      <c r="I77" t="n">
+      <c r="K77" t="n">
         <v>281.3624213947264</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>-9.39410355315276</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>3.352523842757587</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-13.3916023862963</v>
       </c>
-      <c r="M77" t="n">
+      <c r="O77" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3627,33 +4093,39 @@
         <v>632.0177444123486</v>
       </c>
       <c r="D78" t="n">
+        <v>353.3168334960938</v>
+      </c>
+      <c r="E78" t="n">
         <v>-11.60676574707031</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>788.5952692392053</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>26</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
+        <v>26</v>
+      </c>
+      <c r="I78" t="n">
         <v>8146.476495040464</v>
       </c>
-      <c r="H78" t="n">
+      <c r="J78" t="n">
         <v>-962.7493347554474</v>
       </c>
-      <c r="I78" t="n">
+      <c r="K78" t="n">
         <v>317.4296893786417</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>-9.598696061338305</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.344974642639624</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-13.16074856647764</v>
       </c>
-      <c r="M78" t="n">
+      <c r="O78" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3668,33 +4140,39 @@
         <v>631.4539169491734</v>
       </c>
       <c r="D79" t="n">
+        <v>353.2320556640625</v>
+      </c>
+      <c r="E79" t="n">
         <v>-10.97430992126465</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>771.9743235779979</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
+        <v>19</v>
+      </c>
+      <c r="H79" t="n">
         <v>20</v>
       </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
         <v>9194.928115689501</v>
       </c>
-      <c r="H79" t="n">
+      <c r="J79" t="n">
         <v>-885.1195609911285</v>
       </c>
-      <c r="I79" t="n">
+      <c r="K79" t="n">
         <v>331.6603730497554</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>-7.415720153370323</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>3.346215088131756</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-14.10818007846217</v>
       </c>
-      <c r="M79" t="n">
+      <c r="O79" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3709,33 +4187,39 @@
         <v>630.5693847873788</v>
       </c>
       <c r="D80" t="n">
+        <v>358.336181640625</v>
+      </c>
+      <c r="E80" t="n">
         <v>-10.82259082794189</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>781.8493213267686</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>23</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
+        <v>23</v>
+      </c>
+      <c r="I80" t="n">
         <v>8812.717902687571</v>
       </c>
-      <c r="H80" t="n">
+      <c r="J80" t="n">
         <v>-910.278652441023</v>
       </c>
-      <c r="I80" t="n">
+      <c r="K80" t="n">
         <v>311.3929743836643</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>-11.20998308636743</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>3.33677138049267</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-13.25164193981461</v>
       </c>
-      <c r="M80" t="n">
+      <c r="O80" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3750,33 +4234,39 @@
         <v>626.3712954321387</v>
       </c>
       <c r="D81" t="n">
+        <v>359.2251281738281</v>
+      </c>
+      <c r="E81" t="n">
         <v>-11.58854484558105</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>791.2297872370747</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>27</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
+        <v>27</v>
+      </c>
+      <c r="I81" t="n">
         <v>9050.122187533896</v>
       </c>
-      <c r="H81" t="n">
+      <c r="J81" t="n">
         <v>-977.667075698881</v>
       </c>
-      <c r="I81" t="n">
+      <c r="K81" t="n">
         <v>301.8308788327388</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>-9.230979511873999</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>3.323526075339753</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-16.81224412307698</v>
       </c>
-      <c r="M81" t="n">
+      <c r="O81" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3791,33 +4281,39 @@
         <v>620.9276911030481</v>
       </c>
       <c r="D82" t="n">
+        <v>354.1591796875</v>
+      </c>
+      <c r="E82" t="n">
         <v>-11.55841159820557</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>786.8218962392704</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
+        <v>22</v>
+      </c>
+      <c r="H82" t="n">
         <v>23</v>
       </c>
-      <c r="G82" t="n">
+      <c r="I82" t="n">
         <v>8748.772343862813</v>
       </c>
-      <c r="H82" t="n">
+      <c r="J82" t="n">
         <v>-917.0894034952955</v>
       </c>
-      <c r="I82" t="n">
+      <c r="K82" t="n">
         <v>330.3526452197988</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>-8.910426350196911</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>3.307577226733167</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-12.37606030632751</v>
       </c>
-      <c r="M82" t="n">
+      <c r="O82" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3832,33 +4328,39 @@
         <v>626.9374858703397</v>
       </c>
       <c r="D83" t="n">
+        <v>355.7538146972656</v>
+      </c>
+      <c r="E83" t="n">
         <v>-11.00058937072754</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>781.6240579929854</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>20</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
+        <v>20</v>
+      </c>
+      <c r="I83" t="n">
         <v>8704.277183262682</v>
       </c>
-      <c r="H83" t="n">
+      <c r="J83" t="n">
         <v>-870.2735087886263</v>
       </c>
-      <c r="I83" t="n">
+      <c r="K83" t="n">
         <v>337.6315431050046</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>-8.243686949943619</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>3.351172734076941</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-13.55956351064776</v>
       </c>
-      <c r="M83" t="n">
+      <c r="O83" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3873,33 +4375,39 @@
         <v>634.8416931918041</v>
       </c>
       <c r="D84" t="n">
+        <v>355.1427307128906</v>
+      </c>
+      <c r="E84" t="n">
         <v>-11.18909931182861</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>789.0824684019875</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
+        <v>26</v>
+      </c>
+      <c r="H84" t="n">
         <v>25</v>
       </c>
-      <c r="G84" t="n">
+      <c r="I84" t="n">
         <v>7976.15855343956</v>
       </c>
-      <c r="H84" t="n">
+      <c r="J84" t="n">
         <v>-938.607187338976</v>
       </c>
-      <c r="I84" t="n">
+      <c r="K84" t="n">
         <v>294.9742854387009</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>-10.05864743328266</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>3.25876101726906</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-15.30695805050063</v>
       </c>
-      <c r="M84" t="n">
+      <c r="O84" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3914,33 +4422,39 @@
         <v>631.178395651338</v>
       </c>
       <c r="D85" t="n">
+        <v>357.6203308105469</v>
+      </c>
+      <c r="E85" t="n">
         <v>-11.38812160491943</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>786.9447779804055</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>21</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
+        <v>21</v>
+      </c>
+      <c r="I85" t="n">
         <v>8881.611077209134</v>
       </c>
-      <c r="H85" t="n">
+      <c r="J85" t="n">
         <v>-829.037240370352</v>
       </c>
-      <c r="I85" t="n">
+      <c r="K85" t="n">
         <v>301.6982209578359</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>-8.911433222180383</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>3.304912081044467</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-11.13267131086138</v>
       </c>
-      <c r="M85" t="n">
+      <c r="O85" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3955,33 +4469,39 @@
         <v>628.4151163032316</v>
       </c>
       <c r="D86" t="n">
+        <v>359.9350280761719</v>
+      </c>
+      <c r="E86" t="n">
         <v>-11.89864063262939</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>786.5076962719525</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
+        <v>23</v>
+      </c>
+      <c r="H86" t="n">
         <v>22</v>
       </c>
-      <c r="G86" t="n">
+      <c r="I86" t="n">
         <v>8945.183791289288</v>
       </c>
-      <c r="H86" t="n">
+      <c r="J86" t="n">
         <v>-1055.054717898021</v>
       </c>
-      <c r="I86" t="n">
+      <c r="K86" t="n">
         <v>313.2146750675703</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>-8.694697921789874</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>3.271560645448143</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-17.23402280864056</v>
       </c>
-      <c r="M86" t="n">
+      <c r="O86" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3996,33 +4516,39 @@
         <v>634.093912142583</v>
       </c>
       <c r="D87" t="n">
+        <v>352.6448059082031</v>
+      </c>
+      <c r="E87" t="n">
         <v>-10.90388107299805</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>768.8091178667412</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>26</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
+        <v>26</v>
+      </c>
+      <c r="I87" t="n">
         <v>8413.80015847442</v>
       </c>
-      <c r="H87" t="n">
+      <c r="J87" t="n">
         <v>-897.0581514635708</v>
       </c>
-      <c r="I87" t="n">
+      <c r="K87" t="n">
         <v>195.5550393112645</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>-6.145804778665219</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>3.319076934518328</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-15.36232854299923</v>
       </c>
-      <c r="M87" t="n">
+      <c r="O87" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4037,33 +4563,39 @@
         <v>627.6720584593593</v>
       </c>
       <c r="D88" t="n">
+        <v>356.6553649902344</v>
+      </c>
+      <c r="E88" t="n">
         <v>-11.91475868225098</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>777.6359492281547</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>18</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
+        <v>18</v>
+      </c>
+      <c r="I88" t="n">
         <v>9534.805003947229</v>
       </c>
-      <c r="H88" t="n">
+      <c r="J88" t="n">
         <v>-918.0054005120933</v>
       </c>
-      <c r="I88" t="n">
+      <c r="K88" t="n">
         <v>381.8895391201073</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>-7.781533971819511</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>3.23182998433825</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-12.52314652505857</v>
       </c>
-      <c r="M88" t="n">
+      <c r="O88" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4078,33 +4610,39 @@
         <v>630.7934890651801</v>
       </c>
       <c r="D89" t="n">
+        <v>359.0538024902344</v>
+      </c>
+      <c r="E89" t="n">
         <v>-10.95573902130127</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>786.5399407439077</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>26</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
+        <v>26</v>
+      </c>
+      <c r="I89" t="n">
         <v>6792.978561407914</v>
       </c>
-      <c r="H89" t="n">
+      <c r="J89" t="n">
         <v>-921.9767420601906</v>
       </c>
-      <c r="I89" t="n">
+      <c r="K89" t="n">
         <v>239.187726729256</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>-8.582284074898816</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>3.34981309555707</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-13.11586347636841</v>
       </c>
-      <c r="M89" t="n">
+      <c r="O89" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4119,33 +4657,39 @@
         <v>629.7872508686053</v>
       </c>
       <c r="D90" t="n">
+        <v>365.6169738769531</v>
+      </c>
+      <c r="E90" t="n">
         <v>-10.61270713806152</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>795.1383414109008</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>27</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
+        <v>27</v>
+      </c>
+      <c r="I90" t="n">
         <v>9611.630185173104</v>
       </c>
-      <c r="H90" t="n">
+      <c r="J90" t="n">
         <v>-1067.180632865197</v>
       </c>
-      <c r="I90" t="n">
+      <c r="K90" t="n">
         <v>335.2151864472593</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>-7.86739771626268</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>3.317080929036991</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-17.95117774537845</v>
       </c>
-      <c r="M90" t="n">
+      <c r="O90" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4160,33 +4704,39 @@
         <v>618.8885785467361</v>
       </c>
       <c r="D91" t="n">
+        <v>360.1764526367188</v>
+      </c>
+      <c r="E91" t="n">
         <v>-12.369215965271</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>786.7866158888604</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>23</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
+        <v>23</v>
+      </c>
+      <c r="I91" t="n">
         <v>7175.067272435377</v>
       </c>
-      <c r="H91" t="n">
+      <c r="J91" t="n">
         <v>-924.85956437236</v>
       </c>
-      <c r="I91" t="n">
+      <c r="K91" t="n">
         <v>297.9266185489892</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>-6.18224123168126</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>3.202374020787347</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-15.91522654303042</v>
       </c>
-      <c r="M91" t="n">
+      <c r="O91" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4201,33 +4751,39 @@
         <v>617.3056521496949</v>
       </c>
       <c r="D92" t="n">
+        <v>355.841064453125</v>
+      </c>
+      <c r="E92" t="n">
         <v>-10.95924282073975</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>787.834100651736</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>26</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
+        <v>26</v>
+      </c>
+      <c r="I92" t="n">
         <v>8043.939839793598</v>
       </c>
-      <c r="H92" t="n">
+      <c r="J92" t="n">
         <v>-952.7851681223907</v>
       </c>
-      <c r="I92" t="n">
+      <c r="K92" t="n">
         <v>280.9847554533492</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>-10.22472024553304</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>3.309708118090924</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-12.98788307097912</v>
       </c>
-      <c r="M92" t="n">
+      <c r="O92" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4242,33 +4798,39 @@
         <v>623.8287360285908</v>
       </c>
       <c r="D93" t="n">
+        <v>360.4122619628906</v>
+      </c>
+      <c r="E93" t="n">
         <v>-11.01916027069092</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>797.9492158106301</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>30</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
+        <v>30</v>
+      </c>
+      <c r="I93" t="n">
         <v>9170.090434415582</v>
       </c>
-      <c r="H93" t="n">
+      <c r="J93" t="n">
         <v>-860.43949373633</v>
       </c>
-      <c r="I93" t="n">
+      <c r="K93" t="n">
         <v>330.2545920048985</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>-8.034255454566027</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>3.32090214519991</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-13.02627143718681</v>
       </c>
-      <c r="M93" t="n">
+      <c r="O93" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4283,33 +4845,39 @@
         <v>616.2609544745312</v>
       </c>
       <c r="D94" t="n">
+        <v>358.4938659667969</v>
+      </c>
+      <c r="E94" t="n">
         <v>-11.70837879180908</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>776.820688615085</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>24</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
+        <v>24</v>
+      </c>
+      <c r="I94" t="n">
         <v>9126.465729156898</v>
       </c>
-      <c r="H94" t="n">
+      <c r="J94" t="n">
         <v>-919.3920629499661</v>
       </c>
-      <c r="I94" t="n">
+      <c r="K94" t="n">
         <v>314.3629927086984</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>-7.872927695899495</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>3.268844196584149</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-15.81566941209291</v>
       </c>
-      <c r="M94" t="n">
+      <c r="O94" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4324,33 +4892,39 @@
         <v>622.7117303412017</v>
       </c>
       <c r="D95" t="n">
+        <v>359.2790832519531</v>
+      </c>
+      <c r="E95" t="n">
         <v>-10.77283573150635</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>793.4925866083498</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
+        <v>19</v>
+      </c>
+      <c r="H95" t="n">
         <v>18</v>
       </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
         <v>9398.660185150926</v>
       </c>
-      <c r="H95" t="n">
+      <c r="J95" t="n">
         <v>-1216.474808292772</v>
       </c>
-      <c r="I95" t="n">
+      <c r="K95" t="n">
         <v>291.2667845205262</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>-10.16587625060652</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>3.326451659579905</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-22.12831932074102</v>
       </c>
-      <c r="M95" t="n">
+      <c r="O95" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4365,33 +4939,39 @@
         <v>616.747627076054</v>
       </c>
       <c r="D96" t="n">
+        <v>360.3824768066406</v>
+      </c>
+      <c r="E96" t="n">
         <v>-11.12778091430664</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>782.3255329960059</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
+        <v>25</v>
+      </c>
+      <c r="H96" t="n">
         <v>24</v>
       </c>
-      <c r="G96" t="n">
+      <c r="I96" t="n">
         <v>8917.575831620248</v>
       </c>
-      <c r="H96" t="n">
+      <c r="J96" t="n">
         <v>-890.278782102904</v>
       </c>
-      <c r="I96" t="n">
+      <c r="K96" t="n">
         <v>382.9040962499678</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>-6.833422658925849</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>3.293370158196303</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-15.20466577910534</v>
       </c>
-      <c r="M96" t="n">
+      <c r="O96" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4406,33 +4986,39 @@
         <v>616.5437227026786</v>
       </c>
       <c r="D97" t="n">
+        <v>360.3498840332031</v>
+      </c>
+      <c r="E97" t="n">
         <v>-11.70242214202881</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>783.05475789383</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
+        <v>31</v>
+      </c>
+      <c r="H97" t="n">
         <v>30</v>
       </c>
-      <c r="G97" t="n">
+      <c r="I97" t="n">
         <v>10324.59849780598</v>
       </c>
-      <c r="H97" t="n">
+      <c r="J97" t="n">
         <v>-890.3351140976363</v>
       </c>
-      <c r="I97" t="n">
+      <c r="K97" t="n">
         <v>334.4320787797056</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>-9.311635811515186</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>3.298959828880389</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-14.92984889918601</v>
       </c>
-      <c r="M97" t="n">
+      <c r="O97" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4447,33 +5033,39 @@
         <v>605.5411988085318</v>
       </c>
       <c r="D98" t="n">
+        <v>359.5912780761719</v>
+      </c>
+      <c r="E98" t="n">
         <v>-11.45890045166016</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>787.3784333681693</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>23</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
+        <v>23</v>
+      </c>
+      <c r="I98" t="n">
         <v>9139.060531884141</v>
       </c>
-      <c r="H98" t="n">
+      <c r="J98" t="n">
         <v>-910.5855887214648</v>
       </c>
-      <c r="I98" t="n">
+      <c r="K98" t="n">
         <v>297.9511780659902</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>-8.919906583492281</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>3.289071934531038</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-12.16743132285701</v>
       </c>
-      <c r="M98" t="n">
+      <c r="O98" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4488,33 +5080,39 @@
         <v>607.871681536996</v>
       </c>
       <c r="D99" t="n">
+        <v>356.3634948730469</v>
+      </c>
+      <c r="E99" t="n">
         <v>-11.45469570159912</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>790.0869262363281</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
+        <v>28</v>
+      </c>
+      <c r="H99" t="n">
         <v>27</v>
       </c>
-      <c r="G99" t="n">
+      <c r="I99" t="n">
         <v>6539.808326150149</v>
       </c>
-      <c r="H99" t="n">
+      <c r="J99" t="n">
         <v>-920.8303469742045</v>
       </c>
-      <c r="I99" t="n">
+      <c r="K99" t="n">
         <v>229.8687443073267</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>-7.104151935537994</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>3.305354382999587</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-13.46674825148159</v>
       </c>
-      <c r="M99" t="n">
+      <c r="O99" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4529,33 +5127,39 @@
         <v>612.2174232681048</v>
       </c>
       <c r="D100" t="n">
+        <v>354.4013061523438</v>
+      </c>
+      <c r="E100" t="n">
         <v>-11.27950000762939</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>776.3848962994327</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
+        <v>26</v>
+      </c>
+      <c r="H100" t="n">
         <v>25</v>
       </c>
-      <c r="G100" t="n">
+      <c r="I100" t="n">
         <v>8992.279859327382</v>
       </c>
-      <c r="H100" t="n">
+      <c r="J100" t="n">
         <v>-939.1149994525949</v>
       </c>
-      <c r="I100" t="n">
+      <c r="K100" t="n">
         <v>361.7703427532344</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>-8.515830747969122</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>3.335527407184755</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-12.23331447758475</v>
       </c>
-      <c r="M100" t="n">
+      <c r="O100" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4570,33 +5174,39 @@
         <v>601.827661370975</v>
       </c>
       <c r="D101" t="n">
+        <v>354.7446899414062</v>
+      </c>
+      <c r="E101" t="n">
         <v>-11.74061489105225</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>776.799491683397</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>25</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
+        <v>25</v>
+      </c>
+      <c r="I101" t="n">
         <v>8768.504887190858</v>
       </c>
-      <c r="H101" t="n">
+      <c r="J101" t="n">
         <v>-928.1557378184689</v>
       </c>
-      <c r="I101" t="n">
+      <c r="K101" t="n">
         <v>347.9391362157248</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>-8.844762654298412</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>3.295071906314699</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-12.72613221752416</v>
       </c>
-      <c r="M101" t="n">
+      <c r="O101" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4611,33 +5221,39 @@
         <v>610.3098424242811</v>
       </c>
       <c r="D102" t="n">
+        <v>355.0495300292969</v>
+      </c>
+      <c r="E102" t="n">
         <v>-10.71221733093262</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>790.2844927576139</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>20</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
+        <v>20</v>
+      </c>
+      <c r="I102" t="n">
         <v>8993.23497310474</v>
       </c>
-      <c r="H102" t="n">
+      <c r="J102" t="n">
         <v>-1040.156377876845</v>
       </c>
-      <c r="I102" t="n">
+      <c r="K102" t="n">
         <v>257.1046309053814</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>-8.956375731184712</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>3.319126884913069</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-16.21869531873602</v>
       </c>
-      <c r="M102" t="n">
+      <c r="O102" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4652,33 +5268,39 @@
         <v>603.4989316126159</v>
       </c>
       <c r="D103" t="n">
+        <v>354.965087890625</v>
+      </c>
+      <c r="E103" t="n">
         <v>-11.42876720428467</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>777.9644668139755</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>21</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
+        <v>21</v>
+      </c>
+      <c r="I103" t="n">
         <v>8256.335653302682</v>
       </c>
-      <c r="H103" t="n">
+      <c r="J103" t="n">
         <v>-916.0471232919938</v>
       </c>
-      <c r="I103" t="n">
+      <c r="K103" t="n">
         <v>349.4200900546244</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>-11.80785391203266</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.312857771754556</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-10.85953624054318</v>
       </c>
-      <c r="M103" t="n">
+      <c r="O103" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4693,33 +5315,39 @@
         <v>598.2068003371633</v>
       </c>
       <c r="D104" t="n">
+        <v>352.3746337890625</v>
+      </c>
+      <c r="E104" t="n">
         <v>-11.87796783447266</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>786.3130713578944</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
+        <v>23</v>
+      </c>
+      <c r="H104" t="n">
         <v>24</v>
       </c>
-      <c r="G104" t="n">
+      <c r="I104" t="n">
         <v>8700.439815399426</v>
       </c>
-      <c r="H104" t="n">
+      <c r="J104" t="n">
         <v>-982.9319649018403</v>
       </c>
-      <c r="I104" t="n">
+      <c r="K104" t="n">
         <v>248.4929382543762</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>-6.554481207191548</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>3.235939745507916</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-15.51682940517017</v>
       </c>
-      <c r="M104" t="n">
+      <c r="O104" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4734,33 +5362,39 @@
         <v>603.9592896078215</v>
       </c>
       <c r="D105" t="n">
+        <v>356.8813781738281</v>
+      </c>
+      <c r="E105" t="n">
         <v>-11.43752670288086</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>784.5855363865277</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
+        <v>26</v>
+      </c>
+      <c r="H105" t="n">
         <v>25</v>
       </c>
-      <c r="G105" t="n">
+      <c r="I105" t="n">
         <v>8503.860605766311</v>
       </c>
-      <c r="H105" t="n">
+      <c r="J105" t="n">
         <v>-891.4026504371892</v>
       </c>
-      <c r="I105" t="n">
+      <c r="K105" t="n">
         <v>365.3109900404122</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>-7.987624955354397</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>3.325159826379303</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-8.072585195651627</v>
       </c>
-      <c r="M105" t="n">
+      <c r="O105" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4775,33 +5409,39 @@
         <v>602.3186339109874</v>
       </c>
       <c r="D106" t="n">
+        <v>358.8824462890625</v>
+      </c>
+      <c r="E106" t="n">
         <v>-11.46625900268555</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>781.2357455426771</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>25</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
+        <v>25</v>
+      </c>
+      <c r="I106" t="n">
         <v>9794.405643305543</v>
       </c>
-      <c r="H106" t="n">
+      <c r="J106" t="n">
         <v>-916.0852038674557</v>
       </c>
-      <c r="I106" t="n">
+      <c r="K106" t="n">
         <v>275.5297644953307</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>-7.74031765058987</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>3.297353942849223</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>-16.55874307142063</v>
       </c>
-      <c r="M106" t="n">
+      <c r="O106" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4816,33 +5456,39 @@
         <v>600.2295868075827</v>
       </c>
       <c r="D107" t="n">
+        <v>355.2496032714844</v>
+      </c>
+      <c r="E107" t="n">
         <v>-12.36150741577148</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>775.4050304614613</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>25</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
+        <v>25</v>
+      </c>
+      <c r="I107" t="n">
         <v>8589.320713817553</v>
       </c>
-      <c r="H107" t="n">
+      <c r="J107" t="n">
         <v>-900.9489082571356</v>
       </c>
-      <c r="I107" t="n">
+      <c r="K107" t="n">
         <v>296.8825708666402</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>-8.615151095653276</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>3.188243762750333</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>-11.96337627337298</v>
       </c>
-      <c r="M107" t="n">
+      <c r="O107" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4857,33 +5503,39 @@
         <v>612.6853157978301</v>
       </c>
       <c r="D108" t="n">
+        <v>358.090576171875</v>
+      </c>
+      <c r="E108" t="n">
         <v>-10.61796283721924</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>786.0862080143589</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
+        <v>22</v>
+      </c>
+      <c r="H108" t="n">
         <v>21</v>
       </c>
-      <c r="G108" t="n">
+      <c r="I108" t="n">
         <v>10062.47802921961</v>
       </c>
-      <c r="H108" t="n">
+      <c r="J108" t="n">
         <v>-906.1176976017712</v>
       </c>
-      <c r="I108" t="n">
+      <c r="K108" t="n">
         <v>388.0743736578644</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>-7.903807806786371</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>3.317082865372996</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>-15.5048140917638</v>
       </c>
-      <c r="M108" t="n">
+      <c r="O108" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4898,33 +5550,39 @@
         <v>600.2669723259648</v>
       </c>
       <c r="D109" t="n">
+        <v>352.4166870117188</v>
+      </c>
+      <c r="E109" t="n">
         <v>-11.12287616729736</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>777.3989314187609</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>27</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
+        <v>27</v>
+      </c>
+      <c r="I109" t="n">
         <v>8275.458295164384</v>
       </c>
-      <c r="H109" t="n">
+      <c r="J109" t="n">
         <v>-1035.246977732882</v>
       </c>
-      <c r="I109" t="n">
+      <c r="K109" t="n">
         <v>274.8576086155986</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>-10.07640226134048</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>3.296696291048374</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>-17.55563271385635</v>
       </c>
-      <c r="M109" t="n">
+      <c r="O109" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4939,33 +5597,39 @@
         <v>602.0537910883858</v>
       </c>
       <c r="D110" t="n">
+        <v>353.4993896484375</v>
+      </c>
+      <c r="E110" t="n">
         <v>-12.52198600769043</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>784.7600836485892</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
+        <v>26</v>
+      </c>
+      <c r="H110" t="n">
         <v>25</v>
       </c>
-      <c r="G110" t="n">
+      <c r="I110" t="n">
         <v>8832.943802248599</v>
       </c>
-      <c r="H110" t="n">
+      <c r="J110" t="n">
         <v>-1238.534807395608</v>
       </c>
-      <c r="I110" t="n">
+      <c r="K110" t="n">
         <v>311.4641562475002</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>-8.729865181970386</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>3.234567585078858</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>-23.78106484030479</v>
       </c>
-      <c r="M110" t="n">
+      <c r="O110" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4980,33 +5644,39 @@
         <v>610.651240563983</v>
       </c>
       <c r="D111" t="n">
+        <v>357.3950500488281</v>
+      </c>
+      <c r="E111" t="n">
         <v>-10.62216758728027</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>785.6896576223353</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>27</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
+        <v>27</v>
+      </c>
+      <c r="I111" t="n">
         <v>8666.263034418462</v>
       </c>
-      <c r="H111" t="n">
+      <c r="J111" t="n">
         <v>-923.6120219043478</v>
       </c>
-      <c r="I111" t="n">
+      <c r="K111" t="n">
         <v>398.5307972331757</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>-9.674595038038964</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>3.290304244227769</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>-11.43844903326154</v>
       </c>
-      <c r="M111" t="n">
+      <c r="O111" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5021,33 +5691,39 @@
         <v>602.1040599386142</v>
       </c>
       <c r="D112" t="n">
+        <v>356.0379638671875</v>
+      </c>
+      <c r="E112" t="n">
         <v>-11.0517463684082</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>774.0634821431801</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
+        <v>22</v>
+      </c>
+      <c r="H112" t="n">
         <v>21</v>
       </c>
-      <c r="G112" t="n">
+      <c r="I112" t="n">
         <v>9427.728759886939</v>
       </c>
-      <c r="H112" t="n">
+      <c r="J112" t="n">
         <v>-885.3061813585537</v>
       </c>
-      <c r="I112" t="n">
+      <c r="K112" t="n">
         <v>258.9177562365064</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>-6.767766428664868</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>3.300300654385017</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-11.9206547560912</v>
       </c>
-      <c r="M112" t="n">
+      <c r="O112" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5062,33 +5738,39 @@
         <v>597.9940800805732</v>
       </c>
       <c r="D113" t="n">
+        <v>358.6052856445312</v>
+      </c>
+      <c r="E113" t="n">
         <v>-11.29246520996094</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>792.8020555831775</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>21</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
+        <v>21</v>
+      </c>
+      <c r="I113" t="n">
         <v>9199.969934585723</v>
       </c>
-      <c r="H113" t="n">
+      <c r="J113" t="n">
         <v>-942.1084021221091</v>
       </c>
-      <c r="I113" t="n">
+      <c r="K113" t="n">
         <v>356.696662059297</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>-9.668372451261776</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>3.312065873231025</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>-14.4607783702484</v>
       </c>
-      <c r="M113" t="n">
+      <c r="O113" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5103,33 +5785,39 @@
         <v>698.6898496327077</v>
       </c>
       <c r="D114" t="n">
+        <v>356.8361511230469</v>
+      </c>
+      <c r="E114" t="n">
         <v>-0.02740056812763214</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>786.2489170573356</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
+        <v>21</v>
+      </c>
+      <c r="H114" t="n">
         <v>20</v>
       </c>
-      <c r="G114" t="n">
+      <c r="I114" t="n">
         <v>9179.990822377074</v>
       </c>
-      <c r="H114" t="n">
+      <c r="J114" t="n">
         <v>-947.6107674545694</v>
       </c>
-      <c r="I114" t="n">
+      <c r="K114" t="n">
         <v>313.2561047507901</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>-8.540302909069835</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>4.248049936678377</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>-14.60444045652602</v>
       </c>
-      <c r="M114" t="n">
+      <c r="O114" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5144,33 +5832,39 @@
         <v>550.24634918782</v>
       </c>
       <c r="D115" t="n">
+        <v>349.4944152832031</v>
+      </c>
+      <c r="E115" t="n">
         <v>-9.838693618774414</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>765.9701531441392</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>27</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
+        <v>27</v>
+      </c>
+      <c r="I115" t="n">
         <v>9057.982614013854</v>
       </c>
-      <c r="H115" t="n">
+      <c r="J115" t="n">
         <v>-977.5227749237076</v>
       </c>
-      <c r="I115" t="n">
+      <c r="K115" t="n">
         <v>310.2743286077874</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>-5.661482514701326</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>3.695482856627434</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>-18.05125319845554</v>
       </c>
-      <c r="M115" t="n">
+      <c r="O115" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5185,33 +5879,39 @@
         <v>560.8977529012716</v>
       </c>
       <c r="D116" t="n">
+        <v>349.454833984375</v>
+      </c>
+      <c r="E116" t="n">
         <v>-5.101759910583496</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>777.6773911615276</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
+        <v>20</v>
+      </c>
+      <c r="H116" t="n">
         <v>19</v>
       </c>
-      <c r="G116" t="n">
+      <c r="I116" t="n">
         <v>7416.005779553183</v>
       </c>
-      <c r="H116" t="n">
+      <c r="J116" t="n">
         <v>-910.3644306753406</v>
       </c>
-      <c r="I116" t="n">
+      <c r="K116" t="n">
         <v>260.1660053888003</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>-7.342526319708885</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>3.720290151646142</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>-12.45287097881969</v>
       </c>
-      <c r="M116" t="n">
+      <c r="O116" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5226,33 +5926,39 @@
         <v>520.6118882668912</v>
       </c>
       <c r="D117" t="n">
+        <v>344.3268737792969</v>
+      </c>
+      <c r="E117" t="n">
         <v>-7.553093910217285</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>768.2373870669933</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>23</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
+        <v>23</v>
+      </c>
+      <c r="I117" t="n">
         <v>8310.849543148861</v>
       </c>
-      <c r="H117" t="n">
+      <c r="J117" t="n">
         <v>-936.6910488744446</v>
       </c>
-      <c r="I117" t="n">
+      <c r="K117" t="n">
         <v>307.6486218212719</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>-8.501942033624443</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>3.661594449665169</v>
       </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
         <v>-15.90945023501561</v>
       </c>
-      <c r="M117" t="n">
+      <c r="O117" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5267,33 +5973,39 @@
         <v>515.6594196121329</v>
       </c>
       <c r="D118" t="n">
+        <v>345.3538513183594</v>
+      </c>
+      <c r="E118" t="n">
         <v>-5.466866970062256</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>773.9388585163647</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>27</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
+        <v>27</v>
+      </c>
+      <c r="I118" t="n">
         <v>6305.454990419313</v>
       </c>
-      <c r="H118" t="n">
+      <c r="J118" t="n">
         <v>-896.144789717436</v>
       </c>
-      <c r="I118" t="n">
+      <c r="K118" t="n">
         <v>200.5009028451088</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>-14.09997618829336</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>3.644379262269149</v>
       </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
         <v>-5.510641977562884</v>
       </c>
-      <c r="M118" t="n">
+      <c r="O118" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5308,33 +6020,39 @@
         <v>479.6110320471257</v>
       </c>
       <c r="D119" t="n">
+        <v>343.9708557128906</v>
+      </c>
+      <c r="E119" t="n">
         <v>-6.839698314666748</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>764.3719892607428</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
+        <v>25</v>
+      </c>
+      <c r="H119" t="n">
         <v>24</v>
       </c>
-      <c r="G119" t="n">
+      <c r="I119" t="n">
         <v>9085.22202068819</v>
       </c>
-      <c r="H119" t="n">
+      <c r="J119" t="n">
         <v>-886.1580352676958</v>
       </c>
-      <c r="I119" t="n">
+      <c r="K119" t="n">
         <v>353.5867529376331</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>-8.736022012702422</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>3.618162122023706</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>-7.148346620365396</v>
       </c>
-      <c r="M119" t="n">
+      <c r="O119" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5349,33 +6067,39 @@
         <v>439.9129835234436</v>
       </c>
       <c r="D120" t="n">
+        <v>346.9537353515625</v>
+      </c>
+      <c r="E120" t="n">
         <v>-9.557680130004883</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>758.3585860251632</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
+        <v>23</v>
+      </c>
+      <c r="H120" t="n">
         <v>22</v>
       </c>
-      <c r="G120" t="n">
+      <c r="I120" t="n">
         <v>9703.047707170903</v>
       </c>
-      <c r="H120" t="n">
+      <c r="J120" t="n">
         <v>-889.5743024532271</v>
       </c>
-      <c r="I120" t="n">
+      <c r="K120" t="n">
         <v>365.4709490083587</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>-6.9152275567341</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>3.48069967064256</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>-6.374461626301528</v>
       </c>
-      <c r="M120" t="n">
+      <c r="O120" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5390,33 +6114,39 @@
         <v>449.4649142523012</v>
       </c>
       <c r="D121" t="n">
+        <v>343.2833862304688</v>
+      </c>
+      <c r="E121" t="n">
         <v>-8.290316581726074</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>760.408761304991</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
+        <v>26</v>
+      </c>
+      <c r="H121" t="n">
         <v>27</v>
       </c>
-      <c r="G121" t="n">
+      <c r="I121" t="n">
         <v>10107.97448153079</v>
       </c>
-      <c r="H121" t="n">
+      <c r="J121" t="n">
         <v>-865.42303515752</v>
       </c>
-      <c r="I121" t="n">
+      <c r="K121" t="n">
         <v>408.2120967840654</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>-7.598544006451588</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>3.648017938378119</v>
       </c>
-      <c r="L121" t="n">
+      <c r="N121" t="n">
         <v>-5.172846913435091</v>
       </c>
-      <c r="M121" t="n">
+      <c r="O121" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5431,33 +6161,39 @@
         <v>417.4050708658607</v>
       </c>
       <c r="D122" t="n">
+        <v>338.6817321777344</v>
+      </c>
+      <c r="E122" t="n">
         <v>-10.12356090545654</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>746.4543231848678</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>23</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
+        <v>23</v>
+      </c>
+      <c r="I122" t="n">
         <v>9356.277419600161</v>
       </c>
-      <c r="H122" t="n">
+      <c r="J122" t="n">
         <v>-848.1432614857197</v>
       </c>
-      <c r="I122" t="n">
+      <c r="K122" t="n">
         <v>367.8542956027981</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>-8.550498178515429</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>3.576408674869473</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>-5.36080744171506</v>
       </c>
-      <c r="M122" t="n">
+      <c r="O122" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5472,33 +6208,39 @@
         <v>385.3267485641874</v>
       </c>
       <c r="D123" t="n">
+        <v>338.0569763183594</v>
+      </c>
+      <c r="E123" t="n">
         <v>-12.64041805267334</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>763.9511862521374</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
+        <v>25</v>
+      </c>
+      <c r="H123" t="n">
         <v>24</v>
       </c>
-      <c r="G123" t="n">
+      <c r="I123" t="n">
         <v>7485.358586866711</v>
       </c>
-      <c r="H123" t="n">
+      <c r="J123" t="n">
         <v>-887.2972122995933</v>
       </c>
-      <c r="I123" t="n">
+      <c r="K123" t="n">
         <v>146.3312430550912</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>-6.203003273462457</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>3.509900379484409</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>-7.301022900358152</v>
       </c>
-      <c r="M123" t="n">
+      <c r="O123" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5513,33 +6255,39 @@
         <v>398.6408328995432</v>
       </c>
       <c r="D124" t="n">
+        <v>339.8495788574219</v>
+      </c>
+      <c r="E124" t="n">
         <v>-11.96171092987061</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>763.9885007475908</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>26</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
+        <v>26</v>
+      </c>
+      <c r="I124" t="n">
         <v>8169.56761623041</v>
       </c>
-      <c r="H124" t="n">
+      <c r="J124" t="n">
         <v>-861.5700110316857</v>
       </c>
-      <c r="I124" t="n">
+      <c r="K124" t="n">
         <v>243.7265967549002</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>-6.259343903426428</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>3.644198654312254</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>-5.496759325041529</v>
       </c>
-      <c r="M124" t="n">
+      <c r="O124" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5554,33 +6302,39 @@
         <v>378.0556876328453</v>
       </c>
       <c r="D125" t="n">
+        <v>332.6469421386719</v>
+      </c>
+      <c r="E125" t="n">
         <v>-13.10328483581543</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>747.712848353237</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>26</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
+        <v>26</v>
+      </c>
+      <c r="I125" t="n">
         <v>8374.248552437242</v>
       </c>
-      <c r="H125" t="n">
+      <c r="J125" t="n">
         <v>-859.096625261097</v>
       </c>
-      <c r="I125" t="n">
+      <c r="K125" t="n">
         <v>325.6037618485988</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>-9.354620866875479</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>3.62092170099434</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>-5.816206530839415</v>
       </c>
-      <c r="M125" t="n">
+      <c r="O125" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5595,33 +6349,39 @@
         <v>357.3130122342371</v>
       </c>
       <c r="D126" t="n">
+        <v>333.5341186523438</v>
+      </c>
+      <c r="E126" t="n">
         <v>-17.064453125</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>761.2303146958352</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>27</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
+        <v>27</v>
+      </c>
+      <c r="I126" t="n">
         <v>8278.608634765469</v>
       </c>
-      <c r="H126" t="n">
+      <c r="J126" t="n">
         <v>-858.7309341411381</v>
       </c>
-      <c r="I126" t="n">
+      <c r="K126" t="n">
         <v>328.606632275646</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>-7.492901346749322</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>3.369138485769442</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>-5.832141616916458</v>
       </c>
-      <c r="M126" t="n">
+      <c r="O126" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5636,33 +6396,39 @@
         <v>400.1871988809378</v>
       </c>
       <c r="D127" t="n">
+        <v>336.5415344238281</v>
+      </c>
+      <c r="E127" t="n">
         <v>-12.25533866882324</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>753.1693888774737</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>27</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
+        <v>27</v>
+      </c>
+      <c r="I127" t="n">
         <v>8729.176994775258</v>
       </c>
-      <c r="H127" t="n">
+      <c r="J127" t="n">
         <v>-814.7402080811244</v>
       </c>
-      <c r="I127" t="n">
+      <c r="K127" t="n">
         <v>288.8574880637673</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>-7.597539750148918</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>3.726660009684334</v>
       </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
         <v>-6.368951072483899</v>
       </c>
-      <c r="M127" t="n">
+      <c r="O127" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5677,33 +6443,39 @@
         <v>380.2328038342391</v>
       </c>
       <c r="D128" t="n">
+        <v>333.3634948730469</v>
+      </c>
+      <c r="E128" t="n">
         <v>-14.45509243011475</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>748.3642790316817</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
+        <v>24</v>
+      </c>
+      <c r="H128" t="n">
         <v>25</v>
       </c>
-      <c r="G128" t="n">
+      <c r="I128" t="n">
         <v>8812.278041852074</v>
       </c>
-      <c r="H128" t="n">
+      <c r="J128" t="n">
         <v>-799.1964321239848</v>
       </c>
-      <c r="I128" t="n">
+      <c r="K128" t="n">
         <v>330.8209475215959</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>-8.39017877906014</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>3.663701206312227</v>
       </c>
-      <c r="L128" t="n">
+      <c r="N128" t="n">
         <v>-10.2908462594989</v>
       </c>
-      <c r="M128" t="n">
+      <c r="O128" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5718,33 +6490,39 @@
         <v>377.0101174844342</v>
       </c>
       <c r="D129" t="n">
+        <v>338.0352478027344</v>
+      </c>
+      <c r="E129" t="n">
         <v>-15.51117038726807</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>762.5746004364232</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
+        <v>25</v>
+      </c>
+      <c r="H129" t="n">
         <v>24</v>
       </c>
-      <c r="G129" t="n">
+      <c r="I129" t="n">
         <v>8459.049276708947</v>
       </c>
-      <c r="H129" t="n">
+      <c r="J129" t="n">
         <v>-893.0885504118489</v>
       </c>
-      <c r="I129" t="n">
+      <c r="K129" t="n">
         <v>296.4721502144881</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>-9.63007420883444</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>3.517497882108705</v>
       </c>
-      <c r="L129" t="n">
+      <c r="N129" t="n">
         <v>-7.818660162633642</v>
       </c>
-      <c r="M129" t="n">
+      <c r="O129" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5759,33 +6537,39 @@
         <v>406.123710955568</v>
       </c>
       <c r="D130" t="n">
+        <v>335.2885437011719</v>
+      </c>
+      <c r="E130" t="n">
         <v>-13.23853492736816</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>763.4459784023993</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
+        <v>29</v>
+      </c>
+      <c r="H130" t="n">
         <v>28</v>
       </c>
-      <c r="G130" t="n">
+      <c r="I130" t="n">
         <v>7578.856759704368</v>
       </c>
-      <c r="H130" t="n">
+      <c r="J130" t="n">
         <v>-848.7705840960352</v>
       </c>
-      <c r="I130" t="n">
+      <c r="K130" t="n">
         <v>255.034397422446</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>-7.641037780791852</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>3.668085003634589</v>
       </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
         <v>-7.866671694555979</v>
       </c>
-      <c r="M130" t="n">
+      <c r="O130" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5800,33 +6584,39 @@
         <v>393.4104530652581</v>
       </c>
       <c r="D131" t="n">
+        <v>334.5740966796875</v>
+      </c>
+      <c r="E131" t="n">
         <v>-14.1663703918457</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>755.5253848783263</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
+        <v>23</v>
+      </c>
+      <c r="H131" t="n">
         <v>22</v>
       </c>
-      <c r="G131" t="n">
+      <c r="I131" t="n">
         <v>7815.824383485175</v>
       </c>
-      <c r="H131" t="n">
+      <c r="J131" t="n">
         <v>-843.3517966777101</v>
       </c>
-      <c r="I131" t="n">
+      <c r="K131" t="n">
         <v>300.6521756054996</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>-6.753617606182898</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>3.585887852257436</v>
       </c>
-      <c r="L131" t="n">
+      <c r="N131" t="n">
         <v>-9.859178333569037</v>
       </c>
-      <c r="M131" t="n">
+      <c r="O131" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5841,33 +6631,39 @@
         <v>407.6415928355186</v>
       </c>
       <c r="D132" t="n">
+        <v>334.99560546875</v>
+      </c>
+      <c r="E132" t="n">
         <v>-14.4985408782959</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>754.6361822275401</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>28</v>
       </c>
-      <c r="G132" t="n">
+      <c r="H132" t="n">
+        <v>28</v>
+      </c>
+      <c r="I132" t="n">
         <v>8263.168897265445</v>
       </c>
-      <c r="H132" t="n">
+      <c r="J132" t="n">
         <v>-840.6637804905822</v>
       </c>
-      <c r="I132" t="n">
+      <c r="K132" t="n">
         <v>341.6903187191866</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>-8.736850010732336</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>3.579433865551337</v>
       </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
         <v>-14.30862728553774</v>
       </c>
-      <c r="M132" t="n">
+      <c r="O132" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5882,33 +6678,39 @@
         <v>422.6091948562912</v>
       </c>
       <c r="D133" t="n">
+        <v>341.4928894042969</v>
+      </c>
+      <c r="E133" t="n">
         <v>-13.49887561798096</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>762.643677876162</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
+        <v>26</v>
+      </c>
+      <c r="H133" t="n">
         <v>25</v>
       </c>
-      <c r="G133" t="n">
+      <c r="I133" t="n">
         <v>9049.920631138415</v>
       </c>
-      <c r="H133" t="n">
+      <c r="J133" t="n">
         <v>-833.1852930283094</v>
       </c>
-      <c r="I133" t="n">
+      <c r="K133" t="n">
         <v>287.6025263441111</v>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>-9.22599073127782</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>3.615277653293722</v>
       </c>
-      <c r="L133" t="n">
+      <c r="N133" t="n">
         <v>-8.855621333343434</v>
       </c>
-      <c r="M133" t="n">
+      <c r="O133" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5923,33 +6725,39 @@
         <v>436.0497814903791</v>
       </c>
       <c r="D134" t="n">
+        <v>342.4014587402344</v>
+      </c>
+      <c r="E134" t="n">
         <v>-13.14673328399658</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>764.9507184698575</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
+        <v>29</v>
+      </c>
+      <c r="H134" t="n">
         <v>28</v>
       </c>
-      <c r="G134" t="n">
+      <c r="I134" t="n">
         <v>7336.355558949867</v>
       </c>
-      <c r="H134" t="n">
+      <c r="J134" t="n">
         <v>-855.6392146776652</v>
       </c>
-      <c r="I134" t="n">
+      <c r="K134" t="n">
         <v>247.7597926055163</v>
       </c>
-      <c r="J134" t="n">
+      <c r="L134" t="n">
         <v>-6.76315782851957</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>3.568728304710458</v>
       </c>
-      <c r="L134" t="n">
+      <c r="N134" t="n">
         <v>-10.14922695425147</v>
       </c>
-      <c r="M134" t="n">
+      <c r="O134" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5964,33 +6772,39 @@
         <v>436.2743391984088</v>
       </c>
       <c r="D135" t="n">
+        <v>338.3005065917969</v>
+      </c>
+      <c r="E135" t="n">
         <v>-13.10223293304443</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>757.0618361747108</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
+        <v>31</v>
+      </c>
+      <c r="H135" t="n">
         <v>30</v>
       </c>
-      <c r="G135" t="n">
+      <c r="I135" t="n">
         <v>8805.358783839041</v>
       </c>
-      <c r="H135" t="n">
+      <c r="J135" t="n">
         <v>-833.4295704134652</v>
       </c>
-      <c r="I135" t="n">
+      <c r="K135" t="n">
         <v>363.0791427410566</v>
       </c>
-      <c r="J135" t="n">
+      <c r="L135" t="n">
         <v>-7.303070982957807</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>3.580471240779441</v>
       </c>
-      <c r="L135" t="n">
+      <c r="N135" t="n">
         <v>-9.473479994197248</v>
       </c>
-      <c r="M135" t="n">
+      <c r="O135" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6005,33 +6819,39 @@
         <v>445.7379108670072</v>
       </c>
       <c r="D136" t="n">
+        <v>343.1793212890625</v>
+      </c>
+      <c r="E136" t="n">
         <v>-12.37306976318359</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>765.2349447542115</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>26</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
+        <v>26</v>
+      </c>
+      <c r="I136" t="n">
         <v>9551.317005075325</v>
       </c>
-      <c r="H136" t="n">
+      <c r="J136" t="n">
         <v>-815.4647905869256</v>
       </c>
-      <c r="I136" t="n">
+      <c r="K136" t="n">
         <v>375.7310196800397</v>
       </c>
-      <c r="J136" t="n">
+      <c r="L136" t="n">
         <v>-6.981563282201071</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>3.605328336398382</v>
       </c>
-      <c r="L136" t="n">
+      <c r="N136" t="n">
         <v>-7.478935504408665</v>
       </c>
-      <c r="M136" t="n">
+      <c r="O136" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6046,33 +6866,39 @@
         <v>429.8799281234347</v>
       </c>
       <c r="D137" t="n">
+        <v>332.8414001464844</v>
+      </c>
+      <c r="E137" t="n">
         <v>-12.48694705963135</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>757.4120503863013</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
+        <v>25</v>
+      </c>
+      <c r="H137" t="n">
         <v>24</v>
       </c>
-      <c r="G137" t="n">
+      <c r="I137" t="n">
         <v>7465.886083686164</v>
       </c>
-      <c r="H137" t="n">
+      <c r="J137" t="n">
         <v>-864.4289080793299</v>
       </c>
-      <c r="I137" t="n">
+      <c r="K137" t="n">
         <v>235.3824785978902</v>
       </c>
-      <c r="J137" t="n">
+      <c r="L137" t="n">
         <v>-7.962529575777841</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>3.543991578856798</v>
       </c>
-      <c r="L137" t="n">
+      <c r="N137" t="n">
         <v>-7.904899249060874</v>
       </c>
-      <c r="M137" t="n">
+      <c r="O137" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6087,33 +6913,39 @@
         <v>433.543620038063</v>
       </c>
       <c r="D138" t="n">
+        <v>336.1116027832031</v>
+      </c>
+      <c r="E138" t="n">
         <v>-12.39899921417236</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>741.0898958134599</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>25</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
+        <v>25</v>
+      </c>
+      <c r="I138" t="n">
         <v>7100.44209089433</v>
       </c>
-      <c r="H138" t="n">
+      <c r="J138" t="n">
         <v>-817.2271506041891</v>
       </c>
-      <c r="I138" t="n">
+      <c r="K138" t="n">
         <v>243.0563386192653</v>
       </c>
-      <c r="J138" t="n">
+      <c r="L138" t="n">
         <v>-6.600225091718198</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>3.565967780996481</v>
       </c>
-      <c r="L138" t="n">
+      <c r="N138" t="n">
         <v>-6.69542253264597</v>
       </c>
-      <c r="M138" t="n">
+      <c r="O138" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6128,33 +6960,39 @@
         <v>421.7697387604186</v>
       </c>
       <c r="D139" t="n">
+        <v>335.0481567382812</v>
+      </c>
+      <c r="E139" t="n">
         <v>-13.01078128814697</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>752.4802238750705</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
+        <v>25</v>
+      </c>
+      <c r="H139" t="n">
         <v>24</v>
       </c>
-      <c r="G139" t="n">
+      <c r="I139" t="n">
         <v>6395.921255536982</v>
       </c>
-      <c r="H139" t="n">
+      <c r="J139" t="n">
         <v>-840.2777339624843</v>
       </c>
-      <c r="I139" t="n">
+      <c r="K139" t="n">
         <v>166.0242370540098</v>
       </c>
-      <c r="J139" t="n">
+      <c r="L139" t="n">
         <v>-6.091692086814517</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>3.521158129205086</v>
       </c>
-      <c r="L139" t="n">
+      <c r="N139" t="n">
         <v>-5.393458652295933</v>
       </c>
-      <c r="M139" t="n">
+      <c r="O139" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6169,33 +7007,39 @@
         <v>439.3869515513034</v>
       </c>
       <c r="D140" t="n">
+        <v>336.6473388671875</v>
+      </c>
+      <c r="E140" t="n">
         <v>-12.22870922088623</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>747.386921539486</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>27</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
+        <v>27</v>
+      </c>
+      <c r="I140" t="n">
         <v>8349.019343050528</v>
       </c>
-      <c r="H140" t="n">
+      <c r="J140" t="n">
         <v>-824.5898707348233</v>
       </c>
-      <c r="I140" t="n">
+      <c r="K140" t="n">
         <v>242.3841442747553</v>
       </c>
-      <c r="J140" t="n">
+      <c r="L140" t="n">
         <v>-9.857622549543736</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>3.581457426038924</v>
       </c>
-      <c r="L140" t="n">
+      <c r="N140" t="n">
         <v>-5.714666755962661</v>
       </c>
-      <c r="M140" t="n">
+      <c r="O140" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6210,33 +7054,39 @@
         <v>444.4258421761593</v>
       </c>
       <c r="D141" t="n">
+        <v>338.6883850097656</v>
+      </c>
+      <c r="E141" t="n">
         <v>-11.90214443206787</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>753.2819692786321</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>21</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
+        <v>21</v>
+      </c>
+      <c r="I141" t="n">
         <v>8726.572848877964</v>
       </c>
-      <c r="H141" t="n">
+      <c r="J141" t="n">
         <v>-808.9081569202563</v>
       </c>
-      <c r="I141" t="n">
+      <c r="K141" t="n">
         <v>340.7820592683869</v>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>-6.081232437725876</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>3.561970190805532</v>
       </c>
-      <c r="L141" t="n">
+      <c r="N141" t="n">
         <v>-6.745234131221065</v>
       </c>
-      <c r="M141" t="n">
+      <c r="O141" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6251,33 +7101,39 @@
         <v>433.2775740904192</v>
       </c>
       <c r="D142" t="n">
+        <v>337.1841430664062</v>
+      </c>
+      <c r="E142" t="n">
         <v>-13.77463340759277</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>745.9734471000878</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>23</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
+        <v>23</v>
+      </c>
+      <c r="I142" t="n">
         <v>8950.075452472956</v>
       </c>
-      <c r="H142" t="n">
+      <c r="J142" t="n">
         <v>-828.772915581118</v>
       </c>
-      <c r="I142" t="n">
+      <c r="K142" t="n">
         <v>350.5110025878982</v>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>-8.089152303006816</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>3.529865854845222</v>
       </c>
-      <c r="L142" t="n">
+      <c r="N142" t="n">
         <v>-3.53390649565865</v>
       </c>
-      <c r="M142" t="n">
+      <c r="O142" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6292,33 +7148,39 @@
         <v>449.0810500317186</v>
       </c>
       <c r="D143" t="n">
+        <v>335.6827087402344</v>
+      </c>
+      <c r="E143" t="n">
         <v>-11.67123699188232</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>743.3145360108743</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
+        <v>27</v>
+      </c>
+      <c r="H143" t="n">
         <v>26</v>
       </c>
-      <c r="G143" t="n">
+      <c r="I143" t="n">
         <v>7012.257482674831</v>
       </c>
-      <c r="H143" t="n">
+      <c r="J143" t="n">
         <v>-788.2616671048795</v>
       </c>
-      <c r="I143" t="n">
+      <c r="K143" t="n">
         <v>251.466190246382</v>
       </c>
-      <c r="J143" t="n">
+      <c r="L143" t="n">
         <v>-5.494906164778045</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>3.461353685443138</v>
       </c>
-      <c r="L143" t="n">
+      <c r="N143" t="n">
         <v>-7.284941498391063</v>
       </c>
-      <c r="M143" t="n">
+      <c r="O143" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6333,33 +7195,39 @@
         <v>438.3734275372288</v>
       </c>
       <c r="D144" t="n">
+        <v>339.0913391113281</v>
+      </c>
+      <c r="E144" t="n">
         <v>-12.44665241241455</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>767.2425168920076</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
+        <v>27</v>
+      </c>
+      <c r="H144" t="n">
         <v>26</v>
       </c>
-      <c r="G144" t="n">
+      <c r="I144" t="n">
         <v>7860.757910585684</v>
       </c>
-      <c r="H144" t="n">
+      <c r="J144" t="n">
         <v>-872.0828865497674</v>
       </c>
-      <c r="I144" t="n">
+      <c r="K144" t="n">
         <v>254.5454046579278</v>
       </c>
-      <c r="J144" t="n">
+      <c r="L144" t="n">
         <v>-6.281739680805932</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>3.589592627191149</v>
       </c>
-      <c r="L144" t="n">
+      <c r="N144" t="n">
         <v>-8.17464444034864</v>
       </c>
-      <c r="M144" t="n">
+      <c r="O144" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6374,33 +7242,39 @@
         <v>436.2404772942579</v>
       </c>
       <c r="D145" t="n">
+        <v>343.4530029296875</v>
+      </c>
+      <c r="E145" t="n">
         <v>-12.98765563964844</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>765.2903038191903</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
+        <v>24</v>
+      </c>
+      <c r="H145" t="n">
         <v>25</v>
       </c>
-      <c r="G145" t="n">
+      <c r="I145" t="n">
         <v>9495.237754527137</v>
       </c>
-      <c r="H145" t="n">
+      <c r="J145" t="n">
         <v>-845.3597816170575</v>
       </c>
-      <c r="I145" t="n">
+      <c r="K145" t="n">
         <v>382.1045480454629</v>
       </c>
-      <c r="J145" t="n">
+      <c r="L145" t="n">
         <v>-6.488688869634349</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>3.452233070760149</v>
       </c>
-      <c r="L145" t="n">
+      <c r="N145" t="n">
         <v>-7.290387175108767</v>
       </c>
-      <c r="M145" t="n">
+      <c r="O145" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6415,33 +7289,39 @@
         <v>447.8238324799757</v>
       </c>
       <c r="D146" t="n">
+        <v>340.8075256347656</v>
+      </c>
+      <c r="E146" t="n">
         <v>-12.14881992340088</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>764.7330295860197</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
+        <v>26</v>
+      </c>
+      <c r="H146" t="n">
         <v>25</v>
       </c>
-      <c r="G146" t="n">
+      <c r="I146" t="n">
         <v>8844.896676317894</v>
       </c>
-      <c r="H146" t="n">
+      <c r="J146" t="n">
         <v>-876.3295543100998</v>
       </c>
-      <c r="I146" t="n">
+      <c r="K146" t="n">
         <v>316.9113376922263</v>
       </c>
-      <c r="J146" t="n">
+      <c r="L146" t="n">
         <v>-7.237311953267251</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>3.575920963060887</v>
       </c>
-      <c r="L146" t="n">
+      <c r="N146" t="n">
         <v>-7.607253345618122</v>
       </c>
-      <c r="M146" t="n">
+      <c r="O146" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6456,33 +7336,39 @@
         <v>439.4141712078633</v>
       </c>
       <c r="D147" t="n">
+        <v>338.2083435058594</v>
+      </c>
+      <c r="E147" t="n">
         <v>-11.88953113555908</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>752.9430471612441</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>25</v>
       </c>
-      <c r="G147" t="n">
+      <c r="H147" t="n">
+        <v>25</v>
+      </c>
+      <c r="I147" t="n">
         <v>9132.671618767223</v>
       </c>
-      <c r="H147" t="n">
+      <c r="J147" t="n">
         <v>-840.1420916690986</v>
       </c>
-      <c r="I147" t="n">
+      <c r="K147" t="n">
         <v>389.55871366126</v>
       </c>
-      <c r="J147" t="n">
+      <c r="L147" t="n">
         <v>-8.508470608209723</v>
       </c>
-      <c r="K147" t="n">
+      <c r="M147" t="n">
         <v>3.551761893553896</v>
       </c>
-      <c r="L147" t="n">
+      <c r="N147" t="n">
         <v>-7.11435579891637</v>
       </c>
-      <c r="M147" t="n">
+      <c r="O147" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6497,33 +7383,39 @@
         <v>437.430915648486</v>
       </c>
       <c r="D148" t="n">
+        <v>342.0980224609375</v>
+      </c>
+      <c r="E148" t="n">
         <v>-13.36572742462158</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>755.7469035781284</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>30</v>
       </c>
-      <c r="G148" t="n">
+      <c r="H148" t="n">
+        <v>30</v>
+      </c>
+      <c r="I148" t="n">
         <v>8902.834994728437</v>
       </c>
-      <c r="H148" t="n">
+      <c r="J148" t="n">
         <v>-828.3984006665141</v>
       </c>
-      <c r="I148" t="n">
+      <c r="K148" t="n">
         <v>366.0229598944491</v>
       </c>
-      <c r="J148" t="n">
+      <c r="L148" t="n">
         <v>-7.128797228495739</v>
       </c>
-      <c r="K148" t="n">
+      <c r="M148" t="n">
         <v>3.43895778908463</v>
       </c>
-      <c r="L148" t="n">
+      <c r="N148" t="n">
         <v>-12.80467868968503</v>
       </c>
-      <c r="M148" t="n">
+      <c r="O148" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6538,33 +7430,39 @@
         <v>447.9082759202316</v>
       </c>
       <c r="D149" t="n">
+        <v>342.9151306152344</v>
+      </c>
+      <c r="E149" t="n">
         <v>-11.86255073547363</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>766.6158001681381</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
+        <v>22</v>
+      </c>
+      <c r="H149" t="n">
         <v>21</v>
       </c>
-      <c r="G149" t="n">
+      <c r="I149" t="n">
         <v>9126.932811938652</v>
       </c>
-      <c r="H149" t="n">
+      <c r="J149" t="n">
         <v>-884.9119568086306</v>
       </c>
-      <c r="I149" t="n">
+      <c r="K149" t="n">
         <v>329.8301907110568</v>
       </c>
-      <c r="J149" t="n">
+      <c r="L149" t="n">
         <v>-9.434114159497669</v>
       </c>
-      <c r="K149" t="n">
+      <c r="M149" t="n">
         <v>3.631085394989024</v>
       </c>
-      <c r="L149" t="n">
+      <c r="N149" t="n">
         <v>-8.436444187217162</v>
       </c>
-      <c r="M149" t="n">
+      <c r="O149" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6579,33 +7477,39 @@
         <v>442.1828337858992</v>
       </c>
       <c r="D150" t="n">
+        <v>342.3359375</v>
+      </c>
+      <c r="E150" t="n">
         <v>-12.48484516143799</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>753.6144685872782</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
+        <v>28</v>
+      </c>
+      <c r="H150" t="n">
         <v>27</v>
       </c>
-      <c r="G150" t="n">
+      <c r="I150" t="n">
         <v>9235.799632998804</v>
       </c>
-      <c r="H150" t="n">
+      <c r="J150" t="n">
         <v>-837.6705583653609</v>
       </c>
-      <c r="I150" t="n">
+      <c r="K150" t="n">
         <v>247.1780910594064</v>
       </c>
-      <c r="J150" t="n">
+      <c r="L150" t="n">
         <v>-6.575806334022404</v>
       </c>
-      <c r="K150" t="n">
+      <c r="M150" t="n">
         <v>3.55982406859113</v>
       </c>
-      <c r="L150" t="n">
+      <c r="N150" t="n">
         <v>-9.601348265387328</v>
       </c>
-      <c r="M150" t="n">
+      <c r="O150" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6620,33 +7524,39 @@
         <v>439.8274030435759</v>
       </c>
       <c r="D151" t="n">
+        <v>355.2664184570312</v>
+      </c>
+      <c r="E151" t="n">
         <v>-13.27602672576904</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>791.9526312474098</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>29</v>
       </c>
-      <c r="G151" t="n">
+      <c r="H151" t="n">
+        <v>29</v>
+      </c>
+      <c r="I151" t="n">
         <v>10346.0803488901</v>
       </c>
-      <c r="H151" t="n">
+      <c r="J151" t="n">
         <v>-838.0903152884362</v>
       </c>
-      <c r="I151" t="n">
+      <c r="K151" t="n">
         <v>385.7773633428735</v>
       </c>
-      <c r="J151" t="n">
+      <c r="L151" t="n">
         <v>-6.896158167861949</v>
       </c>
-      <c r="K151" t="n">
+      <c r="M151" t="n">
         <v>3.522719838095383</v>
       </c>
-      <c r="L151" t="n">
+      <c r="N151" t="n">
         <v>-4.20143621320306</v>
       </c>
-      <c r="M151" t="n">
+      <c r="O151" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6661,33 +7571,39 @@
         <v>442.2513094175151</v>
       </c>
       <c r="D152" t="n">
+        <v>345.9870300292969</v>
+      </c>
+      <c r="E152" t="n">
         <v>-11.81419658660889</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>770.8758360701516</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>24</v>
       </c>
-      <c r="G152" t="n">
+      <c r="H152" t="n">
+        <v>24</v>
+      </c>
+      <c r="I152" t="n">
         <v>9281.048832932644</v>
       </c>
-      <c r="H152" t="n">
+      <c r="J152" t="n">
         <v>-798.6242992769672</v>
       </c>
-      <c r="I152" t="n">
+      <c r="K152" t="n">
         <v>340.8316372608322</v>
       </c>
-      <c r="J152" t="n">
+      <c r="L152" t="n">
         <v>-8.366742735863021</v>
       </c>
-      <c r="K152" t="n">
+      <c r="M152" t="n">
         <v>3.57228267876004</v>
       </c>
-      <c r="L152" t="n">
+      <c r="N152" t="n">
         <v>-5.774819788748315</v>
       </c>
-      <c r="M152" t="n">
+      <c r="O152" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6702,33 +7618,39 @@
         <v>430.8481557131773</v>
       </c>
       <c r="D153" t="n">
+        <v>335.9213256835938</v>
+      </c>
+      <c r="E153" t="n">
         <v>-12.14461517333984</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>741.4272562519503</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
+        <v>28</v>
+      </c>
+      <c r="H153" t="n">
         <v>27</v>
       </c>
-      <c r="G153" t="n">
+      <c r="I153" t="n">
         <v>8907.616564570693</v>
       </c>
-      <c r="H153" t="n">
+      <c r="J153" t="n">
         <v>-816.1792670475872</v>
       </c>
-      <c r="I153" t="n">
+      <c r="K153" t="n">
         <v>355.0230203937159</v>
       </c>
-      <c r="J153" t="n">
+      <c r="L153" t="n">
         <v>-7.857786916706882</v>
       </c>
-      <c r="K153" t="n">
+      <c r="M153" t="n">
         <v>3.564561765787724</v>
       </c>
-      <c r="L153" t="n">
+      <c r="N153" t="n">
         <v>-8.920319194375519</v>
       </c>
-      <c r="M153" t="n">
+      <c r="O153" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6743,33 +7665,39 @@
         <v>429.1558968510005</v>
       </c>
       <c r="D154" t="n">
+        <v>336.0387268066406</v>
+      </c>
+      <c r="E154" t="n">
         <v>-13.01813983917236</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>755.6050210043743</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
+        <v>25</v>
+      </c>
+      <c r="H154" t="n">
         <v>24</v>
       </c>
-      <c r="G154" t="n">
+      <c r="I154" t="n">
         <v>8207.15084693105</v>
       </c>
-      <c r="H154" t="n">
+      <c r="J154" t="n">
         <v>-859.9718014118628</v>
       </c>
-      <c r="I154" t="n">
+      <c r="K154" t="n">
         <v>297.5481245701898</v>
       </c>
-      <c r="J154" t="n">
+      <c r="L154" t="n">
         <v>-5.853924069442069</v>
       </c>
-      <c r="K154" t="n">
+      <c r="M154" t="n">
         <v>3.544713948248965</v>
       </c>
-      <c r="L154" t="n">
+      <c r="N154" t="n">
         <v>-7.815028335266258</v>
       </c>
-      <c r="M154" t="n">
+      <c r="O154" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6784,33 +7712,39 @@
         <v>437.220235242372</v>
       </c>
       <c r="D155" t="n">
+        <v>338.2721252441406</v>
+      </c>
+      <c r="E155" t="n">
         <v>-12.36956596374512</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>761.0999880950582</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
+        <v>30</v>
+      </c>
+      <c r="H155" t="n">
         <v>29</v>
       </c>
-      <c r="G155" t="n">
+      <c r="I155" t="n">
         <v>7474.026932320747</v>
       </c>
-      <c r="H155" t="n">
+      <c r="J155" t="n">
         <v>-865.6377869969643</v>
       </c>
-      <c r="I155" t="n">
+      <c r="K155" t="n">
         <v>214.7911692261619</v>
       </c>
-      <c r="J155" t="n">
+      <c r="L155" t="n">
         <v>-7.64707407750936</v>
       </c>
-      <c r="K155" t="n">
+      <c r="M155" t="n">
         <v>3.554998050961629</v>
       </c>
-      <c r="L155" t="n">
+      <c r="N155" t="n">
         <v>-9.137491292735822</v>
       </c>
-      <c r="M155" t="n">
+      <c r="O155" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6825,33 +7759,39 @@
         <v>448.6502895484435</v>
       </c>
       <c r="D156" t="n">
+        <v>336.5643005371094</v>
+      </c>
+      <c r="E156" t="n">
         <v>-12.05071067810059</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>760.302932700312</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
+        <v>33</v>
+      </c>
+      <c r="H156" t="n">
         <v>32</v>
       </c>
-      <c r="G156" t="n">
+      <c r="I156" t="n">
         <v>8234.858756436701</v>
       </c>
-      <c r="H156" t="n">
+      <c r="J156" t="n">
         <v>-859.2566639360734</v>
       </c>
-      <c r="I156" t="n">
+      <c r="K156" t="n">
         <v>306.3872463205747</v>
       </c>
-      <c r="J156" t="n">
+      <c r="L156" t="n">
         <v>-5.985589876481171</v>
       </c>
-      <c r="K156" t="n">
+      <c r="M156" t="n">
         <v>3.557585732583936</v>
       </c>
-      <c r="L156" t="n">
+      <c r="N156" t="n">
         <v>-6.671759366213571</v>
       </c>
-      <c r="M156" t="n">
+      <c r="O156" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6866,33 +7806,39 @@
         <v>441.7145835172374</v>
       </c>
       <c r="D157" t="n">
+        <v>340.9876403808594</v>
+      </c>
+      <c r="E157" t="n">
         <v>-12.46767520904541</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>769.1876377668153</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>25</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
+        <v>25</v>
+      </c>
+      <c r="I157" t="n">
         <v>8911.12162552185</v>
       </c>
-      <c r="H157" t="n">
+      <c r="J157" t="n">
         <v>-833.7775073311072</v>
       </c>
-      <c r="I157" t="n">
+      <c r="K157" t="n">
         <v>350.3422469061564</v>
       </c>
-      <c r="J157" t="n">
+      <c r="L157" t="n">
         <v>-8.682488954305343</v>
       </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
         <v>3.574795838567679</v>
       </c>
-      <c r="L157" t="n">
+      <c r="N157" t="n">
         <v>-6.832634618992779</v>
       </c>
-      <c r="M157" t="n">
+      <c r="O157" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6907,33 +7853,39 @@
         <v>437.5235430259154</v>
       </c>
       <c r="D158" t="n">
+        <v>335.9395446777344</v>
+      </c>
+      <c r="E158" t="n">
         <v>-11.85028743743896</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>769.2665304000936</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>31</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
+        <v>31</v>
+      </c>
+      <c r="I158" t="n">
         <v>8114.426094702667</v>
       </c>
-      <c r="H158" t="n">
+      <c r="J158" t="n">
         <v>-826.2189821996471</v>
       </c>
-      <c r="I158" t="n">
+      <c r="K158" t="n">
         <v>324.3516208638504</v>
       </c>
-      <c r="J158" t="n">
+      <c r="L158" t="n">
         <v>-11.14976281727388</v>
       </c>
-      <c r="K158" t="n">
+      <c r="M158" t="n">
         <v>3.570551225316792</v>
       </c>
-      <c r="L158" t="n">
+      <c r="N158" t="n">
         <v>-6.533790415395282</v>
       </c>
-      <c r="M158" t="n">
+      <c r="O158" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6948,33 +7900,39 @@
         <v>441.429130895119</v>
       </c>
       <c r="D159" t="n">
+        <v>336.5212097167969</v>
+      </c>
+      <c r="E159" t="n">
         <v>-12.10502147674561</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>758.7447217114268</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>24</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
+        <v>24</v>
+      </c>
+      <c r="I159" t="n">
         <v>6733.32611951898</v>
       </c>
-      <c r="H159" t="n">
+      <c r="J159" t="n">
         <v>-844.3362197413808</v>
       </c>
-      <c r="I159" t="n">
+      <c r="K159" t="n">
         <v>241.9121112505725</v>
       </c>
-      <c r="J159" t="n">
+      <c r="L159" t="n">
         <v>-7.942143601459704</v>
       </c>
-      <c r="K159" t="n">
+      <c r="M159" t="n">
         <v>3.533376000580967</v>
       </c>
-      <c r="L159" t="n">
+      <c r="N159" t="n">
         <v>-6.946802260560331</v>
       </c>
-      <c r="M159" t="n">
+      <c r="O159" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6989,33 +7947,39 @@
         <v>440.7488888928825</v>
       </c>
       <c r="D160" t="n">
+        <v>341.2118835449219</v>
+      </c>
+      <c r="E160" t="n">
         <v>-13.45893096923828</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>771.5189220984628</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
+        <v>25</v>
+      </c>
+      <c r="H160" t="n">
         <v>24</v>
       </c>
-      <c r="G160" t="n">
+      <c r="I160" t="n">
         <v>7783.367596411783</v>
       </c>
-      <c r="H160" t="n">
+      <c r="J160" t="n">
         <v>-864.1211327511794</v>
       </c>
-      <c r="I160" t="n">
+      <c r="K160" t="n">
         <v>250.9978215965066</v>
       </c>
-      <c r="J160" t="n">
+      <c r="L160" t="n">
         <v>-15.19751979044465</v>
       </c>
-      <c r="K160" t="n">
+      <c r="M160" t="n">
         <v>3.527743173554046</v>
       </c>
-      <c r="L160" t="n">
+      <c r="N160" t="n">
         <v>-6.861207315262318</v>
       </c>
-      <c r="M160" t="n">
+      <c r="O160" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7030,33 +7994,39 @@
         <v>465.15626461212</v>
       </c>
       <c r="D161" t="n">
+        <v>341.2132873535156</v>
+      </c>
+      <c r="E161" t="n">
         <v>-12.13690662384033</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>767.8109476925619</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>27</v>
       </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
+        <v>27</v>
+      </c>
+      <c r="I161" t="n">
         <v>7611.673657534608</v>
       </c>
-      <c r="H161" t="n">
+      <c r="J161" t="n">
         <v>-888.2863960271792</v>
       </c>
-      <c r="I161" t="n">
+      <c r="K161" t="n">
         <v>286.9586783512833</v>
       </c>
-      <c r="J161" t="n">
+      <c r="L161" t="n">
         <v>-10.06748283521856</v>
       </c>
-      <c r="K161" t="n">
+      <c r="M161" t="n">
         <v>3.554025528583221</v>
       </c>
-      <c r="L161" t="n">
+      <c r="N161" t="n">
         <v>-12.67303265085766</v>
       </c>
-      <c r="M161" t="n">
+      <c r="O161" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7071,33 +8041,39 @@
         <v>453.1408656685015</v>
       </c>
       <c r="D162" t="n">
+        <v>345.9961242675781</v>
+      </c>
+      <c r="E162" t="n">
         <v>-12.19717407226562</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>766.7881818735568</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
+        <v>23</v>
+      </c>
+      <c r="H162" t="n">
         <v>24</v>
       </c>
-      <c r="G162" t="n">
+      <c r="I162" t="n">
         <v>8526.866680041259</v>
       </c>
-      <c r="H162" t="n">
+      <c r="J162" t="n">
         <v>-850.8137074772601</v>
       </c>
-      <c r="I162" t="n">
+      <c r="K162" t="n">
         <v>279.2199206853464</v>
       </c>
-      <c r="J162" t="n">
+      <c r="L162" t="n">
         <v>-6.783219574711183</v>
       </c>
-      <c r="K162" t="n">
+      <c r="M162" t="n">
         <v>3.513925763723548</v>
       </c>
-      <c r="L162" t="n">
+      <c r="N162" t="n">
         <v>-8.522993387421364</v>
       </c>
-      <c r="M162" t="n">
+      <c r="O162" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7112,33 +8088,39 @@
         <v>448.7496949939134</v>
       </c>
       <c r="D163" t="n">
+        <v>346.8212890625</v>
+      </c>
+      <c r="E163" t="n">
         <v>-13.74344825744629</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>768.3836126620334</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>24</v>
       </c>
-      <c r="G163" t="n">
+      <c r="H163" t="n">
+        <v>24</v>
+      </c>
+      <c r="I163" t="n">
         <v>7422.23075311203</v>
       </c>
-      <c r="H163" t="n">
+      <c r="J163" t="n">
         <v>-858.0524338383066</v>
       </c>
-      <c r="I163" t="n">
+      <c r="K163" t="n">
         <v>289.5790050986201</v>
       </c>
-      <c r="J163" t="n">
+      <c r="L163" t="n">
         <v>-8.789206840951461</v>
       </c>
-      <c r="K163" t="n">
+      <c r="M163" t="n">
         <v>3.453862412085241</v>
       </c>
-      <c r="L163" t="n">
+      <c r="N163" t="n">
         <v>-5.433097071435554</v>
       </c>
-      <c r="M163" t="n">
+      <c r="O163" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7153,33 +8135,39 @@
         <v>447.8447470442565</v>
       </c>
       <c r="D164" t="n">
+        <v>340.064697265625</v>
+      </c>
+      <c r="E164" t="n">
         <v>-11.86710548400879</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>755.2208394495815</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
+        <v>27</v>
+      </c>
+      <c r="H164" t="n">
         <v>26</v>
       </c>
-      <c r="G164" t="n">
+      <c r="I164" t="n">
         <v>9563.85731048297</v>
       </c>
-      <c r="H164" t="n">
+      <c r="J164" t="n">
         <v>-824.5451255161865</v>
       </c>
-      <c r="I164" t="n">
+      <c r="K164" t="n">
         <v>393.922862108727</v>
       </c>
-      <c r="J164" t="n">
+      <c r="L164" t="n">
         <v>-6.735333627586878</v>
       </c>
-      <c r="K164" t="n">
+      <c r="M164" t="n">
         <v>3.54744054135383</v>
       </c>
-      <c r="L164" t="n">
+      <c r="N164" t="n">
         <v>-7.717014203122401</v>
       </c>
-      <c r="M164" t="n">
+      <c r="O164" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7194,33 +8182,39 @@
         <v>437.8276770122661</v>
       </c>
       <c r="D165" t="n">
+        <v>367.0335998535156</v>
+      </c>
+      <c r="E165" t="n">
         <v>-12.03424263000488</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>814.5209199796525</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
+        <v>21</v>
+      </c>
+      <c r="H165" t="n">
         <v>20</v>
       </c>
-      <c r="G165" t="n">
+      <c r="I165" t="n">
         <v>8604.571319146251</v>
       </c>
-      <c r="H165" t="n">
+      <c r="J165" t="n">
         <v>-869.7856265359487</v>
       </c>
-      <c r="I165" t="n">
+      <c r="K165" t="n">
         <v>244.4443953445665</v>
       </c>
-      <c r="J165" t="n">
+      <c r="L165" t="n">
         <v>-6.11080882947476</v>
       </c>
-      <c r="K165" t="n">
+      <c r="M165" t="n">
         <v>3.521073952248673</v>
       </c>
-      <c r="L165" t="n">
+      <c r="N165" t="n">
         <v>-10.49171661191854</v>
       </c>
-      <c r="M165" t="n">
+      <c r="O165" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7235,33 +8229,39 @@
         <v>425.351008522279</v>
       </c>
       <c r="D166" t="n">
+        <v>373.1538696289062</v>
+      </c>
+      <c r="E166" t="n">
         <v>-13.16425228118896</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>815.8665605657432</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
+        <v>29</v>
+      </c>
+      <c r="H166" t="n">
         <v>28</v>
       </c>
-      <c r="G166" t="n">
+      <c r="I166" t="n">
         <v>8152.552084303199</v>
       </c>
-      <c r="H166" t="n">
+      <c r="J166" t="n">
         <v>-829.7881875941116</v>
       </c>
-      <c r="I166" t="n">
+      <c r="K166" t="n">
         <v>268.2570642599227</v>
       </c>
-      <c r="J166" t="n">
+      <c r="L166" t="n">
         <v>-7.657807831880856</v>
       </c>
-      <c r="K166" t="n">
+      <c r="M166" t="n">
         <v>3.3869399721844</v>
       </c>
-      <c r="L166" t="n">
+      <c r="N166" t="n">
         <v>-4.255743776958903</v>
       </c>
-      <c r="M166" t="n">
+      <c r="O166" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7276,33 +8276,39 @@
         <v>439.5755031086748</v>
       </c>
       <c r="D167" t="n">
+        <v>370.5339965820312</v>
+      </c>
+      <c r="E167" t="n">
         <v>-12.253586769104</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>814.3673475414588</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
+        <v>25</v>
+      </c>
+      <c r="H167" t="n">
         <v>24</v>
       </c>
-      <c r="G167" t="n">
+      <c r="I167" t="n">
         <v>11151.60354927137</v>
       </c>
-      <c r="H167" t="n">
+      <c r="J167" t="n">
         <v>-822.3096020718081</v>
       </c>
-      <c r="I167" t="n">
+      <c r="K167" t="n">
         <v>429.2986390905282</v>
       </c>
-      <c r="J167" t="n">
+      <c r="L167" t="n">
         <v>-11.45349994325447</v>
       </c>
-      <c r="K167" t="n">
+      <c r="M167" t="n">
         <v>3.578811066158938</v>
       </c>
-      <c r="L167" t="n">
+      <c r="N167" t="n">
         <v>-7.281563634502528</v>
       </c>
-      <c r="M167" t="n">
+      <c r="O167" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7317,33 +8323,39 @@
         <v>438.7625642171871</v>
       </c>
       <c r="D168" t="n">
+        <v>385.0559387207031</v>
+      </c>
+      <c r="E168" t="n">
         <v>-12.47923851013184</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>858.4717896729314</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
+        <v>30</v>
+      </c>
+      <c r="H168" t="n">
         <v>29</v>
       </c>
-      <c r="G168" t="n">
+      <c r="I168" t="n">
         <v>11980.34341160116</v>
       </c>
-      <c r="H168" t="n">
+      <c r="J168" t="n">
         <v>-870.5962275274935</v>
       </c>
-      <c r="I168" t="n">
+      <c r="K168" t="n">
         <v>417.7679571418156</v>
       </c>
-      <c r="J168" t="n">
+      <c r="L168" t="n">
         <v>-11.67236317693213</v>
       </c>
-      <c r="K168" t="n">
+      <c r="M168" t="n">
         <v>3.536972832754524</v>
       </c>
-      <c r="L168" t="n">
+      <c r="N168" t="n">
         <v>-7.148166025696872</v>
       </c>
-      <c r="M168" t="n">
+      <c r="O168" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7358,33 +8370,39 @@
         <v>441.9325956132583</v>
       </c>
       <c r="D169" t="n">
+        <v>383.83447265625</v>
+      </c>
+      <c r="E169" t="n">
         <v>-13.26831817626953</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>858.0691235811014</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>30</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
+        <v>30</v>
+      </c>
+      <c r="I169" t="n">
         <v>12085.12335184849</v>
       </c>
-      <c r="H169" t="n">
+      <c r="J169" t="n">
         <v>-805.0073518192594</v>
       </c>
-      <c r="I169" t="n">
+      <c r="K169" t="n">
         <v>309.1148163563334</v>
       </c>
-      <c r="J169" t="n">
+      <c r="L169" t="n">
         <v>-10.27817506211147</v>
       </c>
-      <c r="K169" t="n">
+      <c r="M169" t="n">
         <v>3.468043523696341</v>
       </c>
-      <c r="L169" t="n">
+      <c r="N169" t="n">
         <v>-7.718683029758784</v>
       </c>
-      <c r="M169" t="n">
+      <c r="O169" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7399,33 +8417,39 @@
         <v>450.4932114401249</v>
       </c>
       <c r="D170" t="n">
+        <v>438.1979675292969</v>
+      </c>
+      <c r="E170" t="n">
         <v>-11.81314563751221</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>961.4715209524569</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>22</v>
       </c>
-      <c r="G170" t="n">
+      <c r="H170" t="n">
+        <v>22</v>
+      </c>
+      <c r="I170" t="n">
         <v>15174.07102997303</v>
       </c>
-      <c r="H170" t="n">
+      <c r="J170" t="n">
         <v>-866.8052995504913</v>
       </c>
-      <c r="I170" t="n">
+      <c r="K170" t="n">
         <v>474.2475352220682</v>
       </c>
-      <c r="J170" t="n">
+      <c r="L170" t="n">
         <v>-14.98789702933528</v>
       </c>
-      <c r="K170" t="n">
+      <c r="M170" t="n">
         <v>3.569970828437079</v>
       </c>
-      <c r="L170" t="n">
+      <c r="N170" t="n">
         <v>-6.646838658757838</v>
       </c>
-      <c r="M170" t="n">
+      <c r="O170" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7440,33 +8464,39 @@
         <v>442.73635062849</v>
       </c>
       <c r="D171" t="n">
+        <v>430.4357604980469</v>
+      </c>
+      <c r="E171" t="n">
         <v>-11.99079418182373</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>946.8978186779284</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>28</v>
       </c>
-      <c r="G171" t="n">
+      <c r="H171" t="n">
+        <v>28</v>
+      </c>
+      <c r="I171" t="n">
         <v>14107.88928796345</v>
       </c>
-      <c r="H171" t="n">
+      <c r="J171" t="n">
         <v>-888.8574917500852</v>
       </c>
-      <c r="I171" t="n">
+      <c r="K171" t="n">
         <v>565.0274226747428</v>
       </c>
-      <c r="J171" t="n">
+      <c r="L171" t="n">
         <v>-11.10218025634449</v>
       </c>
-      <c r="K171" t="n">
+      <c r="M171" t="n">
         <v>3.525379020877358</v>
       </c>
-      <c r="L171" t="n">
+      <c r="N171" t="n">
         <v>-4.34307382915257</v>
       </c>
-      <c r="M171" t="n">
+      <c r="O171" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7481,33 +8511,39 @@
         <v>433.4582519928515</v>
       </c>
       <c r="D172" t="n">
+        <v>436.4028930664062</v>
+      </c>
+      <c r="E172" t="n">
         <v>-13.57841396331787</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>941.8347916482809</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>27</v>
       </c>
-      <c r="G172" t="n">
+      <c r="H172" t="n">
+        <v>27</v>
+      </c>
+      <c r="I172" t="n">
         <v>14665.79861544622</v>
       </c>
-      <c r="H172" t="n">
+      <c r="J172" t="n">
         <v>-919.4225782860733</v>
       </c>
-      <c r="I172" t="n">
+      <c r="K172" t="n">
         <v>571.9411042509487</v>
       </c>
-      <c r="J172" t="n">
+      <c r="L172" t="n">
         <v>-8.080828687922828</v>
       </c>
-      <c r="K172" t="n">
+      <c r="M172" t="n">
         <v>3.494605736363067</v>
       </c>
-      <c r="L172" t="n">
+      <c r="N172" t="n">
         <v>-5.778251848035049</v>
       </c>
-      <c r="M172" t="n">
+      <c r="O172" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7522,33 +8558,39 @@
         <v>442.3100016053261</v>
       </c>
       <c r="D173" t="n">
+        <v>422.8963928222656</v>
+      </c>
+      <c r="E173" t="n">
         <v>-11.77320098876953</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>926.9591652599205</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
+        <v>31</v>
+      </c>
+      <c r="H173" t="n">
         <v>30</v>
       </c>
-      <c r="G173" t="n">
+      <c r="I173" t="n">
         <v>8414.348330600653</v>
       </c>
-      <c r="H173" t="n">
+      <c r="J173" t="n">
         <v>-842.5036557869073</v>
       </c>
-      <c r="I173" t="n">
+      <c r="K173" t="n">
         <v>300.5105312694029</v>
       </c>
-      <c r="J173" t="n">
+      <c r="L173" t="n">
         <v>-8.667022336869705</v>
       </c>
-      <c r="K173" t="n">
+      <c r="M173" t="n">
         <v>3.555665458680777</v>
       </c>
-      <c r="L173" t="n">
+      <c r="N173" t="n">
         <v>-5.890864269476108</v>
       </c>
-      <c r="M173" t="n">
+      <c r="O173" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7563,33 +8605,39 @@
         <v>453.4752317589677</v>
       </c>
       <c r="D174" t="n">
+        <v>438.3170776367188</v>
+      </c>
+      <c r="E174" t="n">
         <v>-12.18771362304688</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>963.9032383156278</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>27</v>
       </c>
-      <c r="G174" t="n">
+      <c r="H174" t="n">
+        <v>27</v>
+      </c>
+      <c r="I174" t="n">
         <v>15247.12456537997</v>
       </c>
-      <c r="H174" t="n">
+      <c r="J174" t="n">
         <v>-872.9816638752818</v>
       </c>
-      <c r="I174" t="n">
+      <c r="K174" t="n">
         <v>585.4935006734806</v>
       </c>
-      <c r="J174" t="n">
+      <c r="L174" t="n">
         <v>-12.46143304646834</v>
       </c>
-      <c r="K174" t="n">
+      <c r="M174" t="n">
         <v>3.543539132105265</v>
       </c>
-      <c r="L174" t="n">
+      <c r="N174" t="n">
         <v>-10.15419681079073</v>
       </c>
-      <c r="M174" t="n">
+      <c r="O174" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7604,33 +8652,39 @@
         <v>434.3343001483101</v>
       </c>
       <c r="D175" t="n">
+        <v>433.103271484375</v>
+      </c>
+      <c r="E175" t="n">
         <v>-12.69262599945068</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>940.0986048828197</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>28</v>
       </c>
-      <c r="G175" t="n">
+      <c r="H175" t="n">
+        <v>28</v>
+      </c>
+      <c r="I175" t="n">
         <v>14877.9793975474</v>
       </c>
-      <c r="H175" t="n">
+      <c r="J175" t="n">
         <v>-849.5968174273853</v>
       </c>
-      <c r="I175" t="n">
+      <c r="K175" t="n">
         <v>614.2870269947377</v>
       </c>
-      <c r="J175" t="n">
+      <c r="L175" t="n">
         <v>-12.17991329569593</v>
       </c>
-      <c r="K175" t="n">
+      <c r="M175" t="n">
         <v>3.535816284866524</v>
       </c>
-      <c r="L175" t="n">
+      <c r="N175" t="n">
         <v>-7.508132691246451</v>
       </c>
-      <c r="M175" t="n">
+      <c r="O175" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7645,33 +8699,39 @@
         <v>442.0857426878728</v>
       </c>
       <c r="D176" t="n">
+        <v>431.8096313476562</v>
+      </c>
+      <c r="E176" t="n">
         <v>-12.50761985778809</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>942.0997653837095</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>31</v>
       </c>
-      <c r="G176" t="n">
+      <c r="H176" t="n">
+        <v>31</v>
+      </c>
+      <c r="I176" t="n">
         <v>14948.75443460032</v>
       </c>
-      <c r="H176" t="n">
+      <c r="J176" t="n">
         <v>-840.4276884043163</v>
       </c>
-      <c r="I176" t="n">
+      <c r="K176" t="n">
         <v>545.695032655156</v>
       </c>
-      <c r="J176" t="n">
+      <c r="L176" t="n">
         <v>-14.66434410780941</v>
       </c>
-      <c r="K176" t="n">
+      <c r="M176" t="n">
         <v>3.551434175656291</v>
       </c>
-      <c r="L176" t="n">
+      <c r="N176" t="n">
         <v>-5.919603261237189</v>
       </c>
-      <c r="M176" t="n">
+      <c r="O176" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7686,33 +8746,39 @@
         <v>446.5017126991009</v>
       </c>
       <c r="D177" t="n">
+        <v>430.0678405761719</v>
+      </c>
+      <c r="E177" t="n">
         <v>-12.63796520233154</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>944.3781085248627</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
+        <v>30</v>
+      </c>
+      <c r="H177" t="n">
         <v>29</v>
       </c>
-      <c r="G177" t="n">
+      <c r="I177" t="n">
         <v>13606.40789604501</v>
       </c>
-      <c r="H177" t="n">
+      <c r="J177" t="n">
         <v>-875.9334837705948</v>
       </c>
-      <c r="I177" t="n">
+      <c r="K177" t="n">
         <v>440.404293301675</v>
       </c>
-      <c r="J177" t="n">
+      <c r="L177" t="n">
         <v>-7.763465668275874</v>
       </c>
-      <c r="K177" t="n">
+      <c r="M177" t="n">
         <v>3.528138735666943</v>
       </c>
-      <c r="L177" t="n">
+      <c r="N177" t="n">
         <v>-6.951026950294681</v>
       </c>
-      <c r="M177" t="n">
+      <c r="O177" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7727,33 +8793,39 @@
         <v>450.9776943040214</v>
       </c>
       <c r="D178" t="n">
+        <v>421.3399658203125</v>
+      </c>
+      <c r="E178" t="n">
         <v>-11.90109348297119</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>922.7412318579527</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
+        <v>30</v>
+      </c>
+      <c r="H178" t="n">
         <v>31</v>
       </c>
-      <c r="G178" t="n">
+      <c r="I178" t="n">
         <v>13818.15020725205</v>
       </c>
-      <c r="H178" t="n">
+      <c r="J178" t="n">
         <v>-831.6832166652248</v>
       </c>
-      <c r="I178" t="n">
+      <c r="K178" t="n">
         <v>530.2993952325123</v>
       </c>
-      <c r="J178" t="n">
+      <c r="L178" t="n">
         <v>-11.9000541900568</v>
       </c>
-      <c r="K178" t="n">
+      <c r="M178" t="n">
         <v>3.56379863339377</v>
       </c>
-      <c r="L178" t="n">
+      <c r="N178" t="n">
         <v>-5.066654243226649</v>
       </c>
-      <c r="M178" t="n">
+      <c r="O178" t="n">
         <v>300</v>
       </c>
     </row>

--- a/Korrelation/DOE2_features_reduced_features.xlsx
+++ b/Korrelation/DOE2_features_reduced_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,50 +461,40 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Trajectory_length</t>
+          <t>minima_count</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>peak_count</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>valley_count</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
@@ -527,33 +517,27 @@
         <v>-12.51357650756836</v>
       </c>
       <c r="F2" t="n">
-        <v>771.4228786747894</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>8763.272700517256</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>-851.8818012497936</v>
       </c>
       <c r="I2" t="n">
-        <v>8763.272700517256</v>
+        <v>267.4665407192271</v>
       </c>
       <c r="J2" t="n">
-        <v>-851.8818012497936</v>
+        <v>-6.642470533199469</v>
       </c>
       <c r="K2" t="n">
-        <v>267.4665407192271</v>
+        <v>3.650691982844232</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.642470533199469</v>
+        <v>-13.96977494918673</v>
       </c>
       <c r="M2" t="n">
-        <v>3.650691982844232</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-13.96977494918673</v>
-      </c>
-      <c r="O2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -574,33 +558,27 @@
         <v>-11.48237705230713</v>
       </c>
       <c r="F3" t="n">
-        <v>763.6202867938053</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>8198.752635243722</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>-864.4946424851287</v>
       </c>
       <c r="I3" t="n">
-        <v>8198.752635243722</v>
+        <v>168.846826059785</v>
       </c>
       <c r="J3" t="n">
-        <v>-864.4946424851287</v>
+        <v>-4.084430922082472</v>
       </c>
       <c r="K3" t="n">
-        <v>168.846826059785</v>
+        <v>3.621845981142731</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.084430922082472</v>
+        <v>-14.44173495756528</v>
       </c>
       <c r="M3" t="n">
-        <v>3.621845981142731</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-14.44173495756528</v>
-      </c>
-      <c r="O3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -621,33 +599,27 @@
         <v>-11.80859088897705</v>
       </c>
       <c r="F4" t="n">
-        <v>766.8095566171745</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>8564.332685610021</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>-856.0616319628148</v>
       </c>
       <c r="I4" t="n">
-        <v>8564.332685610021</v>
+        <v>323.8859487683093</v>
       </c>
       <c r="J4" t="n">
-        <v>-856.0616319628148</v>
+        <v>-6.049243688316164</v>
       </c>
       <c r="K4" t="n">
-        <v>323.8859487683093</v>
+        <v>3.642235441330973</v>
       </c>
       <c r="L4" t="n">
-        <v>-6.049243688316164</v>
+        <v>-10.94479215966778</v>
       </c>
       <c r="M4" t="n">
-        <v>3.642235441330973</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-10.94479215966778</v>
-      </c>
-      <c r="O4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -668,33 +640,27 @@
         <v>-13.02900123596191</v>
       </c>
       <c r="F5" t="n">
-        <v>774.2737559274437</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>7114.380702775554</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>-1260.636555188319</v>
       </c>
       <c r="I5" t="n">
-        <v>7114.380702775554</v>
+        <v>258.5960809649355</v>
       </c>
       <c r="J5" t="n">
-        <v>-1260.636555188319</v>
+        <v>-9.500590205390456</v>
       </c>
       <c r="K5" t="n">
-        <v>258.5960809649355</v>
+        <v>3.681940361171194</v>
       </c>
       <c r="L5" t="n">
-        <v>-9.500590205390456</v>
+        <v>-19.11206905706532</v>
       </c>
       <c r="M5" t="n">
-        <v>3.681940361171194</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-19.11206905706532</v>
-      </c>
-      <c r="O5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -715,33 +681,27 @@
         <v>-11.56051349639893</v>
       </c>
       <c r="F6" t="n">
-        <v>755.3487157966917</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>8699.308725925765</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>-841.5537744627829</v>
       </c>
       <c r="I6" t="n">
-        <v>8699.308725925765</v>
+        <v>270.0543976451958</v>
       </c>
       <c r="J6" t="n">
-        <v>-841.5537744627829</v>
+        <v>-9.332547096777994</v>
       </c>
       <c r="K6" t="n">
-        <v>270.0543976451958</v>
+        <v>3.651835755080313</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.332547096777994</v>
+        <v>-12.40769799321375</v>
       </c>
       <c r="M6" t="n">
-        <v>3.651835755080313</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-12.40769799321375</v>
-      </c>
-      <c r="O6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -762,33 +722,27 @@
         <v>-12.30334186553955</v>
       </c>
       <c r="F7" t="n">
-        <v>775.8158132525808</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>8960.662052828055</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>-857.6895109319196</v>
       </c>
       <c r="I7" t="n">
-        <v>8960.662052828055</v>
+        <v>269.2522607761431</v>
       </c>
       <c r="J7" t="n">
-        <v>-857.6895109319196</v>
+        <v>-9.513055781880913</v>
       </c>
       <c r="K7" t="n">
-        <v>269.2522607761431</v>
+        <v>3.683419169639217</v>
       </c>
       <c r="L7" t="n">
-        <v>-9.513055781880913</v>
+        <v>-8.854906825537356</v>
       </c>
       <c r="M7" t="n">
-        <v>3.683419169639217</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-8.854906825537356</v>
-      </c>
-      <c r="O7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -809,33 +763,27 @@
         <v>-12.56788730621338</v>
       </c>
       <c r="F8" t="n">
-        <v>768.8767333447061</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>8973.245193916879</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>-824.6238248202205</v>
       </c>
       <c r="I8" t="n">
-        <v>8973.245193916879</v>
+        <v>317.1478791008322</v>
       </c>
       <c r="J8" t="n">
-        <v>-824.6238248202205</v>
+        <v>-7.213521510923938</v>
       </c>
       <c r="K8" t="n">
-        <v>317.1478791008322</v>
+        <v>3.615788847773181</v>
       </c>
       <c r="L8" t="n">
-        <v>-7.213521510923938</v>
+        <v>-9.872512147066679</v>
       </c>
       <c r="M8" t="n">
-        <v>3.615788847773181</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-9.872512147066679</v>
-      </c>
-      <c r="O8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -856,33 +804,27 @@
         <v>-11.97397518157959</v>
       </c>
       <c r="F9" t="n">
-        <v>771.4468635115848</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>8343.420123958898</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>-856.4469012882214</v>
       </c>
       <c r="I9" t="n">
-        <v>8343.420123958898</v>
+        <v>333.8170601439424</v>
       </c>
       <c r="J9" t="n">
-        <v>-856.4469012882214</v>
+        <v>-8.671630773158542</v>
       </c>
       <c r="K9" t="n">
-        <v>333.8170601439424</v>
+        <v>3.681849526903629</v>
       </c>
       <c r="L9" t="n">
-        <v>-8.671630773158542</v>
+        <v>-11.95213335622883</v>
       </c>
       <c r="M9" t="n">
-        <v>3.681849526903629</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-11.95213335622883</v>
-      </c>
-      <c r="O9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -903,33 +845,27 @@
         <v>-11.32680320739746</v>
       </c>
       <c r="F10" t="n">
-        <v>757.7526117757594</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>8275.073961739034</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>-849.0769045404768</v>
       </c>
       <c r="I10" t="n">
-        <v>8275.073961739034</v>
+        <v>179.3489144888887</v>
       </c>
       <c r="J10" t="n">
-        <v>-849.0769045404768</v>
+        <v>-5.817521065228659</v>
       </c>
       <c r="K10" t="n">
-        <v>179.3489144888887</v>
+        <v>3.687080669831222</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.817521065228659</v>
+        <v>-9.900342766744563</v>
       </c>
       <c r="M10" t="n">
-        <v>3.687080669831222</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-9.900342766744563</v>
-      </c>
-      <c r="O10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -950,33 +886,27 @@
         <v>-12.95016384124756</v>
       </c>
       <c r="F11" t="n">
-        <v>765.4718170303239</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>8161.713165347614</v>
       </c>
       <c r="H11" t="n">
-        <v>24</v>
+        <v>-845.5384514954403</v>
       </c>
       <c r="I11" t="n">
-        <v>8161.713165347614</v>
+        <v>299.4802181035957</v>
       </c>
       <c r="J11" t="n">
-        <v>-845.5384514954403</v>
+        <v>-9.230204200631787</v>
       </c>
       <c r="K11" t="n">
-        <v>299.4802181035957</v>
+        <v>3.535858674413475</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.230204200631787</v>
+        <v>-15.25555563538972</v>
       </c>
       <c r="M11" t="n">
-        <v>3.535858674413475</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-15.25555563538972</v>
-      </c>
-      <c r="O11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -997,33 +927,27 @@
         <v>-11.27669715881348</v>
       </c>
       <c r="F12" t="n">
-        <v>769.6824494353282</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>8510.642174952796</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>-851.9307028732565</v>
       </c>
       <c r="I12" t="n">
-        <v>8510.642174952796</v>
+        <v>328.8815687578856</v>
       </c>
       <c r="J12" t="n">
-        <v>-851.9307028732565</v>
+        <v>-10.08437613973075</v>
       </c>
       <c r="K12" t="n">
-        <v>328.8815687578856</v>
+        <v>3.678525297158354</v>
       </c>
       <c r="L12" t="n">
-        <v>-10.08437613973075</v>
+        <v>-9.172535376823088</v>
       </c>
       <c r="M12" t="n">
-        <v>3.678525297158354</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-9.172535376823088</v>
-      </c>
-      <c r="O12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1044,33 +968,27 @@
         <v>-12.21994972229004</v>
       </c>
       <c r="F13" t="n">
-        <v>768.216328665676</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>6354.71321507303</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>-870.6818618656773</v>
       </c>
       <c r="I13" t="n">
-        <v>6354.71321507303</v>
+        <v>126.6649130277487</v>
       </c>
       <c r="J13" t="n">
-        <v>-870.6818618656773</v>
+        <v>-5.006397148766629</v>
       </c>
       <c r="K13" t="n">
-        <v>126.6649130277487</v>
+        <v>3.654049745679222</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.006397148766629</v>
+        <v>-14.306803792029</v>
       </c>
       <c r="M13" t="n">
-        <v>3.654049745679222</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-14.306803792029</v>
-      </c>
-      <c r="O13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1091,33 +1009,27 @@
         <v>-13.2402868270874</v>
       </c>
       <c r="F14" t="n">
-        <v>764.3920537354561</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>8309.349106303165</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>-823.1730296125938</v>
       </c>
       <c r="I14" t="n">
-        <v>8309.349106303165</v>
+        <v>227.4547455321415</v>
       </c>
       <c r="J14" t="n">
-        <v>-823.1730296125938</v>
+        <v>-4.671383277763046</v>
       </c>
       <c r="K14" t="n">
-        <v>227.4547455321415</v>
+        <v>3.567155485532448</v>
       </c>
       <c r="L14" t="n">
-        <v>-4.671383277763046</v>
+        <v>-11.15769002124251</v>
       </c>
       <c r="M14" t="n">
-        <v>3.567155485532448</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-11.15769002124251</v>
-      </c>
-      <c r="O14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1138,33 +1050,27 @@
         <v>-11.377610206604</v>
       </c>
       <c r="F15" t="n">
-        <v>764.7680158834949</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>9470.64001029206</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>-1063.011189173723</v>
       </c>
       <c r="I15" t="n">
-        <v>9470.64001029206</v>
+        <v>354.2353780293042</v>
       </c>
       <c r="J15" t="n">
-        <v>-1063.011189173723</v>
+        <v>-6.645572990490842</v>
       </c>
       <c r="K15" t="n">
-        <v>354.2353780293042</v>
+        <v>3.662358699993515</v>
       </c>
       <c r="L15" t="n">
-        <v>-6.645572990490842</v>
+        <v>-19.22737665224279</v>
       </c>
       <c r="M15" t="n">
-        <v>3.662358699993515</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-19.22737665224279</v>
-      </c>
-      <c r="O15" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1185,33 +1091,27 @@
         <v>-12.22100067138672</v>
       </c>
       <c r="F16" t="n">
-        <v>771.0384661601936</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>8182.859121760152</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>-852.5733378954371</v>
       </c>
       <c r="I16" t="n">
-        <v>8182.859121760152</v>
+        <v>252.5273679587022</v>
       </c>
       <c r="J16" t="n">
-        <v>-852.5733378954371</v>
+        <v>-7.978123674184419</v>
       </c>
       <c r="K16" t="n">
-        <v>252.5273679587022</v>
+        <v>3.69202382763983</v>
       </c>
       <c r="L16" t="n">
-        <v>-7.978123674184419</v>
+        <v>-10.68321211498335</v>
       </c>
       <c r="M16" t="n">
-        <v>3.69202382763983</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-10.68321211498335</v>
-      </c>
-      <c r="O16" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1232,33 +1132,27 @@
         <v>-12.95436859130859</v>
       </c>
       <c r="F17" t="n">
-        <v>758.4163431123933</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>8956.965554099323</v>
       </c>
       <c r="H17" t="n">
-        <v>25</v>
+        <v>-819.747814776845</v>
       </c>
       <c r="I17" t="n">
-        <v>8956.965554099323</v>
+        <v>322.6813778772677</v>
       </c>
       <c r="J17" t="n">
-        <v>-819.747814776845</v>
+        <v>-6.748131504861309</v>
       </c>
       <c r="K17" t="n">
-        <v>322.6813778772677</v>
+        <v>3.61070101157187</v>
       </c>
       <c r="L17" t="n">
-        <v>-6.748131504861309</v>
+        <v>-15.33342027827259</v>
       </c>
       <c r="M17" t="n">
-        <v>3.61070101157187</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-15.33342027827259</v>
-      </c>
-      <c r="O17" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1279,33 +1173,27 @@
         <v>-11.57978534698486</v>
       </c>
       <c r="F18" t="n">
-        <v>769.9713280338177</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>8450.377691702934</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>-842.853073158398</v>
       </c>
       <c r="I18" t="n">
-        <v>8450.377691702934</v>
+        <v>320.1231508777573</v>
       </c>
       <c r="J18" t="n">
-        <v>-842.853073158398</v>
+        <v>-8.313941439093176</v>
       </c>
       <c r="K18" t="n">
-        <v>320.1231508777573</v>
+        <v>3.673632622269664</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.313941439093176</v>
+        <v>-8.129910412882023</v>
       </c>
       <c r="M18" t="n">
-        <v>3.673632622269664</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.129910412882023</v>
-      </c>
-      <c r="O18" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1326,33 +1214,27 @@
         <v>-12.03319072723389</v>
       </c>
       <c r="F19" t="n">
-        <v>756.4717266370614</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>8340.093071505427</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>-815.1508857985027</v>
       </c>
       <c r="I19" t="n">
-        <v>8340.093071505427</v>
+        <v>362.9141650241227</v>
       </c>
       <c r="J19" t="n">
-        <v>-815.1508857985027</v>
+        <v>-8.46141077641995</v>
       </c>
       <c r="K19" t="n">
-        <v>362.9141650241227</v>
+        <v>3.667947437098015</v>
       </c>
       <c r="L19" t="n">
-        <v>-8.46141077641995</v>
+        <v>-8.257819406821623</v>
       </c>
       <c r="M19" t="n">
-        <v>3.667947437098015</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-8.257819406821623</v>
-      </c>
-      <c r="O19" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1373,33 +1255,27 @@
         <v>-11.86570453643799</v>
       </c>
       <c r="F20" t="n">
-        <v>760.12351942398</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>7999.00675978871</v>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>-842.727875231808</v>
       </c>
       <c r="I20" t="n">
-        <v>7999.00675978871</v>
+        <v>263.6101511633374</v>
       </c>
       <c r="J20" t="n">
-        <v>-842.727875231808</v>
+        <v>-8.50491063723878</v>
       </c>
       <c r="K20" t="n">
-        <v>263.6101511633374</v>
+        <v>3.67527562912406</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.50491063723878</v>
+        <v>-12.29352449026777</v>
       </c>
       <c r="M20" t="n">
-        <v>3.67527562912406</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-12.29352449026777</v>
-      </c>
-      <c r="O20" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1420,33 +1296,27 @@
         <v>-12.04195117950439</v>
       </c>
       <c r="F21" t="n">
-        <v>754.670525737459</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>6509.507121103804</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>-1523.848019198157</v>
       </c>
       <c r="I21" t="n">
-        <v>6509.507121103804</v>
+        <v>227.7396937812805</v>
       </c>
       <c r="J21" t="n">
-        <v>-1523.848019198157</v>
+        <v>-4.937419059860038</v>
       </c>
       <c r="K21" t="n">
-        <v>227.7396937812805</v>
+        <v>3.618735435548155</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.937419059860038</v>
+        <v>-25.42011651910399</v>
       </c>
       <c r="M21" t="n">
-        <v>3.618735435548155</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-25.42011651910399</v>
-      </c>
-      <c r="O21" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1467,33 +1337,27 @@
         <v>-11.93473148345947</v>
       </c>
       <c r="F22" t="n">
-        <v>761.6110694660844</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>8558.289200656935</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>-859.888677112594</v>
       </c>
       <c r="I22" t="n">
-        <v>8558.289200656935</v>
+        <v>251.4361468622566</v>
       </c>
       <c r="J22" t="n">
-        <v>-859.888677112594</v>
+        <v>-8.174114407144959</v>
       </c>
       <c r="K22" t="n">
-        <v>251.4361468622566</v>
+        <v>3.667825975647876</v>
       </c>
       <c r="L22" t="n">
-        <v>-8.174114407144959</v>
+        <v>-14.33058890291828</v>
       </c>
       <c r="M22" t="n">
-        <v>3.667825975647876</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-14.33058890291828</v>
-      </c>
-      <c r="O22" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1514,33 +1378,27 @@
         <v>-13.12991428375244</v>
       </c>
       <c r="F23" t="n">
-        <v>765.8944424173375</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>9442.071524038058</v>
       </c>
       <c r="H23" t="n">
-        <v>27</v>
+        <v>-826.6459808070147</v>
       </c>
       <c r="I23" t="n">
-        <v>9442.071524038058</v>
+        <v>307.9772240556566</v>
       </c>
       <c r="J23" t="n">
-        <v>-826.6459808070147</v>
+        <v>-4.86360845314748</v>
       </c>
       <c r="K23" t="n">
-        <v>307.9772240556566</v>
+        <v>3.61603888877932</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.86360845314748</v>
+        <v>-8.113308319107331</v>
       </c>
       <c r="M23" t="n">
-        <v>3.61603888877932</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-8.113308319107331</v>
-      </c>
-      <c r="O23" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1561,33 +1419,27 @@
         <v>-12.03739547729492</v>
       </c>
       <c r="F24" t="n">
-        <v>763.5332563359059</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>9654.157488818788</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>-869.4809251004252</v>
       </c>
       <c r="I24" t="n">
-        <v>9654.157488818788</v>
+        <v>243.1027513945306</v>
       </c>
       <c r="J24" t="n">
-        <v>-869.4809251004252</v>
+        <v>-4.868671804015016</v>
       </c>
       <c r="K24" t="n">
-        <v>243.1027513945306</v>
+        <v>3.629291494249401</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.868671804015016</v>
+        <v>-13.71272035131037</v>
       </c>
       <c r="M24" t="n">
-        <v>3.629291494249401</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-13.71272035131037</v>
-      </c>
-      <c r="O24" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1608,33 +1460,27 @@
         <v>-11.76163768768311</v>
       </c>
       <c r="F25" t="n">
-        <v>773.922930176553</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>8245.855654382556</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>-861.6113089932119</v>
       </c>
       <c r="I25" t="n">
-        <v>8245.855654382556</v>
+        <v>251.2223848439261</v>
       </c>
       <c r="J25" t="n">
-        <v>-861.6113089932119</v>
+        <v>-6.291604988803702</v>
       </c>
       <c r="K25" t="n">
-        <v>251.2223848439261</v>
+        <v>3.656479298569905</v>
       </c>
       <c r="L25" t="n">
-        <v>-6.291604988803702</v>
+        <v>-9.209412538539238</v>
       </c>
       <c r="M25" t="n">
-        <v>3.656479298569905</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-9.209412538539238</v>
-      </c>
-      <c r="O25" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1655,33 +1501,27 @@
         <v>-13.38675022125244</v>
       </c>
       <c r="F26" t="n">
-        <v>767.0368707734374</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>18</v>
+        <v>8384.129555941196</v>
       </c>
       <c r="H26" t="n">
-        <v>17</v>
+        <v>-1489.625108076286</v>
       </c>
       <c r="I26" t="n">
-        <v>8384.129555941196</v>
+        <v>301.9165491587858</v>
       </c>
       <c r="J26" t="n">
-        <v>-1489.625108076286</v>
+        <v>-7.924943066856589</v>
       </c>
       <c r="K26" t="n">
-        <v>301.9165491587858</v>
+        <v>3.600752992226957</v>
       </c>
       <c r="L26" t="n">
-        <v>-7.924943066856589</v>
+        <v>-25.51103993943071</v>
       </c>
       <c r="M26" t="n">
-        <v>3.600752992226957</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-25.51103993943071</v>
-      </c>
-      <c r="O26" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1702,33 +1542,27 @@
         <v>-11.78301239013672</v>
       </c>
       <c r="F27" t="n">
-        <v>942.1699814984065</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>22</v>
+        <v>12884.1964024039</v>
       </c>
       <c r="H27" t="n">
-        <v>22</v>
+        <v>-904.3375335376247</v>
       </c>
       <c r="I27" t="n">
-        <v>12884.1964024039</v>
+        <v>466.4906826352217</v>
       </c>
       <c r="J27" t="n">
-        <v>-904.3375335376247</v>
+        <v>-7.305611467111946</v>
       </c>
       <c r="K27" t="n">
-        <v>466.4906826352217</v>
+        <v>3.674483288549808</v>
       </c>
       <c r="L27" t="n">
-        <v>-7.305611467111946</v>
+        <v>-16.12869126284002</v>
       </c>
       <c r="M27" t="n">
-        <v>3.674483288549808</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-16.12869126284002</v>
-      </c>
-      <c r="O27" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1749,33 +1583,27 @@
         <v>-12.11202907562256</v>
       </c>
       <c r="F28" t="n">
-        <v>959.3027211136149</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>14253.57010294373</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>-1216.685679889346</v>
       </c>
       <c r="I28" t="n">
-        <v>14253.57010294373</v>
+        <v>523.2851494285026</v>
       </c>
       <c r="J28" t="n">
-        <v>-1216.685679889346</v>
+        <v>-8.433729840921238</v>
       </c>
       <c r="K28" t="n">
-        <v>523.2851494285026</v>
+        <v>3.64596611556457</v>
       </c>
       <c r="L28" t="n">
-        <v>-8.433729840921238</v>
+        <v>-18.61547646508891</v>
       </c>
       <c r="M28" t="n">
-        <v>3.64596611556457</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-18.61547646508891</v>
-      </c>
-      <c r="O28" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1796,33 +1624,27 @@
         <v>-13.43580532073975</v>
       </c>
       <c r="F29" t="n">
-        <v>938.9140878146271</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>22</v>
+        <v>13842.08355559507</v>
       </c>
       <c r="H29" t="n">
-        <v>21</v>
+        <v>-853.32111492433</v>
       </c>
       <c r="I29" t="n">
-        <v>13842.08355559507</v>
+        <v>515.3269000136233</v>
       </c>
       <c r="J29" t="n">
-        <v>-853.32111492433</v>
+        <v>-7.627347655966926</v>
       </c>
       <c r="K29" t="n">
-        <v>515.3269000136233</v>
+        <v>3.562958736486952</v>
       </c>
       <c r="L29" t="n">
-        <v>-7.627347655966926</v>
+        <v>-11.33342780338499</v>
       </c>
       <c r="M29" t="n">
-        <v>3.562958736486952</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-11.33342780338499</v>
-      </c>
-      <c r="O29" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1843,33 +1665,27 @@
         <v>-11.46976280212402</v>
       </c>
       <c r="F30" t="n">
-        <v>942.837034849802</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>10408.67622776553</v>
       </c>
       <c r="H30" t="n">
-        <v>24</v>
+        <v>-830.0295513456547</v>
       </c>
       <c r="I30" t="n">
-        <v>10408.67622776553</v>
+        <v>359.3184197439523</v>
       </c>
       <c r="J30" t="n">
-        <v>-830.0295513456547</v>
+        <v>-6.205904010198129</v>
       </c>
       <c r="K30" t="n">
-        <v>359.3184197439523</v>
+        <v>3.661200876517171</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.205904010198129</v>
+        <v>-11.32367023952095</v>
       </c>
       <c r="M30" t="n">
-        <v>3.661200876517171</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-11.32367023952095</v>
-      </c>
-      <c r="O30" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1890,33 +1706,27 @@
         <v>-11.61097049713135</v>
       </c>
       <c r="F31" t="n">
-        <v>931.3879852502431</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>13305.57103911321</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>-840.5697067225146</v>
       </c>
       <c r="I31" t="n">
-        <v>13305.57103911321</v>
+        <v>392.0689330044219</v>
       </c>
       <c r="J31" t="n">
-        <v>-840.5697067225146</v>
+        <v>-8.226705433994653</v>
       </c>
       <c r="K31" t="n">
-        <v>392.0689330044219</v>
+        <v>3.693936496553483</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.226705433994653</v>
+        <v>-10.54334720428378</v>
       </c>
       <c r="M31" t="n">
-        <v>3.693936496553483</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-10.54334720428378</v>
-      </c>
-      <c r="O31" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1937,33 +1747,27 @@
         <v>-12.79318904876709</v>
       </c>
       <c r="F32" t="n">
-        <v>941.6470812547312</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>13815.43625887935</v>
       </c>
       <c r="H32" t="n">
-        <v>21</v>
+        <v>-907.6854189493937</v>
       </c>
       <c r="I32" t="n">
-        <v>13815.43625887935</v>
+        <v>531.1022383979772</v>
       </c>
       <c r="J32" t="n">
-        <v>-907.6854189493937</v>
+        <v>-6.611031066183592</v>
       </c>
       <c r="K32" t="n">
-        <v>531.1022383979772</v>
+        <v>3.585301895071651</v>
       </c>
       <c r="L32" t="n">
-        <v>-6.611031066183592</v>
+        <v>-9.194336519272541</v>
       </c>
       <c r="M32" t="n">
-        <v>3.585301895071651</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-9.194336519272541</v>
-      </c>
-      <c r="O32" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1984,33 +1788,27 @@
         <v>-11.92176628112793</v>
       </c>
       <c r="F33" t="n">
-        <v>944.3926406336121</v>
+        <v>22</v>
       </c>
       <c r="G33" t="n">
-        <v>23</v>
+        <v>12899.97549008364</v>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>-901.186208079125</v>
       </c>
       <c r="I33" t="n">
-        <v>12899.97549008364</v>
+        <v>330.5164396127092</v>
       </c>
       <c r="J33" t="n">
-        <v>-901.186208079125</v>
+        <v>-6.690951641336023</v>
       </c>
       <c r="K33" t="n">
-        <v>330.5164396127092</v>
+        <v>3.655253196516403</v>
       </c>
       <c r="L33" t="n">
-        <v>-6.690951641336023</v>
+        <v>-9.808044081982105</v>
       </c>
       <c r="M33" t="n">
-        <v>3.655253196516403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-9.808044081982105</v>
-      </c>
-      <c r="O33" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2031,33 +1829,27 @@
         <v>-12.00936412811279</v>
       </c>
       <c r="F34" t="n">
-        <v>952.7870646239683</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>23</v>
+        <v>14338.61247222452</v>
       </c>
       <c r="H34" t="n">
-        <v>22</v>
+        <v>-888.4222717019262</v>
       </c>
       <c r="I34" t="n">
-        <v>14338.61247222452</v>
+        <v>547.2428315651265</v>
       </c>
       <c r="J34" t="n">
-        <v>-888.4222717019262</v>
+        <v>-9.646969730339084</v>
       </c>
       <c r="K34" t="n">
-        <v>547.2428315651265</v>
+        <v>3.681136589036932</v>
       </c>
       <c r="L34" t="n">
-        <v>-9.646969730339084</v>
+        <v>-9.196476997765972</v>
       </c>
       <c r="M34" t="n">
-        <v>3.681136589036932</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-9.196476997765972</v>
-      </c>
-      <c r="O34" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2078,33 +1870,27 @@
         <v>-12.92458534240723</v>
       </c>
       <c r="F35" t="n">
-        <v>936.127189598725</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>13148.77618283678</v>
       </c>
       <c r="H35" t="n">
-        <v>24</v>
+        <v>-855.0824058022226</v>
       </c>
       <c r="I35" t="n">
-        <v>13148.77618283678</v>
+        <v>550.1430267792715</v>
       </c>
       <c r="J35" t="n">
-        <v>-855.0824058022226</v>
+        <v>-9.579680502450822</v>
       </c>
       <c r="K35" t="n">
-        <v>550.1430267792715</v>
+        <v>3.648946733275062</v>
       </c>
       <c r="L35" t="n">
-        <v>-9.579680502450822</v>
+        <v>-10.66028388341531</v>
       </c>
       <c r="M35" t="n">
-        <v>3.648946733275062</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-10.66028388341531</v>
-      </c>
-      <c r="O35" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2125,33 +1911,27 @@
         <v>-11.711181640625</v>
       </c>
       <c r="F36" t="n">
-        <v>954.7275152874313</v>
+        <v>21</v>
       </c>
       <c r="G36" t="n">
-        <v>21</v>
+        <v>9244.431790844872</v>
       </c>
       <c r="H36" t="n">
-        <v>21</v>
+        <v>-876.8981735702373</v>
       </c>
       <c r="I36" t="n">
-        <v>9244.431790844872</v>
+        <v>384.5136906088264</v>
       </c>
       <c r="J36" t="n">
-        <v>-876.8981735702373</v>
+        <v>-7.234483353187781</v>
       </c>
       <c r="K36" t="n">
-        <v>384.5136906088264</v>
+        <v>3.698344075917921</v>
       </c>
       <c r="L36" t="n">
-        <v>-7.234483353187781</v>
+        <v>-9.45128820619316</v>
       </c>
       <c r="M36" t="n">
-        <v>3.698344075917921</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-9.45128820619316</v>
-      </c>
-      <c r="O36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2172,33 +1952,27 @@
         <v>-11.77460289001465</v>
       </c>
       <c r="F37" t="n">
-        <v>949.471374623231</v>
+        <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>24</v>
+        <v>14370.87923836797</v>
       </c>
       <c r="H37" t="n">
-        <v>24</v>
+        <v>-866.8213854995104</v>
       </c>
       <c r="I37" t="n">
-        <v>14370.87923836797</v>
+        <v>536.7534724462957</v>
       </c>
       <c r="J37" t="n">
-        <v>-866.8213854995104</v>
+        <v>-7.145633550407847</v>
       </c>
       <c r="K37" t="n">
-        <v>536.7534724462957</v>
+        <v>3.639967842919351</v>
       </c>
       <c r="L37" t="n">
-        <v>-7.145633550407847</v>
+        <v>-11.62064911940915</v>
       </c>
       <c r="M37" t="n">
-        <v>3.639967842919351</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-11.62064911940915</v>
-      </c>
-      <c r="O37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2219,33 +1993,27 @@
         <v>-12.79388904571533</v>
       </c>
       <c r="F38" t="n">
-        <v>942.7016138668962</v>
+        <v>21</v>
       </c>
       <c r="G38" t="n">
-        <v>22</v>
+        <v>9684.400399464008</v>
       </c>
       <c r="H38" t="n">
-        <v>21</v>
+        <v>-856.0259526954155</v>
       </c>
       <c r="I38" t="n">
-        <v>9684.400399464008</v>
+        <v>411.0986545640834</v>
       </c>
       <c r="J38" t="n">
-        <v>-856.0259526954155</v>
+        <v>-7.494226316033822</v>
       </c>
       <c r="K38" t="n">
-        <v>411.0986545640834</v>
+        <v>3.65141626589664</v>
       </c>
       <c r="L38" t="n">
-        <v>-7.494226316033822</v>
+        <v>-11.52343771884522</v>
       </c>
       <c r="M38" t="n">
-        <v>3.65141626589664</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-11.52343771884522</v>
-      </c>
-      <c r="O38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2266,33 +2034,27 @@
         <v>-11.65546989440918</v>
       </c>
       <c r="F39" t="n">
-        <v>941.2226968489384</v>
+        <v>22</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>13984.67572999715</v>
       </c>
       <c r="H39" t="n">
-        <v>22</v>
+        <v>-1046.929589100145</v>
       </c>
       <c r="I39" t="n">
-        <v>13984.67572999715</v>
+        <v>515.4379745071384</v>
       </c>
       <c r="J39" t="n">
-        <v>-1046.929589100145</v>
+        <v>-6.844638871707101</v>
       </c>
       <c r="K39" t="n">
-        <v>515.4379745071384</v>
+        <v>3.673414546960326</v>
       </c>
       <c r="L39" t="n">
-        <v>-6.844638871707101</v>
+        <v>-17.5076843335414</v>
       </c>
       <c r="M39" t="n">
-        <v>3.673414546960326</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-17.5076843335414</v>
-      </c>
-      <c r="O39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2313,33 +2075,27 @@
         <v>-12.23256301879883</v>
       </c>
       <c r="F40" t="n">
-        <v>951.69654070408</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>21</v>
+        <v>13191.73474522827</v>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>-1048.42405044254</v>
       </c>
       <c r="I40" t="n">
-        <v>13191.73474522827</v>
+        <v>516.6027123880217</v>
       </c>
       <c r="J40" t="n">
-        <v>-1048.42405044254</v>
+        <v>-8.17036084475496</v>
       </c>
       <c r="K40" t="n">
-        <v>516.6027123880217</v>
+        <v>3.658801012555135</v>
       </c>
       <c r="L40" t="n">
-        <v>-8.17036084475496</v>
+        <v>-16.92749604288219</v>
       </c>
       <c r="M40" t="n">
-        <v>3.658801012555135</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-16.92749604288219</v>
-      </c>
-      <c r="O40" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2360,33 +2116,27 @@
         <v>-11.77460289001465</v>
       </c>
       <c r="F41" t="n">
-        <v>934.0028988899828</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>13754.08779642542</v>
       </c>
       <c r="H41" t="n">
-        <v>24</v>
+        <v>-809.9688909342656</v>
       </c>
       <c r="I41" t="n">
-        <v>13754.08779642542</v>
+        <v>492.6889924406782</v>
       </c>
       <c r="J41" t="n">
-        <v>-809.9688909342656</v>
+        <v>-6.244783977232022</v>
       </c>
       <c r="K41" t="n">
-        <v>492.6889924406782</v>
+        <v>3.683847773039003</v>
       </c>
       <c r="L41" t="n">
-        <v>-6.244783977232022</v>
+        <v>-11.2992880841045</v>
       </c>
       <c r="M41" t="n">
-        <v>3.683847773039003</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-11.2992880841045</v>
-      </c>
-      <c r="O41" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2407,33 +2157,27 @@
         <v>-12.89830589294434</v>
       </c>
       <c r="F42" t="n">
-        <v>970.5283400220776</v>
+        <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>26</v>
+        <v>11184.69589989291</v>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>-866.9983829606831</v>
       </c>
       <c r="I42" t="n">
-        <v>11184.69589989291</v>
+        <v>394.9582181915106</v>
       </c>
       <c r="J42" t="n">
-        <v>-866.9983829606831</v>
+        <v>-7.905798902617158</v>
       </c>
       <c r="K42" t="n">
-        <v>394.9582181915106</v>
+        <v>3.616768961971482</v>
       </c>
       <c r="L42" t="n">
-        <v>-7.905798902617158</v>
+        <v>-13.86901337411022</v>
       </c>
       <c r="M42" t="n">
-        <v>3.616768961971482</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-13.86901337411022</v>
-      </c>
-      <c r="O42" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2454,33 +2198,27 @@
         <v>-11.58293914794922</v>
       </c>
       <c r="F43" t="n">
-        <v>968.2306886214112</v>
+        <v>26</v>
       </c>
       <c r="G43" t="n">
-        <v>26</v>
+        <v>15240.60513234784</v>
       </c>
       <c r="H43" t="n">
-        <v>26</v>
+        <v>-1334.582653722447</v>
       </c>
       <c r="I43" t="n">
-        <v>15240.60513234784</v>
+        <v>492.7922810534984</v>
       </c>
       <c r="J43" t="n">
-        <v>-1334.582653722447</v>
+        <v>-7.648686726013919</v>
       </c>
       <c r="K43" t="n">
-        <v>492.7922810534984</v>
+        <v>3.627359003905156</v>
       </c>
       <c r="L43" t="n">
-        <v>-7.648686726013919</v>
+        <v>-21.77036919508694</v>
       </c>
       <c r="M43" t="n">
-        <v>3.627359003905156</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-21.77036919508694</v>
-      </c>
-      <c r="O43" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2501,33 +2239,27 @@
         <v>-11.92281818389893</v>
       </c>
       <c r="F44" t="n">
-        <v>955.7282354879875</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>26</v>
+        <v>13776.09818379642</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>-861.1096669665321</v>
       </c>
       <c r="I44" t="n">
-        <v>13776.09818379642</v>
+        <v>540.2205726994732</v>
       </c>
       <c r="J44" t="n">
-        <v>-861.1096669665321</v>
+        <v>-8.246464617670267</v>
       </c>
       <c r="K44" t="n">
-        <v>540.2205726994732</v>
+        <v>3.632991946558553</v>
       </c>
       <c r="L44" t="n">
-        <v>-8.246464617670267</v>
+        <v>-8.187089522287041</v>
       </c>
       <c r="M44" t="n">
-        <v>3.632991946558553</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-8.187089522287041</v>
-      </c>
-      <c r="O44" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2548,33 +2280,27 @@
         <v>-13.24974822998047</v>
       </c>
       <c r="F45" t="n">
-        <v>952.98278370627</v>
+        <v>19</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>13340.97756514288</v>
       </c>
       <c r="H45" t="n">
-        <v>19</v>
+        <v>-1278.344782450409</v>
       </c>
       <c r="I45" t="n">
-        <v>13340.97756514288</v>
+        <v>585.1076307237448</v>
       </c>
       <c r="J45" t="n">
-        <v>-1278.344782450409</v>
+        <v>-11.27291725332527</v>
       </c>
       <c r="K45" t="n">
-        <v>585.1076307237448</v>
+        <v>3.598924403544998</v>
       </c>
       <c r="L45" t="n">
-        <v>-11.27291725332527</v>
+        <v>-20.89502780607805</v>
       </c>
       <c r="M45" t="n">
-        <v>3.598924403544998</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-20.89502780607805</v>
-      </c>
-      <c r="O45" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2595,33 +2321,27 @@
         <v>-12.02688407897949</v>
       </c>
       <c r="F46" t="n">
-        <v>939.6043781894599</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>29</v>
+        <v>13890.88906796857</v>
       </c>
       <c r="H46" t="n">
-        <v>30</v>
+        <v>-836.9728077140612</v>
       </c>
       <c r="I46" t="n">
-        <v>13890.88906796857</v>
+        <v>584.7142605348756</v>
       </c>
       <c r="J46" t="n">
-        <v>-836.9728077140612</v>
+        <v>-6.76329767429364</v>
       </c>
       <c r="K46" t="n">
-        <v>584.7142605348756</v>
+        <v>3.628076068292593</v>
       </c>
       <c r="L46" t="n">
-        <v>-6.76329767429364</v>
+        <v>-7.477169070779717</v>
       </c>
       <c r="M46" t="n">
-        <v>3.628076068292593</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-7.477169070779717</v>
-      </c>
-      <c r="O46" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2642,33 +2362,27 @@
         <v>-11.82260608673096</v>
       </c>
       <c r="F47" t="n">
-        <v>806.2337269878318</v>
+        <v>24</v>
       </c>
       <c r="G47" t="n">
-        <v>24</v>
+        <v>7263.335317543071</v>
       </c>
       <c r="H47" t="n">
-        <v>24</v>
+        <v>-877.076167259107</v>
       </c>
       <c r="I47" t="n">
-        <v>7263.335317543071</v>
+        <v>286.3146438715427</v>
       </c>
       <c r="J47" t="n">
-        <v>-877.076167259107</v>
+        <v>-7.74963710489654</v>
       </c>
       <c r="K47" t="n">
-        <v>286.3146438715427</v>
+        <v>3.60314466077097</v>
       </c>
       <c r="L47" t="n">
-        <v>-7.74963710489654</v>
+        <v>-13.14091700308204</v>
       </c>
       <c r="M47" t="n">
-        <v>3.60314466077097</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-13.14091700308204</v>
-      </c>
-      <c r="O47" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2689,33 +2403,27 @@
         <v>-13.31281852722168</v>
       </c>
       <c r="F48" t="n">
-        <v>808.7030524036777</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>25</v>
+        <v>8320.605278122905</v>
       </c>
       <c r="H48" t="n">
-        <v>24</v>
+        <v>-900.8052942547488</v>
       </c>
       <c r="I48" t="n">
-        <v>8320.605278122905</v>
+        <v>313.0801477187783</v>
       </c>
       <c r="J48" t="n">
-        <v>-900.8052942547488</v>
+        <v>-9.786738046956271</v>
       </c>
       <c r="K48" t="n">
-        <v>313.0801477187783</v>
+        <v>3.532519460904277</v>
       </c>
       <c r="L48" t="n">
-        <v>-9.786738046956271</v>
+        <v>-9.631689203121546</v>
       </c>
       <c r="M48" t="n">
-        <v>3.532519460904277</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-9.631689203121546</v>
-      </c>
-      <c r="O48" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2736,33 +2444,27 @@
         <v>-11.57242679595947</v>
       </c>
       <c r="F49" t="n">
-        <v>811.1256096543116</v>
+        <v>27</v>
       </c>
       <c r="G49" t="n">
-        <v>28</v>
+        <v>8208.316062665743</v>
       </c>
       <c r="H49" t="n">
-        <v>27</v>
+        <v>-878.7214244691636</v>
       </c>
       <c r="I49" t="n">
-        <v>8208.316062665743</v>
+        <v>298.9016272820882</v>
       </c>
       <c r="J49" t="n">
-        <v>-878.7214244691636</v>
+        <v>-11.94846412820433</v>
       </c>
       <c r="K49" t="n">
-        <v>298.9016272820882</v>
+        <v>3.585386677169892</v>
       </c>
       <c r="L49" t="n">
-        <v>-11.94846412820433</v>
+        <v>-7.568429913645461</v>
       </c>
       <c r="M49" t="n">
-        <v>3.585386677169892</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-7.568429913645461</v>
-      </c>
-      <c r="O49" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2783,33 +2485,27 @@
         <v>-11.91616058349609</v>
       </c>
       <c r="F50" t="n">
-        <v>802.0753985677161</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>24</v>
+        <v>8841.986998574213</v>
       </c>
       <c r="H50" t="n">
-        <v>23</v>
+        <v>-879.1399025088394</v>
       </c>
       <c r="I50" t="n">
-        <v>8841.986998574213</v>
+        <v>363.7139461401939</v>
       </c>
       <c r="J50" t="n">
-        <v>-879.1399025088394</v>
+        <v>-10.28717787080858</v>
       </c>
       <c r="K50" t="n">
-        <v>363.7139461401939</v>
+        <v>3.636572226022393</v>
       </c>
       <c r="L50" t="n">
-        <v>-10.28717787080858</v>
+        <v>-5.735406450665171</v>
       </c>
       <c r="M50" t="n">
-        <v>3.636572226022393</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.735406450665171</v>
-      </c>
-      <c r="O50" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2830,33 +2526,27 @@
         <v>-13.31877517700195</v>
       </c>
       <c r="F51" t="n">
-        <v>814.4935736811564</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>25</v>
+        <v>8720.14498598289</v>
       </c>
       <c r="H51" t="n">
-        <v>25</v>
+        <v>-928.8837188637953</v>
       </c>
       <c r="I51" t="n">
-        <v>8720.14498598289</v>
+        <v>332.7237827633671</v>
       </c>
       <c r="J51" t="n">
-        <v>-928.8837188637953</v>
+        <v>-12.50482857627238</v>
       </c>
       <c r="K51" t="n">
-        <v>332.7237827633671</v>
+        <v>3.487403793595102</v>
       </c>
       <c r="L51" t="n">
-        <v>-12.50482857627238</v>
+        <v>-8.644779130605553</v>
       </c>
       <c r="M51" t="n">
-        <v>3.487403793595102</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-8.644779130605553</v>
-      </c>
-      <c r="O51" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2877,33 +2567,27 @@
         <v>-11.66598129272461</v>
       </c>
       <c r="F52" t="n">
-        <v>810.5430416507293</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n">
-        <v>24</v>
+        <v>8039.399192366636</v>
       </c>
       <c r="H52" t="n">
-        <v>24</v>
+        <v>-961.5924659254185</v>
       </c>
       <c r="I52" t="n">
-        <v>8039.399192366636</v>
+        <v>286.8536059620913</v>
       </c>
       <c r="J52" t="n">
-        <v>-961.5924659254185</v>
+        <v>-10.46180288611075</v>
       </c>
       <c r="K52" t="n">
-        <v>286.8536059620913</v>
+        <v>3.639922542434449</v>
       </c>
       <c r="L52" t="n">
-        <v>-10.46180288611075</v>
+        <v>-15.44632008517958</v>
       </c>
       <c r="M52" t="n">
-        <v>3.639922542434449</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-15.44632008517958</v>
-      </c>
-      <c r="O52" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2924,33 +2608,27 @@
         <v>-11.90599918365479</v>
       </c>
       <c r="F53" t="n">
-        <v>808.0093148267014</v>
+        <v>21</v>
       </c>
       <c r="G53" t="n">
-        <v>21</v>
+        <v>8298.916259895999</v>
       </c>
       <c r="H53" t="n">
-        <v>21</v>
+        <v>-888.493307576211</v>
       </c>
       <c r="I53" t="n">
-        <v>8298.916259895999</v>
+        <v>354.2387692185596</v>
       </c>
       <c r="J53" t="n">
-        <v>-888.493307576211</v>
+        <v>-15.58411256148259</v>
       </c>
       <c r="K53" t="n">
-        <v>354.2387692185596</v>
+        <v>3.627697028155695</v>
       </c>
       <c r="L53" t="n">
-        <v>-15.58411256148259</v>
+        <v>-12.8170473394149</v>
       </c>
       <c r="M53" t="n">
-        <v>3.627697028155695</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-12.8170473394149</v>
-      </c>
-      <c r="O53" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2971,33 +2649,27 @@
         <v>-12.92633724212646</v>
       </c>
       <c r="F54" t="n">
-        <v>807.9358568238697</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>33</v>
+        <v>7341.04747802901</v>
       </c>
       <c r="H54" t="n">
-        <v>33</v>
+        <v>-884.4421466195238</v>
       </c>
       <c r="I54" t="n">
-        <v>7341.04747802901</v>
+        <v>262.7002016908529</v>
       </c>
       <c r="J54" t="n">
-        <v>-884.4421466195238</v>
+        <v>-10.17345060884493</v>
       </c>
       <c r="K54" t="n">
-        <v>262.7002016908529</v>
+        <v>3.529600242029689</v>
       </c>
       <c r="L54" t="n">
-        <v>-10.17345060884493</v>
+        <v>-13.33451429869217</v>
       </c>
       <c r="M54" t="n">
-        <v>3.529600242029689</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-13.33451429869217</v>
-      </c>
-      <c r="O54" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3018,33 +2690,27 @@
         <v>-11.73500823974609</v>
       </c>
       <c r="F55" t="n">
-        <v>810.7344250273354</v>
+        <v>25</v>
       </c>
       <c r="G55" t="n">
-        <v>26</v>
+        <v>9127.624428375388</v>
       </c>
       <c r="H55" t="n">
-        <v>25</v>
+        <v>-844.8240320119039</v>
       </c>
       <c r="I55" t="n">
-        <v>9127.624428375388</v>
+        <v>373.8946725636171</v>
       </c>
       <c r="J55" t="n">
-        <v>-844.8240320119039</v>
+        <v>-9.347424227101625</v>
       </c>
       <c r="K55" t="n">
-        <v>373.8946725636171</v>
+        <v>3.629639738764138</v>
       </c>
       <c r="L55" t="n">
-        <v>-9.347424227101625</v>
+        <v>-13.33523754377758</v>
       </c>
       <c r="M55" t="n">
-        <v>3.629639738764138</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-13.33523754377758</v>
-      </c>
-      <c r="O55" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3065,33 +2731,27 @@
         <v>-11.99219512939453</v>
       </c>
       <c r="F56" t="n">
-        <v>812.7978255067761</v>
+        <v>23</v>
       </c>
       <c r="G56" t="n">
-        <v>24</v>
+        <v>8890.659506447339</v>
       </c>
       <c r="H56" t="n">
-        <v>23</v>
+        <v>-854.233608867482</v>
       </c>
       <c r="I56" t="n">
-        <v>8890.659506447339</v>
+        <v>324.1219131818034</v>
       </c>
       <c r="J56" t="n">
-        <v>-854.233608867482</v>
+        <v>-11.36626633249817</v>
       </c>
       <c r="K56" t="n">
-        <v>324.1219131818034</v>
+        <v>3.615764970146973</v>
       </c>
       <c r="L56" t="n">
-        <v>-11.36626633249817</v>
+        <v>-9.206159460058343</v>
       </c>
       <c r="M56" t="n">
-        <v>3.615764970146973</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-9.206159460058343</v>
-      </c>
-      <c r="O56" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3112,33 +2772,27 @@
         <v>-12.4599666595459</v>
       </c>
       <c r="F57" t="n">
-        <v>800.8106034855156</v>
+        <v>26</v>
       </c>
       <c r="G57" t="n">
-        <v>27</v>
+        <v>8656.315430555085</v>
       </c>
       <c r="H57" t="n">
-        <v>26</v>
+        <v>-867.7508278999092</v>
       </c>
       <c r="I57" t="n">
-        <v>8656.315430555085</v>
+        <v>346.3208870670255</v>
       </c>
       <c r="J57" t="n">
-        <v>-867.7508278999092</v>
+        <v>-8.132697929629945</v>
       </c>
       <c r="K57" t="n">
-        <v>346.3208870670255</v>
+        <v>3.601350595857779</v>
       </c>
       <c r="L57" t="n">
-        <v>-8.132697929629945</v>
+        <v>-14.5993009688409</v>
       </c>
       <c r="M57" t="n">
-        <v>3.601350595857779</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-14.5993009688409</v>
-      </c>
-      <c r="O57" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3159,33 +2813,27 @@
         <v>-12.61448955535889</v>
       </c>
       <c r="F58" t="n">
-        <v>798.7514930294557</v>
+        <v>25</v>
       </c>
       <c r="G58" t="n">
-        <v>26</v>
+        <v>8656.796748729415</v>
       </c>
       <c r="H58" t="n">
-        <v>25</v>
+        <v>-885.9377934478377</v>
       </c>
       <c r="I58" t="n">
-        <v>8656.796748729415</v>
+        <v>387.5344894465047</v>
       </c>
       <c r="J58" t="n">
-        <v>-885.9377934478377</v>
+        <v>-9.967612752057436</v>
       </c>
       <c r="K58" t="n">
-        <v>387.5344894465047</v>
+        <v>3.575348393988441</v>
       </c>
       <c r="L58" t="n">
-        <v>-9.967612752057436</v>
+        <v>-5.672376249361506</v>
       </c>
       <c r="M58" t="n">
-        <v>3.575348393988441</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-5.672376249361506</v>
-      </c>
-      <c r="O58" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3206,33 +2854,27 @@
         <v>-22.24988555908203</v>
       </c>
       <c r="F59" t="n">
-        <v>810.715287461857</v>
+        <v>22</v>
       </c>
       <c r="G59" t="n">
-        <v>22</v>
+        <v>9784.821589929457</v>
       </c>
       <c r="H59" t="n">
-        <v>22</v>
+        <v>-870.1110578718731</v>
       </c>
       <c r="I59" t="n">
-        <v>9784.821589929457</v>
+        <v>391.1545765460449</v>
       </c>
       <c r="J59" t="n">
-        <v>-870.1110578718731</v>
+        <v>-10.75656941658075</v>
       </c>
       <c r="K59" t="n">
-        <v>391.1545765460449</v>
+        <v>2.993189168886122</v>
       </c>
       <c r="L59" t="n">
-        <v>-10.75656941658075</v>
+        <v>-12.31777594757467</v>
       </c>
       <c r="M59" t="n">
-        <v>2.993189168886122</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-12.31777594757467</v>
-      </c>
-      <c r="O59" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3253,33 +2895,27 @@
         <v>-23.17036247253418</v>
       </c>
       <c r="F60" t="n">
-        <v>817.6425846781565</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
-        <v>26</v>
+        <v>9904.951177533216</v>
       </c>
       <c r="H60" t="n">
-        <v>26</v>
+        <v>-911.9272216168613</v>
       </c>
       <c r="I60" t="n">
-        <v>9904.951177533216</v>
+        <v>426.3575858468323</v>
       </c>
       <c r="J60" t="n">
-        <v>-911.9272216168613</v>
+        <v>-9.316797783407983</v>
       </c>
       <c r="K60" t="n">
-        <v>426.3575858468323</v>
+        <v>2.966055148990067</v>
       </c>
       <c r="L60" t="n">
-        <v>-9.316797783407983</v>
+        <v>-10.76688669886751</v>
       </c>
       <c r="M60" t="n">
-        <v>2.966055148990067</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-10.76688669886751</v>
-      </c>
-      <c r="O60" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3300,33 +2936,27 @@
         <v>-20.77824401855469</v>
       </c>
       <c r="F61" t="n">
-        <v>776.2210731251373</v>
+        <v>25</v>
       </c>
       <c r="G61" t="n">
-        <v>25</v>
+        <v>9028.187265403769</v>
       </c>
       <c r="H61" t="n">
-        <v>25</v>
+        <v>-873.2824823348124</v>
       </c>
       <c r="I61" t="n">
-        <v>9028.187265403769</v>
+        <v>325.0253616512633</v>
       </c>
       <c r="J61" t="n">
-        <v>-873.2824823348124</v>
+        <v>-7.822100978846374</v>
       </c>
       <c r="K61" t="n">
-        <v>325.0253616512633</v>
+        <v>3.344394910154735</v>
       </c>
       <c r="L61" t="n">
-        <v>-7.822100978846374</v>
+        <v>-19.72675132429277</v>
       </c>
       <c r="M61" t="n">
-        <v>3.344394910154735</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-19.72675132429277</v>
-      </c>
-      <c r="O61" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3347,33 +2977,27 @@
         <v>-19.04696273803711</v>
       </c>
       <c r="F62" t="n">
-        <v>784.1162294677572</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>25</v>
+        <v>9231.755534167125</v>
       </c>
       <c r="H62" t="n">
-        <v>25</v>
+        <v>-845.8611803208319</v>
       </c>
       <c r="I62" t="n">
-        <v>9231.755534167125</v>
+        <v>305.9038517358887</v>
       </c>
       <c r="J62" t="n">
-        <v>-845.8611803208319</v>
+        <v>-8.694762354100245</v>
       </c>
       <c r="K62" t="n">
-        <v>305.9038517358887</v>
+        <v>3.414574861300817</v>
       </c>
       <c r="L62" t="n">
-        <v>-8.694762354100245</v>
+        <v>-16.43883903905081</v>
       </c>
       <c r="M62" t="n">
-        <v>3.414574861300817</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-16.43883903905081</v>
-      </c>
-      <c r="O62" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3394,33 +3018,27 @@
         <v>-15.91972541809082</v>
       </c>
       <c r="F63" t="n">
-        <v>781.6408437752751</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>30</v>
+        <v>9306.270119712488</v>
       </c>
       <c r="H63" t="n">
-        <v>30</v>
+        <v>-983.4421077834627</v>
       </c>
       <c r="I63" t="n">
-        <v>9306.270119712488</v>
+        <v>342.0562016487456</v>
       </c>
       <c r="J63" t="n">
-        <v>-983.4421077834627</v>
+        <v>-8.401922780964153</v>
       </c>
       <c r="K63" t="n">
-        <v>342.0562016487456</v>
+        <v>3.52378056298321</v>
       </c>
       <c r="L63" t="n">
-        <v>-8.401922780964153</v>
+        <v>-16.62265863826967</v>
       </c>
       <c r="M63" t="n">
-        <v>3.52378056298321</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-16.62265863826967</v>
-      </c>
-      <c r="O63" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3441,33 +3059,27 @@
         <v>-13.33839702606201</v>
       </c>
       <c r="F64" t="n">
-        <v>798.8066818035289</v>
+        <v>31</v>
       </c>
       <c r="G64" t="n">
-        <v>31</v>
+        <v>9246.958511264602</v>
       </c>
       <c r="H64" t="n">
-        <v>31</v>
+        <v>-851.9178900929463</v>
       </c>
       <c r="I64" t="n">
-        <v>9246.958511264602</v>
+        <v>364.7202601780988</v>
       </c>
       <c r="J64" t="n">
-        <v>-851.9178900929463</v>
+        <v>-12.24334639692797</v>
       </c>
       <c r="K64" t="n">
-        <v>364.7202601780988</v>
+        <v>3.463645078546196</v>
       </c>
       <c r="L64" t="n">
-        <v>-12.24334639692797</v>
+        <v>-15.97312447300497</v>
       </c>
       <c r="M64" t="n">
-        <v>3.463645078546196</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-15.97312447300497</v>
-      </c>
-      <c r="O64" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3488,33 +3100,27 @@
         <v>-11.22063446044922</v>
       </c>
       <c r="F65" t="n">
-        <v>796.2708190028268</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
-        <v>27</v>
+        <v>7437.958048356813</v>
       </c>
       <c r="H65" t="n">
-        <v>26</v>
+        <v>-913.8569670722932</v>
       </c>
       <c r="I65" t="n">
-        <v>7437.958048356813</v>
+        <v>285.1058070151507</v>
       </c>
       <c r="J65" t="n">
-        <v>-913.8569670722932</v>
+        <v>-7.553627059608901</v>
       </c>
       <c r="K65" t="n">
-        <v>285.1058070151507</v>
+        <v>3.349151026933202</v>
       </c>
       <c r="L65" t="n">
-        <v>-7.553627059608901</v>
+        <v>-15.84019297114647</v>
       </c>
       <c r="M65" t="n">
-        <v>3.349151026933202</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-15.84019297114647</v>
-      </c>
-      <c r="O65" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3535,33 +3141,27 @@
         <v>-10.12391185760498</v>
       </c>
       <c r="F66" t="n">
-        <v>791.2305757141174</v>
+        <v>23</v>
       </c>
       <c r="G66" t="n">
-        <v>22</v>
+        <v>8883.409336164234</v>
       </c>
       <c r="H66" t="n">
-        <v>23</v>
+        <v>-1003.258559365896</v>
       </c>
       <c r="I66" t="n">
-        <v>8883.409336164234</v>
+        <v>260.9639464254464</v>
       </c>
       <c r="J66" t="n">
-        <v>-1003.258559365896</v>
+        <v>-6.60764035617199</v>
       </c>
       <c r="K66" t="n">
-        <v>260.9639464254464</v>
+        <v>3.327204704668514</v>
       </c>
       <c r="L66" t="n">
-        <v>-6.60764035617199</v>
+        <v>-16.69596190488796</v>
       </c>
       <c r="M66" t="n">
-        <v>3.327204704668514</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-16.69596190488796</v>
-      </c>
-      <c r="O66" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3582,33 +3182,27 @@
         <v>-10.48621559143066</v>
       </c>
       <c r="F67" t="n">
-        <v>798.1012734668091</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>9096.869618617722</v>
       </c>
       <c r="H67" t="n">
-        <v>22</v>
+        <v>-853.6636606759525</v>
       </c>
       <c r="I67" t="n">
-        <v>9096.869618617722</v>
+        <v>324.7653013732555</v>
       </c>
       <c r="J67" t="n">
-        <v>-853.6636606759525</v>
+        <v>-9.201602987826343</v>
       </c>
       <c r="K67" t="n">
-        <v>324.7653013732555</v>
+        <v>3.229007735345647</v>
       </c>
       <c r="L67" t="n">
-        <v>-9.201602987826343</v>
+        <v>-14.53556948343171</v>
       </c>
       <c r="M67" t="n">
-        <v>3.229007735345647</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-14.53556948343171</v>
-      </c>
-      <c r="O67" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3629,33 +3223,27 @@
         <v>-8.756687164306641</v>
       </c>
       <c r="F68" t="n">
-        <v>793.7903254971145</v>
+        <v>27</v>
       </c>
       <c r="G68" t="n">
-        <v>28</v>
+        <v>9940.083142429274</v>
       </c>
       <c r="H68" t="n">
-        <v>27</v>
+        <v>-893.643725299507</v>
       </c>
       <c r="I68" t="n">
-        <v>9940.083142429274</v>
+        <v>380.7146387309092</v>
       </c>
       <c r="J68" t="n">
-        <v>-893.643725299507</v>
+        <v>-8.639922143198564</v>
       </c>
       <c r="K68" t="n">
-        <v>380.7146387309092</v>
+        <v>3.308625561734645</v>
       </c>
       <c r="L68" t="n">
-        <v>-8.639922143198564</v>
+        <v>-12.42133310833207</v>
       </c>
       <c r="M68" t="n">
-        <v>3.308625561734645</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-12.42133310833207</v>
-      </c>
-      <c r="O68" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3676,33 +3264,27 @@
         <v>-9.977798461914062</v>
       </c>
       <c r="F69" t="n">
-        <v>800.5156822030845</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>26</v>
+        <v>9258.249708242143</v>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
+        <v>-905.9094440191643</v>
       </c>
       <c r="I69" t="n">
-        <v>9258.249708242143</v>
+        <v>287.9796216658135</v>
       </c>
       <c r="J69" t="n">
-        <v>-905.9094440191643</v>
+        <v>-9.357393293128892</v>
       </c>
       <c r="K69" t="n">
-        <v>287.9796216658135</v>
+        <v>3.285368845502136</v>
       </c>
       <c r="L69" t="n">
-        <v>-9.357393293128892</v>
+        <v>-12.59692547098505</v>
       </c>
       <c r="M69" t="n">
-        <v>3.285368845502136</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-12.59692547098505</v>
-      </c>
-      <c r="O69" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3723,33 +3305,27 @@
         <v>-10.80892562866211</v>
       </c>
       <c r="F70" t="n">
-        <v>778.5872829503298</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
-        <v>22</v>
+        <v>9372.782458633099</v>
       </c>
       <c r="H70" t="n">
-        <v>22</v>
+        <v>-933.2122526628841</v>
       </c>
       <c r="I70" t="n">
-        <v>9372.782458633099</v>
+        <v>317.4450667662313</v>
       </c>
       <c r="J70" t="n">
-        <v>-933.2122526628841</v>
+        <v>-8.52384045940259</v>
       </c>
       <c r="K70" t="n">
-        <v>317.4450667662313</v>
+        <v>3.181452523343445</v>
       </c>
       <c r="L70" t="n">
-        <v>-8.52384045940259</v>
+        <v>-17.62132106742616</v>
       </c>
       <c r="M70" t="n">
-        <v>3.181452523343445</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-17.62132106742616</v>
-      </c>
-      <c r="O70" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3770,33 +3346,27 @@
         <v>-9.85270881652832</v>
       </c>
       <c r="F71" t="n">
-        <v>790.3765489854364</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>22</v>
+        <v>8490.038354261866</v>
       </c>
       <c r="H71" t="n">
-        <v>22</v>
+        <v>-1084.660457043718</v>
       </c>
       <c r="I71" t="n">
-        <v>8490.038354261866</v>
+        <v>330.8633190617712</v>
       </c>
       <c r="J71" t="n">
-        <v>-1084.660457043718</v>
+        <v>-8.914458665385668</v>
       </c>
       <c r="K71" t="n">
-        <v>330.8633190617712</v>
+        <v>3.349547220071997</v>
       </c>
       <c r="L71" t="n">
-        <v>-8.914458665385668</v>
+        <v>-19.70825315368703</v>
       </c>
       <c r="M71" t="n">
-        <v>3.349547220071997</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-19.70825315368703</v>
-      </c>
-      <c r="O71" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3817,33 +3387,27 @@
         <v>-10.66806888580322</v>
       </c>
       <c r="F72" t="n">
-        <v>786.30687041305</v>
+        <v>23</v>
       </c>
       <c r="G72" t="n">
-        <v>24</v>
+        <v>9828.693230954381</v>
       </c>
       <c r="H72" t="n">
-        <v>23</v>
+        <v>-1233.266899849341</v>
       </c>
       <c r="I72" t="n">
-        <v>9828.693230954381</v>
+        <v>384.0102530466447</v>
       </c>
       <c r="J72" t="n">
-        <v>-1233.266899849341</v>
+        <v>-10.23050797513927</v>
       </c>
       <c r="K72" t="n">
-        <v>384.0102530466447</v>
+        <v>3.341771535277827</v>
       </c>
       <c r="L72" t="n">
-        <v>-10.23050797513927</v>
+        <v>-20.92713463509149</v>
       </c>
       <c r="M72" t="n">
-        <v>3.341771535277827</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-20.92713463509149</v>
-      </c>
-      <c r="O72" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3864,33 +3428,27 @@
         <v>-11.18945026397705</v>
       </c>
       <c r="F73" t="n">
-        <v>781.3843834330461</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>22</v>
+        <v>9300.592484590157</v>
       </c>
       <c r="H73" t="n">
-        <v>21</v>
+        <v>-891.1212895216549</v>
       </c>
       <c r="I73" t="n">
-        <v>9300.592484590157</v>
+        <v>300.8907310388158</v>
       </c>
       <c r="J73" t="n">
-        <v>-891.1212895216549</v>
+        <v>-7.432528249747878</v>
       </c>
       <c r="K73" t="n">
-        <v>300.8907310388158</v>
+        <v>3.208850525045119</v>
       </c>
       <c r="L73" t="n">
-        <v>-7.432528249747878</v>
+        <v>-12.31166686568859</v>
       </c>
       <c r="M73" t="n">
-        <v>3.208850525045119</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-12.31166686568859</v>
-      </c>
-      <c r="O73" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3911,33 +3469,27 @@
         <v>-10.37654304504395</v>
       </c>
       <c r="F74" t="n">
-        <v>784.4561819055685</v>
+        <v>22</v>
       </c>
       <c r="G74" t="n">
-        <v>23</v>
+        <v>8525.243246564012</v>
       </c>
       <c r="H74" t="n">
-        <v>22</v>
+        <v>-951.971877320665</v>
       </c>
       <c r="I74" t="n">
-        <v>8525.243246564012</v>
+        <v>314.683168233619</v>
       </c>
       <c r="J74" t="n">
-        <v>-951.971877320665</v>
+        <v>-7.630506426704899</v>
       </c>
       <c r="K74" t="n">
-        <v>314.683168233619</v>
+        <v>3.331334156622889</v>
       </c>
       <c r="L74" t="n">
-        <v>-7.630506426704899</v>
+        <v>-16.9777281020115</v>
       </c>
       <c r="M74" t="n">
-        <v>3.331334156622889</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-16.9777281020115</v>
-      </c>
-      <c r="O74" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3958,33 +3510,27 @@
         <v>-10.99007797241211</v>
       </c>
       <c r="F75" t="n">
-        <v>789.9977812403993</v>
+        <v>28</v>
       </c>
       <c r="G75" t="n">
-        <v>29</v>
+        <v>9000.084323478823</v>
       </c>
       <c r="H75" t="n">
-        <v>28</v>
+        <v>-889.2577620655943</v>
       </c>
       <c r="I75" t="n">
-        <v>9000.084323478823</v>
+        <v>282.4702522539794</v>
       </c>
       <c r="J75" t="n">
-        <v>-889.2577620655943</v>
+        <v>-10.25911413806562</v>
       </c>
       <c r="K75" t="n">
-        <v>282.4702522539794</v>
+        <v>3.310327350072238</v>
       </c>
       <c r="L75" t="n">
-        <v>-10.25911413806562</v>
+        <v>-11.55360660751868</v>
       </c>
       <c r="M75" t="n">
-        <v>3.310327350072238</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-11.55360660751868</v>
-      </c>
-      <c r="O75" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4005,33 +3551,27 @@
         <v>-11.71713829040527</v>
       </c>
       <c r="F76" t="n">
-        <v>783.1482339792917</v>
+        <v>26</v>
       </c>
       <c r="G76" t="n">
-        <v>26</v>
+        <v>6914.77894062453</v>
       </c>
       <c r="H76" t="n">
-        <v>26</v>
+        <v>-1142.584252847762</v>
       </c>
       <c r="I76" t="n">
-        <v>6914.77894062453</v>
+        <v>218.6392543003249</v>
       </c>
       <c r="J76" t="n">
-        <v>-1142.584252847762</v>
+        <v>-11.95706741178979</v>
       </c>
       <c r="K76" t="n">
-        <v>218.6392543003249</v>
+        <v>3.346261941658097</v>
       </c>
       <c r="L76" t="n">
-        <v>-11.95706741178979</v>
+        <v>-16.94832258391992</v>
       </c>
       <c r="M76" t="n">
-        <v>3.346261941658097</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-16.94832258391992</v>
-      </c>
-      <c r="O76" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4052,33 +3592,27 @@
         <v>-10.50373554229736</v>
       </c>
       <c r="F77" t="n">
-        <v>792.2407746947289</v>
+        <v>23</v>
       </c>
       <c r="G77" t="n">
-        <v>24</v>
+        <v>8539.906308550746</v>
       </c>
       <c r="H77" t="n">
-        <v>23</v>
+        <v>-973.341870627652</v>
       </c>
       <c r="I77" t="n">
-        <v>8539.906308550746</v>
+        <v>281.3624213947264</v>
       </c>
       <c r="J77" t="n">
-        <v>-973.341870627652</v>
+        <v>-9.39410355315276</v>
       </c>
       <c r="K77" t="n">
-        <v>281.3624213947264</v>
+        <v>3.352523842757587</v>
       </c>
       <c r="L77" t="n">
-        <v>-9.39410355315276</v>
+        <v>-13.3916023862963</v>
       </c>
       <c r="M77" t="n">
-        <v>3.352523842757587</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-13.3916023862963</v>
-      </c>
-      <c r="O77" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4099,33 +3633,27 @@
         <v>-11.60676574707031</v>
       </c>
       <c r="F78" t="n">
-        <v>788.5952692392053</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>26</v>
+        <v>8146.476495040464</v>
       </c>
       <c r="H78" t="n">
-        <v>26</v>
+        <v>-962.7493347554474</v>
       </c>
       <c r="I78" t="n">
-        <v>8146.476495040464</v>
+        <v>317.4296893786417</v>
       </c>
       <c r="J78" t="n">
-        <v>-962.7493347554474</v>
+        <v>-9.598696061338305</v>
       </c>
       <c r="K78" t="n">
-        <v>317.4296893786417</v>
+        <v>3.344974642639624</v>
       </c>
       <c r="L78" t="n">
-        <v>-9.598696061338305</v>
+        <v>-13.16074856647764</v>
       </c>
       <c r="M78" t="n">
-        <v>3.344974642639624</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-13.16074856647764</v>
-      </c>
-      <c r="O78" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4146,33 +3674,27 @@
         <v>-10.97430992126465</v>
       </c>
       <c r="F79" t="n">
-        <v>771.9743235779979</v>
+        <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>19</v>
+        <v>9194.928115689501</v>
       </c>
       <c r="H79" t="n">
-        <v>20</v>
+        <v>-885.1195609911285</v>
       </c>
       <c r="I79" t="n">
-        <v>9194.928115689501</v>
+        <v>331.6603730497554</v>
       </c>
       <c r="J79" t="n">
-        <v>-885.1195609911285</v>
+        <v>-7.415720153370323</v>
       </c>
       <c r="K79" t="n">
-        <v>331.6603730497554</v>
+        <v>3.346215088131756</v>
       </c>
       <c r="L79" t="n">
-        <v>-7.415720153370323</v>
+        <v>-14.10818007846217</v>
       </c>
       <c r="M79" t="n">
-        <v>3.346215088131756</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-14.10818007846217</v>
-      </c>
-      <c r="O79" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4193,33 +3715,27 @@
         <v>-10.82259082794189</v>
       </c>
       <c r="F80" t="n">
-        <v>781.8493213267686</v>
+        <v>23</v>
       </c>
       <c r="G80" t="n">
-        <v>23</v>
+        <v>8812.717902687571</v>
       </c>
       <c r="H80" t="n">
-        <v>23</v>
+        <v>-910.278652441023</v>
       </c>
       <c r="I80" t="n">
-        <v>8812.717902687571</v>
+        <v>311.3929743836643</v>
       </c>
       <c r="J80" t="n">
-        <v>-910.278652441023</v>
+        <v>-11.20998308636743</v>
       </c>
       <c r="K80" t="n">
-        <v>311.3929743836643</v>
+        <v>3.33677138049267</v>
       </c>
       <c r="L80" t="n">
-        <v>-11.20998308636743</v>
+        <v>-13.25164193981461</v>
       </c>
       <c r="M80" t="n">
-        <v>3.33677138049267</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-13.25164193981461</v>
-      </c>
-      <c r="O80" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4240,33 +3756,27 @@
         <v>-11.58854484558105</v>
       </c>
       <c r="F81" t="n">
-        <v>791.2297872370747</v>
+        <v>27</v>
       </c>
       <c r="G81" t="n">
-        <v>27</v>
+        <v>9050.122187533896</v>
       </c>
       <c r="H81" t="n">
-        <v>27</v>
+        <v>-977.667075698881</v>
       </c>
       <c r="I81" t="n">
-        <v>9050.122187533896</v>
+        <v>301.8308788327388</v>
       </c>
       <c r="J81" t="n">
-        <v>-977.667075698881</v>
+        <v>-9.230979511873999</v>
       </c>
       <c r="K81" t="n">
-        <v>301.8308788327388</v>
+        <v>3.323526075339753</v>
       </c>
       <c r="L81" t="n">
-        <v>-9.230979511873999</v>
+        <v>-16.81224412307698</v>
       </c>
       <c r="M81" t="n">
-        <v>3.323526075339753</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-16.81224412307698</v>
-      </c>
-      <c r="O81" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4287,33 +3797,27 @@
         <v>-11.55841159820557</v>
       </c>
       <c r="F82" t="n">
-        <v>786.8218962392704</v>
+        <v>23</v>
       </c>
       <c r="G82" t="n">
-        <v>22</v>
+        <v>8748.772343862813</v>
       </c>
       <c r="H82" t="n">
-        <v>23</v>
+        <v>-917.0894034952955</v>
       </c>
       <c r="I82" t="n">
-        <v>8748.772343862813</v>
+        <v>330.3526452197988</v>
       </c>
       <c r="J82" t="n">
-        <v>-917.0894034952955</v>
+        <v>-8.910426350196911</v>
       </c>
       <c r="K82" t="n">
-        <v>330.3526452197988</v>
+        <v>3.307577226733167</v>
       </c>
       <c r="L82" t="n">
-        <v>-8.910426350196911</v>
+        <v>-12.37606030632751</v>
       </c>
       <c r="M82" t="n">
-        <v>3.307577226733167</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-12.37606030632751</v>
-      </c>
-      <c r="O82" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4334,33 +3838,27 @@
         <v>-11.00058937072754</v>
       </c>
       <c r="F83" t="n">
-        <v>781.6240579929854</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>8704.277183262682</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>-870.2735087886263</v>
       </c>
       <c r="I83" t="n">
-        <v>8704.277183262682</v>
+        <v>337.6315431050046</v>
       </c>
       <c r="J83" t="n">
-        <v>-870.2735087886263</v>
+        <v>-8.243686949943619</v>
       </c>
       <c r="K83" t="n">
-        <v>337.6315431050046</v>
+        <v>3.351172734076941</v>
       </c>
       <c r="L83" t="n">
-        <v>-8.243686949943619</v>
+        <v>-13.55956351064776</v>
       </c>
       <c r="M83" t="n">
-        <v>3.351172734076941</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-13.55956351064776</v>
-      </c>
-      <c r="O83" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4381,33 +3879,27 @@
         <v>-11.18909931182861</v>
       </c>
       <c r="F84" t="n">
-        <v>789.0824684019875</v>
+        <v>25</v>
       </c>
       <c r="G84" t="n">
-        <v>26</v>
+        <v>7976.15855343956</v>
       </c>
       <c r="H84" t="n">
-        <v>25</v>
+        <v>-938.607187338976</v>
       </c>
       <c r="I84" t="n">
-        <v>7976.15855343956</v>
+        <v>294.9742854387009</v>
       </c>
       <c r="J84" t="n">
-        <v>-938.607187338976</v>
+        <v>-10.05864743328266</v>
       </c>
       <c r="K84" t="n">
-        <v>294.9742854387009</v>
+        <v>3.25876101726906</v>
       </c>
       <c r="L84" t="n">
-        <v>-10.05864743328266</v>
+        <v>-15.30695805050063</v>
       </c>
       <c r="M84" t="n">
-        <v>3.25876101726906</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-15.30695805050063</v>
-      </c>
-      <c r="O84" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4428,33 +3920,27 @@
         <v>-11.38812160491943</v>
       </c>
       <c r="F85" t="n">
-        <v>786.9447779804055</v>
+        <v>21</v>
       </c>
       <c r="G85" t="n">
-        <v>21</v>
+        <v>8881.611077209134</v>
       </c>
       <c r="H85" t="n">
-        <v>21</v>
+        <v>-829.037240370352</v>
       </c>
       <c r="I85" t="n">
-        <v>8881.611077209134</v>
+        <v>301.6982209578359</v>
       </c>
       <c r="J85" t="n">
-        <v>-829.037240370352</v>
+        <v>-8.911433222180383</v>
       </c>
       <c r="K85" t="n">
-        <v>301.6982209578359</v>
+        <v>3.304912081044467</v>
       </c>
       <c r="L85" t="n">
-        <v>-8.911433222180383</v>
+        <v>-11.13267131086138</v>
       </c>
       <c r="M85" t="n">
-        <v>3.304912081044467</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-11.13267131086138</v>
-      </c>
-      <c r="O85" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4475,33 +3961,27 @@
         <v>-11.89864063262939</v>
       </c>
       <c r="F86" t="n">
-        <v>786.5076962719525</v>
+        <v>22</v>
       </c>
       <c r="G86" t="n">
-        <v>23</v>
+        <v>8945.183791289288</v>
       </c>
       <c r="H86" t="n">
-        <v>22</v>
+        <v>-1055.054717898021</v>
       </c>
       <c r="I86" t="n">
-        <v>8945.183791289288</v>
+        <v>313.2146750675703</v>
       </c>
       <c r="J86" t="n">
-        <v>-1055.054717898021</v>
+        <v>-8.694697921789874</v>
       </c>
       <c r="K86" t="n">
-        <v>313.2146750675703</v>
+        <v>3.271560645448143</v>
       </c>
       <c r="L86" t="n">
-        <v>-8.694697921789874</v>
+        <v>-17.23402280864056</v>
       </c>
       <c r="M86" t="n">
-        <v>3.271560645448143</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-17.23402280864056</v>
-      </c>
-      <c r="O86" t="n">
         <v>350</v>
       </c>
     </row>
@@ -4522,33 +4002,27 @@
         <v>-10.90388107299805</v>
       </c>
       <c r="F87" t="n">
-        <v>768.8091178667412</v>
+        <v>26</v>
       </c>
       <c r="G87" t="n">
-        <v>26</v>
+        <v>8413.80015847442</v>
       </c>
       <c r="H87" t="n">
-        <v>26</v>
+        <v>-897.0581514635708</v>
       </c>
       <c r="I87" t="n">
-        <v>8413.80015847442</v>
+        <v>195.5550393112645</v>
       </c>
       <c r="J87" t="n">
-        <v>-897.0581514635708</v>
+        <v>-6.145804778665219</v>
       </c>
       <c r="K87" t="n">
-        <v>195.5550393112645</v>
+        <v>3.319076934518328</v>
       </c>
       <c r="L87" t="n">
-        <v>-6.145804778665219</v>
+        <v>-15.36232854299923</v>
       </c>
       <c r="M87" t="n">
-        <v>3.319076934518328</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-15.36232854299923</v>
-      </c>
-      <c r="O87" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4569,33 +4043,27 @@
         <v>-11.91475868225098</v>
       </c>
       <c r="F88" t="n">
-        <v>777.6359492281547</v>
+        <v>18</v>
       </c>
       <c r="G88" t="n">
-        <v>18</v>
+        <v>9534.805003947229</v>
       </c>
       <c r="H88" t="n">
-        <v>18</v>
+        <v>-918.0054005120933</v>
       </c>
       <c r="I88" t="n">
-        <v>9534.805003947229</v>
+        <v>381.8895391201073</v>
       </c>
       <c r="J88" t="n">
-        <v>-918.0054005120933</v>
+        <v>-7.781533971819511</v>
       </c>
       <c r="K88" t="n">
-        <v>381.8895391201073</v>
+        <v>3.23182998433825</v>
       </c>
       <c r="L88" t="n">
-        <v>-7.781533971819511</v>
+        <v>-12.52314652505857</v>
       </c>
       <c r="M88" t="n">
-        <v>3.23182998433825</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-12.52314652505857</v>
-      </c>
-      <c r="O88" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4616,33 +4084,27 @@
         <v>-10.95573902130127</v>
       </c>
       <c r="F89" t="n">
-        <v>786.5399407439077</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
-        <v>26</v>
+        <v>6792.978561407914</v>
       </c>
       <c r="H89" t="n">
-        <v>26</v>
+        <v>-921.9767420601906</v>
       </c>
       <c r="I89" t="n">
-        <v>6792.978561407914</v>
+        <v>239.187726729256</v>
       </c>
       <c r="J89" t="n">
-        <v>-921.9767420601906</v>
+        <v>-8.582284074898816</v>
       </c>
       <c r="K89" t="n">
-        <v>239.187726729256</v>
+        <v>3.34981309555707</v>
       </c>
       <c r="L89" t="n">
-        <v>-8.582284074898816</v>
+        <v>-13.11586347636841</v>
       </c>
       <c r="M89" t="n">
-        <v>3.34981309555707</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-13.11586347636841</v>
-      </c>
-      <c r="O89" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4663,33 +4125,27 @@
         <v>-10.61270713806152</v>
       </c>
       <c r="F90" t="n">
-        <v>795.1383414109008</v>
+        <v>27</v>
       </c>
       <c r="G90" t="n">
-        <v>27</v>
+        <v>9611.630185173104</v>
       </c>
       <c r="H90" t="n">
-        <v>27</v>
+        <v>-1067.180632865197</v>
       </c>
       <c r="I90" t="n">
-        <v>9611.630185173104</v>
+        <v>335.2151864472593</v>
       </c>
       <c r="J90" t="n">
-        <v>-1067.180632865197</v>
+        <v>-7.86739771626268</v>
       </c>
       <c r="K90" t="n">
-        <v>335.2151864472593</v>
+        <v>3.317080929036991</v>
       </c>
       <c r="L90" t="n">
-        <v>-7.86739771626268</v>
+        <v>-17.95117774537845</v>
       </c>
       <c r="M90" t="n">
-        <v>3.317080929036991</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-17.95117774537845</v>
-      </c>
-      <c r="O90" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4710,33 +4166,27 @@
         <v>-12.369215965271</v>
       </c>
       <c r="F91" t="n">
-        <v>786.7866158888604</v>
+        <v>23</v>
       </c>
       <c r="G91" t="n">
-        <v>23</v>
+        <v>7175.067272435377</v>
       </c>
       <c r="H91" t="n">
-        <v>23</v>
+        <v>-924.85956437236</v>
       </c>
       <c r="I91" t="n">
-        <v>7175.067272435377</v>
+        <v>297.9266185489892</v>
       </c>
       <c r="J91" t="n">
-        <v>-924.85956437236</v>
+        <v>-6.18224123168126</v>
       </c>
       <c r="K91" t="n">
-        <v>297.9266185489892</v>
+        <v>3.202374020787347</v>
       </c>
       <c r="L91" t="n">
-        <v>-6.18224123168126</v>
+        <v>-15.91522654303042</v>
       </c>
       <c r="M91" t="n">
-        <v>3.202374020787347</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-15.91522654303042</v>
-      </c>
-      <c r="O91" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4757,33 +4207,27 @@
         <v>-10.95924282073975</v>
       </c>
       <c r="F92" t="n">
-        <v>787.834100651736</v>
+        <v>26</v>
       </c>
       <c r="G92" t="n">
-        <v>26</v>
+        <v>8043.939839793598</v>
       </c>
       <c r="H92" t="n">
-        <v>26</v>
+        <v>-952.7851681223907</v>
       </c>
       <c r="I92" t="n">
-        <v>8043.939839793598</v>
+        <v>280.9847554533492</v>
       </c>
       <c r="J92" t="n">
-        <v>-952.7851681223907</v>
+        <v>-10.22472024553304</v>
       </c>
       <c r="K92" t="n">
-        <v>280.9847554533492</v>
+        <v>3.309708118090924</v>
       </c>
       <c r="L92" t="n">
-        <v>-10.22472024553304</v>
+        <v>-12.98788307097912</v>
       </c>
       <c r="M92" t="n">
-        <v>3.309708118090924</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-12.98788307097912</v>
-      </c>
-      <c r="O92" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4804,33 +4248,27 @@
         <v>-11.01916027069092</v>
       </c>
       <c r="F93" t="n">
-        <v>797.9492158106301</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>30</v>
+        <v>9170.090434415582</v>
       </c>
       <c r="H93" t="n">
-        <v>30</v>
+        <v>-860.43949373633</v>
       </c>
       <c r="I93" t="n">
-        <v>9170.090434415582</v>
+        <v>330.2545920048985</v>
       </c>
       <c r="J93" t="n">
-        <v>-860.43949373633</v>
+        <v>-8.034255454566027</v>
       </c>
       <c r="K93" t="n">
-        <v>330.2545920048985</v>
+        <v>3.32090214519991</v>
       </c>
       <c r="L93" t="n">
-        <v>-8.034255454566027</v>
+        <v>-13.02627143718681</v>
       </c>
       <c r="M93" t="n">
-        <v>3.32090214519991</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-13.02627143718681</v>
-      </c>
-      <c r="O93" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4851,33 +4289,27 @@
         <v>-11.70837879180908</v>
       </c>
       <c r="F94" t="n">
-        <v>776.820688615085</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
-        <v>24</v>
+        <v>9126.465729156898</v>
       </c>
       <c r="H94" t="n">
-        <v>24</v>
+        <v>-919.3920629499661</v>
       </c>
       <c r="I94" t="n">
-        <v>9126.465729156898</v>
+        <v>314.3629927086984</v>
       </c>
       <c r="J94" t="n">
-        <v>-919.3920629499661</v>
+        <v>-7.872927695899495</v>
       </c>
       <c r="K94" t="n">
-        <v>314.3629927086984</v>
+        <v>3.268844196584149</v>
       </c>
       <c r="L94" t="n">
-        <v>-7.872927695899495</v>
+        <v>-15.81566941209291</v>
       </c>
       <c r="M94" t="n">
-        <v>3.268844196584149</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-15.81566941209291</v>
-      </c>
-      <c r="O94" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4898,33 +4330,27 @@
         <v>-10.77283573150635</v>
       </c>
       <c r="F95" t="n">
-        <v>793.4925866083498</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n">
-        <v>19</v>
+        <v>9398.660185150926</v>
       </c>
       <c r="H95" t="n">
-        <v>18</v>
+        <v>-1216.474808292772</v>
       </c>
       <c r="I95" t="n">
-        <v>9398.660185150926</v>
+        <v>291.2667845205262</v>
       </c>
       <c r="J95" t="n">
-        <v>-1216.474808292772</v>
+        <v>-10.16587625060652</v>
       </c>
       <c r="K95" t="n">
-        <v>291.2667845205262</v>
+        <v>3.326451659579905</v>
       </c>
       <c r="L95" t="n">
-        <v>-10.16587625060652</v>
+        <v>-22.12831932074102</v>
       </c>
       <c r="M95" t="n">
-        <v>3.326451659579905</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-22.12831932074102</v>
-      </c>
-      <c r="O95" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4945,33 +4371,27 @@
         <v>-11.12778091430664</v>
       </c>
       <c r="F96" t="n">
-        <v>782.3255329960059</v>
+        <v>24</v>
       </c>
       <c r="G96" t="n">
-        <v>25</v>
+        <v>8917.575831620248</v>
       </c>
       <c r="H96" t="n">
-        <v>24</v>
+        <v>-890.278782102904</v>
       </c>
       <c r="I96" t="n">
-        <v>8917.575831620248</v>
+        <v>382.9040962499678</v>
       </c>
       <c r="J96" t="n">
-        <v>-890.278782102904</v>
+        <v>-6.833422658925849</v>
       </c>
       <c r="K96" t="n">
-        <v>382.9040962499678</v>
+        <v>3.293370158196303</v>
       </c>
       <c r="L96" t="n">
-        <v>-6.833422658925849</v>
+        <v>-15.20466577910534</v>
       </c>
       <c r="M96" t="n">
-        <v>3.293370158196303</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-15.20466577910534</v>
-      </c>
-      <c r="O96" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4992,33 +4412,27 @@
         <v>-11.70242214202881</v>
       </c>
       <c r="F97" t="n">
-        <v>783.05475789383</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>10324.59849780598</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>-890.3351140976363</v>
       </c>
       <c r="I97" t="n">
-        <v>10324.59849780598</v>
+        <v>334.4320787797056</v>
       </c>
       <c r="J97" t="n">
-        <v>-890.3351140976363</v>
+        <v>-9.311635811515186</v>
       </c>
       <c r="K97" t="n">
-        <v>334.4320787797056</v>
+        <v>3.298959828880389</v>
       </c>
       <c r="L97" t="n">
-        <v>-9.311635811515186</v>
+        <v>-14.92984889918601</v>
       </c>
       <c r="M97" t="n">
-        <v>3.298959828880389</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-14.92984889918601</v>
-      </c>
-      <c r="O97" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5039,33 +4453,27 @@
         <v>-11.45890045166016</v>
       </c>
       <c r="F98" t="n">
-        <v>787.3784333681693</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n">
-        <v>23</v>
+        <v>9139.060531884141</v>
       </c>
       <c r="H98" t="n">
-        <v>23</v>
+        <v>-910.5855887214648</v>
       </c>
       <c r="I98" t="n">
-        <v>9139.060531884141</v>
+        <v>297.9511780659902</v>
       </c>
       <c r="J98" t="n">
-        <v>-910.5855887214648</v>
+        <v>-8.919906583492281</v>
       </c>
       <c r="K98" t="n">
-        <v>297.9511780659902</v>
+        <v>3.289071934531038</v>
       </c>
       <c r="L98" t="n">
-        <v>-8.919906583492281</v>
+        <v>-12.16743132285701</v>
       </c>
       <c r="M98" t="n">
-        <v>3.289071934531038</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-12.16743132285701</v>
-      </c>
-      <c r="O98" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5086,33 +4494,27 @@
         <v>-11.45469570159912</v>
       </c>
       <c r="F99" t="n">
-        <v>790.0869262363281</v>
+        <v>27</v>
       </c>
       <c r="G99" t="n">
-        <v>28</v>
+        <v>6539.808326150149</v>
       </c>
       <c r="H99" t="n">
-        <v>27</v>
+        <v>-920.8303469742045</v>
       </c>
       <c r="I99" t="n">
-        <v>6539.808326150149</v>
+        <v>229.8687443073267</v>
       </c>
       <c r="J99" t="n">
-        <v>-920.8303469742045</v>
+        <v>-7.104151935537994</v>
       </c>
       <c r="K99" t="n">
-        <v>229.8687443073267</v>
+        <v>3.305354382999587</v>
       </c>
       <c r="L99" t="n">
-        <v>-7.104151935537994</v>
+        <v>-13.46674825148159</v>
       </c>
       <c r="M99" t="n">
-        <v>3.305354382999587</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-13.46674825148159</v>
-      </c>
-      <c r="O99" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5133,33 +4535,27 @@
         <v>-11.27950000762939</v>
       </c>
       <c r="F100" t="n">
-        <v>776.3848962994327</v>
+        <v>25</v>
       </c>
       <c r="G100" t="n">
-        <v>26</v>
+        <v>8992.279859327382</v>
       </c>
       <c r="H100" t="n">
-        <v>25</v>
+        <v>-939.1149994525949</v>
       </c>
       <c r="I100" t="n">
-        <v>8992.279859327382</v>
+        <v>361.7703427532344</v>
       </c>
       <c r="J100" t="n">
-        <v>-939.1149994525949</v>
+        <v>-8.515830747969122</v>
       </c>
       <c r="K100" t="n">
-        <v>361.7703427532344</v>
+        <v>3.335527407184755</v>
       </c>
       <c r="L100" t="n">
-        <v>-8.515830747969122</v>
+        <v>-12.23331447758475</v>
       </c>
       <c r="M100" t="n">
-        <v>3.335527407184755</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-12.23331447758475</v>
-      </c>
-      <c r="O100" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5180,33 +4576,27 @@
         <v>-11.74061489105225</v>
       </c>
       <c r="F101" t="n">
-        <v>776.799491683397</v>
+        <v>25</v>
       </c>
       <c r="G101" t="n">
-        <v>25</v>
+        <v>8768.504887190858</v>
       </c>
       <c r="H101" t="n">
-        <v>25</v>
+        <v>-928.1557378184689</v>
       </c>
       <c r="I101" t="n">
-        <v>8768.504887190858</v>
+        <v>347.9391362157248</v>
       </c>
       <c r="J101" t="n">
-        <v>-928.1557378184689</v>
+        <v>-8.844762654298412</v>
       </c>
       <c r="K101" t="n">
-        <v>347.9391362157248</v>
+        <v>3.295071906314699</v>
       </c>
       <c r="L101" t="n">
-        <v>-8.844762654298412</v>
+        <v>-12.72613221752416</v>
       </c>
       <c r="M101" t="n">
-        <v>3.295071906314699</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-12.72613221752416</v>
-      </c>
-      <c r="O101" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5227,33 +4617,27 @@
         <v>-10.71221733093262</v>
       </c>
       <c r="F102" t="n">
-        <v>790.2844927576139</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>8993.23497310474</v>
       </c>
       <c r="H102" t="n">
-        <v>20</v>
+        <v>-1040.156377876845</v>
       </c>
       <c r="I102" t="n">
-        <v>8993.23497310474</v>
+        <v>257.1046309053814</v>
       </c>
       <c r="J102" t="n">
-        <v>-1040.156377876845</v>
+        <v>-8.956375731184712</v>
       </c>
       <c r="K102" t="n">
-        <v>257.1046309053814</v>
+        <v>3.319126884913069</v>
       </c>
       <c r="L102" t="n">
-        <v>-8.956375731184712</v>
+        <v>-16.21869531873602</v>
       </c>
       <c r="M102" t="n">
-        <v>3.319126884913069</v>
-      </c>
-      <c r="N102" t="n">
-        <v>-16.21869531873602</v>
-      </c>
-      <c r="O102" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5274,33 +4658,27 @@
         <v>-11.42876720428467</v>
       </c>
       <c r="F103" t="n">
-        <v>777.9644668139755</v>
+        <v>21</v>
       </c>
       <c r="G103" t="n">
-        <v>21</v>
+        <v>8256.335653302682</v>
       </c>
       <c r="H103" t="n">
-        <v>21</v>
+        <v>-916.0471232919938</v>
       </c>
       <c r="I103" t="n">
-        <v>8256.335653302682</v>
+        <v>349.4200900546244</v>
       </c>
       <c r="J103" t="n">
-        <v>-916.0471232919938</v>
+        <v>-11.80785391203266</v>
       </c>
       <c r="K103" t="n">
-        <v>349.4200900546244</v>
+        <v>3.312857771754556</v>
       </c>
       <c r="L103" t="n">
-        <v>-11.80785391203266</v>
+        <v>-10.85953624054318</v>
       </c>
       <c r="M103" t="n">
-        <v>3.312857771754556</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-10.85953624054318</v>
-      </c>
-      <c r="O103" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5321,33 +4699,27 @@
         <v>-11.87796783447266</v>
       </c>
       <c r="F104" t="n">
-        <v>786.3130713578944</v>
+        <v>24</v>
       </c>
       <c r="G104" t="n">
-        <v>23</v>
+        <v>8700.439815399426</v>
       </c>
       <c r="H104" t="n">
-        <v>24</v>
+        <v>-982.9319649018403</v>
       </c>
       <c r="I104" t="n">
-        <v>8700.439815399426</v>
+        <v>248.4929382543762</v>
       </c>
       <c r="J104" t="n">
-        <v>-982.9319649018403</v>
+        <v>-6.554481207191548</v>
       </c>
       <c r="K104" t="n">
-        <v>248.4929382543762</v>
+        <v>3.235939745507916</v>
       </c>
       <c r="L104" t="n">
-        <v>-6.554481207191548</v>
+        <v>-15.51682940517017</v>
       </c>
       <c r="M104" t="n">
-        <v>3.235939745507916</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-15.51682940517017</v>
-      </c>
-      <c r="O104" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5368,33 +4740,27 @@
         <v>-11.43752670288086</v>
       </c>
       <c r="F105" t="n">
-        <v>784.5855363865277</v>
+        <v>25</v>
       </c>
       <c r="G105" t="n">
-        <v>26</v>
+        <v>8503.860605766311</v>
       </c>
       <c r="H105" t="n">
-        <v>25</v>
+        <v>-891.4026504371892</v>
       </c>
       <c r="I105" t="n">
-        <v>8503.860605766311</v>
+        <v>365.3109900404122</v>
       </c>
       <c r="J105" t="n">
-        <v>-891.4026504371892</v>
+        <v>-7.987624955354397</v>
       </c>
       <c r="K105" t="n">
-        <v>365.3109900404122</v>
+        <v>3.325159826379303</v>
       </c>
       <c r="L105" t="n">
-        <v>-7.987624955354397</v>
+        <v>-8.072585195651627</v>
       </c>
       <c r="M105" t="n">
-        <v>3.325159826379303</v>
-      </c>
-      <c r="N105" t="n">
-        <v>-8.072585195651627</v>
-      </c>
-      <c r="O105" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5415,33 +4781,27 @@
         <v>-11.46625900268555</v>
       </c>
       <c r="F106" t="n">
-        <v>781.2357455426771</v>
+        <v>25</v>
       </c>
       <c r="G106" t="n">
-        <v>25</v>
+        <v>9794.405643305543</v>
       </c>
       <c r="H106" t="n">
-        <v>25</v>
+        <v>-916.0852038674557</v>
       </c>
       <c r="I106" t="n">
-        <v>9794.405643305543</v>
+        <v>275.5297644953307</v>
       </c>
       <c r="J106" t="n">
-        <v>-916.0852038674557</v>
+        <v>-7.74031765058987</v>
       </c>
       <c r="K106" t="n">
-        <v>275.5297644953307</v>
+        <v>3.297353942849223</v>
       </c>
       <c r="L106" t="n">
-        <v>-7.74031765058987</v>
+        <v>-16.55874307142063</v>
       </c>
       <c r="M106" t="n">
-        <v>3.297353942849223</v>
-      </c>
-      <c r="N106" t="n">
-        <v>-16.55874307142063</v>
-      </c>
-      <c r="O106" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5462,33 +4822,27 @@
         <v>-12.36150741577148</v>
       </c>
       <c r="F107" t="n">
-        <v>775.4050304614613</v>
+        <v>25</v>
       </c>
       <c r="G107" t="n">
-        <v>25</v>
+        <v>8589.320713817553</v>
       </c>
       <c r="H107" t="n">
-        <v>25</v>
+        <v>-900.9489082571356</v>
       </c>
       <c r="I107" t="n">
-        <v>8589.320713817553</v>
+        <v>296.8825708666402</v>
       </c>
       <c r="J107" t="n">
-        <v>-900.9489082571356</v>
+        <v>-8.615151095653276</v>
       </c>
       <c r="K107" t="n">
-        <v>296.8825708666402</v>
+        <v>3.188243762750333</v>
       </c>
       <c r="L107" t="n">
-        <v>-8.615151095653276</v>
+        <v>-11.96337627337298</v>
       </c>
       <c r="M107" t="n">
-        <v>3.188243762750333</v>
-      </c>
-      <c r="N107" t="n">
-        <v>-11.96337627337298</v>
-      </c>
-      <c r="O107" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5509,33 +4863,27 @@
         <v>-10.61796283721924</v>
       </c>
       <c r="F108" t="n">
-        <v>786.0862080143589</v>
+        <v>21</v>
       </c>
       <c r="G108" t="n">
-        <v>22</v>
+        <v>10062.47802921961</v>
       </c>
       <c r="H108" t="n">
-        <v>21</v>
+        <v>-906.1176976017712</v>
       </c>
       <c r="I108" t="n">
-        <v>10062.47802921961</v>
+        <v>388.0743736578644</v>
       </c>
       <c r="J108" t="n">
-        <v>-906.1176976017712</v>
+        <v>-7.903807806786371</v>
       </c>
       <c r="K108" t="n">
-        <v>388.0743736578644</v>
+        <v>3.317082865372996</v>
       </c>
       <c r="L108" t="n">
-        <v>-7.903807806786371</v>
+        <v>-15.5048140917638</v>
       </c>
       <c r="M108" t="n">
-        <v>3.317082865372996</v>
-      </c>
-      <c r="N108" t="n">
-        <v>-15.5048140917638</v>
-      </c>
-      <c r="O108" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5556,33 +4904,27 @@
         <v>-11.12287616729736</v>
       </c>
       <c r="F109" t="n">
-        <v>777.3989314187609</v>
+        <v>27</v>
       </c>
       <c r="G109" t="n">
-        <v>27</v>
+        <v>8275.458295164384</v>
       </c>
       <c r="H109" t="n">
-        <v>27</v>
+        <v>-1035.246977732882</v>
       </c>
       <c r="I109" t="n">
-        <v>8275.458295164384</v>
+        <v>274.8576086155986</v>
       </c>
       <c r="J109" t="n">
-        <v>-1035.246977732882</v>
+        <v>-10.07640226134048</v>
       </c>
       <c r="K109" t="n">
-        <v>274.8576086155986</v>
+        <v>3.296696291048374</v>
       </c>
       <c r="L109" t="n">
-        <v>-10.07640226134048</v>
+        <v>-17.55563271385635</v>
       </c>
       <c r="M109" t="n">
-        <v>3.296696291048374</v>
-      </c>
-      <c r="N109" t="n">
-        <v>-17.55563271385635</v>
-      </c>
-      <c r="O109" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5603,33 +4945,27 @@
         <v>-12.52198600769043</v>
       </c>
       <c r="F110" t="n">
-        <v>784.7600836485892</v>
+        <v>25</v>
       </c>
       <c r="G110" t="n">
-        <v>26</v>
+        <v>8832.943802248599</v>
       </c>
       <c r="H110" t="n">
-        <v>25</v>
+        <v>-1238.534807395608</v>
       </c>
       <c r="I110" t="n">
-        <v>8832.943802248599</v>
+        <v>311.4641562475002</v>
       </c>
       <c r="J110" t="n">
-        <v>-1238.534807395608</v>
+        <v>-8.729865181970386</v>
       </c>
       <c r="K110" t="n">
-        <v>311.4641562475002</v>
+        <v>3.234567585078858</v>
       </c>
       <c r="L110" t="n">
-        <v>-8.729865181970386</v>
+        <v>-23.78106484030479</v>
       </c>
       <c r="M110" t="n">
-        <v>3.234567585078858</v>
-      </c>
-      <c r="N110" t="n">
-        <v>-23.78106484030479</v>
-      </c>
-      <c r="O110" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5650,33 +4986,27 @@
         <v>-10.62216758728027</v>
       </c>
       <c r="F111" t="n">
-        <v>785.6896576223353</v>
+        <v>27</v>
       </c>
       <c r="G111" t="n">
-        <v>27</v>
+        <v>8666.263034418462</v>
       </c>
       <c r="H111" t="n">
-        <v>27</v>
+        <v>-923.6120219043478</v>
       </c>
       <c r="I111" t="n">
-        <v>8666.263034418462</v>
+        <v>398.5307972331757</v>
       </c>
       <c r="J111" t="n">
-        <v>-923.6120219043478</v>
+        <v>-9.674595038038964</v>
       </c>
       <c r="K111" t="n">
-        <v>398.5307972331757</v>
+        <v>3.290304244227769</v>
       </c>
       <c r="L111" t="n">
-        <v>-9.674595038038964</v>
+        <v>-11.43844903326154</v>
       </c>
       <c r="M111" t="n">
-        <v>3.290304244227769</v>
-      </c>
-      <c r="N111" t="n">
-        <v>-11.43844903326154</v>
-      </c>
-      <c r="O111" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5697,33 +5027,27 @@
         <v>-11.0517463684082</v>
       </c>
       <c r="F112" t="n">
-        <v>774.0634821431801</v>
+        <v>21</v>
       </c>
       <c r="G112" t="n">
-        <v>22</v>
+        <v>9427.728759886939</v>
       </c>
       <c r="H112" t="n">
-        <v>21</v>
+        <v>-885.3061813585537</v>
       </c>
       <c r="I112" t="n">
-        <v>9427.728759886939</v>
+        <v>258.9177562365064</v>
       </c>
       <c r="J112" t="n">
-        <v>-885.3061813585537</v>
+        <v>-6.767766428664868</v>
       </c>
       <c r="K112" t="n">
-        <v>258.9177562365064</v>
+        <v>3.300300654385017</v>
       </c>
       <c r="L112" t="n">
-        <v>-6.767766428664868</v>
+        <v>-11.9206547560912</v>
       </c>
       <c r="M112" t="n">
-        <v>3.300300654385017</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-11.9206547560912</v>
-      </c>
-      <c r="O112" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5744,33 +5068,27 @@
         <v>-11.29246520996094</v>
       </c>
       <c r="F113" t="n">
-        <v>792.8020555831775</v>
+        <v>21</v>
       </c>
       <c r="G113" t="n">
-        <v>21</v>
+        <v>9199.969934585723</v>
       </c>
       <c r="H113" t="n">
-        <v>21</v>
+        <v>-942.1084021221091</v>
       </c>
       <c r="I113" t="n">
-        <v>9199.969934585723</v>
+        <v>356.696662059297</v>
       </c>
       <c r="J113" t="n">
-        <v>-942.1084021221091</v>
+        <v>-9.668372451261776</v>
       </c>
       <c r="K113" t="n">
-        <v>356.696662059297</v>
+        <v>3.312065873231025</v>
       </c>
       <c r="L113" t="n">
-        <v>-9.668372451261776</v>
+        <v>-14.4607783702484</v>
       </c>
       <c r="M113" t="n">
-        <v>3.312065873231025</v>
-      </c>
-      <c r="N113" t="n">
-        <v>-14.4607783702484</v>
-      </c>
-      <c r="O113" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5791,33 +5109,27 @@
         <v>-0.02740056812763214</v>
       </c>
       <c r="F114" t="n">
-        <v>786.2489170573356</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>21</v>
+        <v>9179.990822377074</v>
       </c>
       <c r="H114" t="n">
-        <v>20</v>
+        <v>-947.6107674545694</v>
       </c>
       <c r="I114" t="n">
-        <v>9179.990822377074</v>
+        <v>313.2561047507901</v>
       </c>
       <c r="J114" t="n">
-        <v>-947.6107674545694</v>
+        <v>-8.540302909069835</v>
       </c>
       <c r="K114" t="n">
-        <v>313.2561047507901</v>
+        <v>4.248049936678377</v>
       </c>
       <c r="L114" t="n">
-        <v>-8.540302909069835</v>
+        <v>-14.60444045652602</v>
       </c>
       <c r="M114" t="n">
-        <v>4.248049936678377</v>
-      </c>
-      <c r="N114" t="n">
-        <v>-14.60444045652602</v>
-      </c>
-      <c r="O114" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5838,33 +5150,27 @@
         <v>-9.838693618774414</v>
       </c>
       <c r="F115" t="n">
-        <v>765.9701531441392</v>
+        <v>27</v>
       </c>
       <c r="G115" t="n">
-        <v>27</v>
+        <v>9057.982614013854</v>
       </c>
       <c r="H115" t="n">
-        <v>27</v>
+        <v>-977.5227749237076</v>
       </c>
       <c r="I115" t="n">
-        <v>9057.982614013854</v>
+        <v>310.2743286077874</v>
       </c>
       <c r="J115" t="n">
-        <v>-977.5227749237076</v>
+        <v>-5.661482514701326</v>
       </c>
       <c r="K115" t="n">
-        <v>310.2743286077874</v>
+        <v>3.695482856627434</v>
       </c>
       <c r="L115" t="n">
-        <v>-5.661482514701326</v>
+        <v>-18.05125319845554</v>
       </c>
       <c r="M115" t="n">
-        <v>3.695482856627434</v>
-      </c>
-      <c r="N115" t="n">
-        <v>-18.05125319845554</v>
-      </c>
-      <c r="O115" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5885,33 +5191,27 @@
         <v>-5.101759910583496</v>
       </c>
       <c r="F116" t="n">
-        <v>777.6773911615276</v>
+        <v>19</v>
       </c>
       <c r="G116" t="n">
-        <v>20</v>
+        <v>7416.005779553183</v>
       </c>
       <c r="H116" t="n">
-        <v>19</v>
+        <v>-910.3644306753406</v>
       </c>
       <c r="I116" t="n">
-        <v>7416.005779553183</v>
+        <v>260.1660053888003</v>
       </c>
       <c r="J116" t="n">
-        <v>-910.3644306753406</v>
+        <v>-7.342526319708885</v>
       </c>
       <c r="K116" t="n">
-        <v>260.1660053888003</v>
+        <v>3.720290151646142</v>
       </c>
       <c r="L116" t="n">
-        <v>-7.342526319708885</v>
+        <v>-12.45287097881969</v>
       </c>
       <c r="M116" t="n">
-        <v>3.720290151646142</v>
-      </c>
-      <c r="N116" t="n">
-        <v>-12.45287097881969</v>
-      </c>
-      <c r="O116" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5932,33 +5232,27 @@
         <v>-7.553093910217285</v>
       </c>
       <c r="F117" t="n">
-        <v>768.2373870669933</v>
+        <v>23</v>
       </c>
       <c r="G117" t="n">
-        <v>23</v>
+        <v>8310.849543148861</v>
       </c>
       <c r="H117" t="n">
-        <v>23</v>
+        <v>-936.6910488744446</v>
       </c>
       <c r="I117" t="n">
-        <v>8310.849543148861</v>
+        <v>307.6486218212719</v>
       </c>
       <c r="J117" t="n">
-        <v>-936.6910488744446</v>
+        <v>-8.501942033624443</v>
       </c>
       <c r="K117" t="n">
-        <v>307.6486218212719</v>
+        <v>3.661594449665169</v>
       </c>
       <c r="L117" t="n">
-        <v>-8.501942033624443</v>
+        <v>-15.90945023501561</v>
       </c>
       <c r="M117" t="n">
-        <v>3.661594449665169</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-15.90945023501561</v>
-      </c>
-      <c r="O117" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5979,33 +5273,27 @@
         <v>-5.466866970062256</v>
       </c>
       <c r="F118" t="n">
-        <v>773.9388585163647</v>
+        <v>27</v>
       </c>
       <c r="G118" t="n">
-        <v>27</v>
+        <v>6305.454990419313</v>
       </c>
       <c r="H118" t="n">
-        <v>27</v>
+        <v>-896.144789717436</v>
       </c>
       <c r="I118" t="n">
-        <v>6305.454990419313</v>
+        <v>200.5009028451088</v>
       </c>
       <c r="J118" t="n">
-        <v>-896.144789717436</v>
+        <v>-14.09997618829336</v>
       </c>
       <c r="K118" t="n">
-        <v>200.5009028451088</v>
+        <v>3.644379262269149</v>
       </c>
       <c r="L118" t="n">
-        <v>-14.09997618829336</v>
+        <v>-5.510641977562884</v>
       </c>
       <c r="M118" t="n">
-        <v>3.644379262269149</v>
-      </c>
-      <c r="N118" t="n">
-        <v>-5.510641977562884</v>
-      </c>
-      <c r="O118" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6026,33 +5314,27 @@
         <v>-6.839698314666748</v>
       </c>
       <c r="F119" t="n">
-        <v>764.3719892607428</v>
+        <v>24</v>
       </c>
       <c r="G119" t="n">
-        <v>25</v>
+        <v>9085.22202068819</v>
       </c>
       <c r="H119" t="n">
-        <v>24</v>
+        <v>-886.1580352676958</v>
       </c>
       <c r="I119" t="n">
-        <v>9085.22202068819</v>
+        <v>353.5867529376331</v>
       </c>
       <c r="J119" t="n">
-        <v>-886.1580352676958</v>
+        <v>-8.736022012702422</v>
       </c>
       <c r="K119" t="n">
-        <v>353.5867529376331</v>
+        <v>3.618162122023706</v>
       </c>
       <c r="L119" t="n">
-        <v>-8.736022012702422</v>
+        <v>-7.148346620365396</v>
       </c>
       <c r="M119" t="n">
-        <v>3.618162122023706</v>
-      </c>
-      <c r="N119" t="n">
-        <v>-7.148346620365396</v>
-      </c>
-      <c r="O119" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6073,33 +5355,27 @@
         <v>-9.557680130004883</v>
       </c>
       <c r="F120" t="n">
-        <v>758.3585860251632</v>
+        <v>22</v>
       </c>
       <c r="G120" t="n">
-        <v>23</v>
+        <v>9703.047707170903</v>
       </c>
       <c r="H120" t="n">
-        <v>22</v>
+        <v>-889.5743024532271</v>
       </c>
       <c r="I120" t="n">
-        <v>9703.047707170903</v>
+        <v>365.4709490083587</v>
       </c>
       <c r="J120" t="n">
-        <v>-889.5743024532271</v>
+        <v>-6.9152275567341</v>
       </c>
       <c r="K120" t="n">
-        <v>365.4709490083587</v>
+        <v>3.48069967064256</v>
       </c>
       <c r="L120" t="n">
-        <v>-6.9152275567341</v>
+        <v>-6.374461626301528</v>
       </c>
       <c r="M120" t="n">
-        <v>3.48069967064256</v>
-      </c>
-      <c r="N120" t="n">
-        <v>-6.374461626301528</v>
-      </c>
-      <c r="O120" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6120,33 +5396,27 @@
         <v>-8.290316581726074</v>
       </c>
       <c r="F121" t="n">
-        <v>760.408761304991</v>
+        <v>27</v>
       </c>
       <c r="G121" t="n">
-        <v>26</v>
+        <v>10107.97448153079</v>
       </c>
       <c r="H121" t="n">
-        <v>27</v>
+        <v>-865.42303515752</v>
       </c>
       <c r="I121" t="n">
-        <v>10107.97448153079</v>
+        <v>408.2120967840654</v>
       </c>
       <c r="J121" t="n">
-        <v>-865.42303515752</v>
+        <v>-7.598544006451588</v>
       </c>
       <c r="K121" t="n">
-        <v>408.2120967840654</v>
+        <v>3.648017938378119</v>
       </c>
       <c r="L121" t="n">
-        <v>-7.598544006451588</v>
+        <v>-5.172846913435091</v>
       </c>
       <c r="M121" t="n">
-        <v>3.648017938378119</v>
-      </c>
-      <c r="N121" t="n">
-        <v>-5.172846913435091</v>
-      </c>
-      <c r="O121" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6167,33 +5437,27 @@
         <v>-10.12356090545654</v>
       </c>
       <c r="F122" t="n">
-        <v>746.4543231848678</v>
+        <v>23</v>
       </c>
       <c r="G122" t="n">
-        <v>23</v>
+        <v>9356.277419600161</v>
       </c>
       <c r="H122" t="n">
-        <v>23</v>
+        <v>-848.1432614857197</v>
       </c>
       <c r="I122" t="n">
-        <v>9356.277419600161</v>
+        <v>367.8542956027981</v>
       </c>
       <c r="J122" t="n">
-        <v>-848.1432614857197</v>
+        <v>-8.550498178515429</v>
       </c>
       <c r="K122" t="n">
-        <v>367.8542956027981</v>
+        <v>3.576408674869473</v>
       </c>
       <c r="L122" t="n">
-        <v>-8.550498178515429</v>
+        <v>-5.36080744171506</v>
       </c>
       <c r="M122" t="n">
-        <v>3.576408674869473</v>
-      </c>
-      <c r="N122" t="n">
-        <v>-5.36080744171506</v>
-      </c>
-      <c r="O122" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6214,33 +5478,27 @@
         <v>-12.64041805267334</v>
       </c>
       <c r="F123" t="n">
-        <v>763.9511862521374</v>
+        <v>24</v>
       </c>
       <c r="G123" t="n">
-        <v>25</v>
+        <v>7485.358586866711</v>
       </c>
       <c r="H123" t="n">
-        <v>24</v>
+        <v>-887.2972122995933</v>
       </c>
       <c r="I123" t="n">
-        <v>7485.358586866711</v>
+        <v>146.3312430550912</v>
       </c>
       <c r="J123" t="n">
-        <v>-887.2972122995933</v>
+        <v>-6.203003273462457</v>
       </c>
       <c r="K123" t="n">
-        <v>146.3312430550912</v>
+        <v>3.509900379484409</v>
       </c>
       <c r="L123" t="n">
-        <v>-6.203003273462457</v>
+        <v>-7.301022900358152</v>
       </c>
       <c r="M123" t="n">
-        <v>3.509900379484409</v>
-      </c>
-      <c r="N123" t="n">
-        <v>-7.301022900358152</v>
-      </c>
-      <c r="O123" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6261,33 +5519,27 @@
         <v>-11.96171092987061</v>
       </c>
       <c r="F124" t="n">
-        <v>763.9885007475908</v>
+        <v>26</v>
       </c>
       <c r="G124" t="n">
-        <v>26</v>
+        <v>8169.56761623041</v>
       </c>
       <c r="H124" t="n">
-        <v>26</v>
+        <v>-861.5700110316857</v>
       </c>
       <c r="I124" t="n">
-        <v>8169.56761623041</v>
+        <v>243.7265967549002</v>
       </c>
       <c r="J124" t="n">
-        <v>-861.5700110316857</v>
+        <v>-6.259343903426428</v>
       </c>
       <c r="K124" t="n">
-        <v>243.7265967549002</v>
+        <v>3.644198654312254</v>
       </c>
       <c r="L124" t="n">
-        <v>-6.259343903426428</v>
+        <v>-5.496759325041529</v>
       </c>
       <c r="M124" t="n">
-        <v>3.644198654312254</v>
-      </c>
-      <c r="N124" t="n">
-        <v>-5.496759325041529</v>
-      </c>
-      <c r="O124" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6308,33 +5560,27 @@
         <v>-13.10328483581543</v>
       </c>
       <c r="F125" t="n">
-        <v>747.712848353237</v>
+        <v>26</v>
       </c>
       <c r="G125" t="n">
-        <v>26</v>
+        <v>8374.248552437242</v>
       </c>
       <c r="H125" t="n">
-        <v>26</v>
+        <v>-859.096625261097</v>
       </c>
       <c r="I125" t="n">
-        <v>8374.248552437242</v>
+        <v>325.6037618485988</v>
       </c>
       <c r="J125" t="n">
-        <v>-859.096625261097</v>
+        <v>-9.354620866875479</v>
       </c>
       <c r="K125" t="n">
-        <v>325.6037618485988</v>
+        <v>3.62092170099434</v>
       </c>
       <c r="L125" t="n">
-        <v>-9.354620866875479</v>
+        <v>-5.816206530839415</v>
       </c>
       <c r="M125" t="n">
-        <v>3.62092170099434</v>
-      </c>
-      <c r="N125" t="n">
-        <v>-5.816206530839415</v>
-      </c>
-      <c r="O125" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6355,33 +5601,27 @@
         <v>-17.064453125</v>
       </c>
       <c r="F126" t="n">
-        <v>761.2303146958352</v>
+        <v>27</v>
       </c>
       <c r="G126" t="n">
-        <v>27</v>
+        <v>8278.608634765469</v>
       </c>
       <c r="H126" t="n">
-        <v>27</v>
+        <v>-858.7309341411381</v>
       </c>
       <c r="I126" t="n">
-        <v>8278.608634765469</v>
+        <v>328.606632275646</v>
       </c>
       <c r="J126" t="n">
-        <v>-858.7309341411381</v>
+        <v>-7.492901346749322</v>
       </c>
       <c r="K126" t="n">
-        <v>328.606632275646</v>
+        <v>3.369138485769442</v>
       </c>
       <c r="L126" t="n">
-        <v>-7.492901346749322</v>
+        <v>-5.832141616916458</v>
       </c>
       <c r="M126" t="n">
-        <v>3.369138485769442</v>
-      </c>
-      <c r="N126" t="n">
-        <v>-5.832141616916458</v>
-      </c>
-      <c r="O126" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6402,33 +5642,27 @@
         <v>-12.25533866882324</v>
       </c>
       <c r="F127" t="n">
-        <v>753.1693888774737</v>
+        <v>27</v>
       </c>
       <c r="G127" t="n">
-        <v>27</v>
+        <v>8729.176994775258</v>
       </c>
       <c r="H127" t="n">
-        <v>27</v>
+        <v>-814.7402080811244</v>
       </c>
       <c r="I127" t="n">
-        <v>8729.176994775258</v>
+        <v>288.8574880637673</v>
       </c>
       <c r="J127" t="n">
-        <v>-814.7402080811244</v>
+        <v>-7.597539750148918</v>
       </c>
       <c r="K127" t="n">
-        <v>288.8574880637673</v>
+        <v>3.726660009684334</v>
       </c>
       <c r="L127" t="n">
-        <v>-7.597539750148918</v>
+        <v>-6.368951072483899</v>
       </c>
       <c r="M127" t="n">
-        <v>3.726660009684334</v>
-      </c>
-      <c r="N127" t="n">
-        <v>-6.368951072483899</v>
-      </c>
-      <c r="O127" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6449,33 +5683,27 @@
         <v>-14.45509243011475</v>
       </c>
       <c r="F128" t="n">
-        <v>748.3642790316817</v>
+        <v>25</v>
       </c>
       <c r="G128" t="n">
-        <v>24</v>
+        <v>8812.278041852074</v>
       </c>
       <c r="H128" t="n">
-        <v>25</v>
+        <v>-799.1964321239848</v>
       </c>
       <c r="I128" t="n">
-        <v>8812.278041852074</v>
+        <v>330.8209475215959</v>
       </c>
       <c r="J128" t="n">
-        <v>-799.1964321239848</v>
+        <v>-8.39017877906014</v>
       </c>
       <c r="K128" t="n">
-        <v>330.8209475215959</v>
+        <v>3.663701206312227</v>
       </c>
       <c r="L128" t="n">
-        <v>-8.39017877906014</v>
+        <v>-10.2908462594989</v>
       </c>
       <c r="M128" t="n">
-        <v>3.663701206312227</v>
-      </c>
-      <c r="N128" t="n">
-        <v>-10.2908462594989</v>
-      </c>
-      <c r="O128" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6496,33 +5724,27 @@
         <v>-15.51117038726807</v>
       </c>
       <c r="F129" t="n">
-        <v>762.5746004364232</v>
+        <v>24</v>
       </c>
       <c r="G129" t="n">
-        <v>25</v>
+        <v>8459.049276708947</v>
       </c>
       <c r="H129" t="n">
-        <v>24</v>
+        <v>-893.0885504118489</v>
       </c>
       <c r="I129" t="n">
-        <v>8459.049276708947</v>
+        <v>296.4721502144881</v>
       </c>
       <c r="J129" t="n">
-        <v>-893.0885504118489</v>
+        <v>-9.63007420883444</v>
       </c>
       <c r="K129" t="n">
-        <v>296.4721502144881</v>
+        <v>3.517497882108705</v>
       </c>
       <c r="L129" t="n">
-        <v>-9.63007420883444</v>
+        <v>-7.818660162633642</v>
       </c>
       <c r="M129" t="n">
-        <v>3.517497882108705</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-7.818660162633642</v>
-      </c>
-      <c r="O129" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6543,33 +5765,27 @@
         <v>-13.23853492736816</v>
       </c>
       <c r="F130" t="n">
-        <v>763.4459784023993</v>
+        <v>28</v>
       </c>
       <c r="G130" t="n">
-        <v>29</v>
+        <v>7578.856759704368</v>
       </c>
       <c r="H130" t="n">
-        <v>28</v>
+        <v>-848.7705840960352</v>
       </c>
       <c r="I130" t="n">
-        <v>7578.856759704368</v>
+        <v>255.034397422446</v>
       </c>
       <c r="J130" t="n">
-        <v>-848.7705840960352</v>
+        <v>-7.641037780791852</v>
       </c>
       <c r="K130" t="n">
-        <v>255.034397422446</v>
+        <v>3.668085003634589</v>
       </c>
       <c r="L130" t="n">
-        <v>-7.641037780791852</v>
+        <v>-7.866671694555979</v>
       </c>
       <c r="M130" t="n">
-        <v>3.668085003634589</v>
-      </c>
-      <c r="N130" t="n">
-        <v>-7.866671694555979</v>
-      </c>
-      <c r="O130" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6590,33 +5806,27 @@
         <v>-14.1663703918457</v>
       </c>
       <c r="F131" t="n">
-        <v>755.5253848783263</v>
+        <v>22</v>
       </c>
       <c r="G131" t="n">
-        <v>23</v>
+        <v>7815.824383485175</v>
       </c>
       <c r="H131" t="n">
-        <v>22</v>
+        <v>-843.3517966777101</v>
       </c>
       <c r="I131" t="n">
-        <v>7815.824383485175</v>
+        <v>300.6521756054996</v>
       </c>
       <c r="J131" t="n">
-        <v>-843.3517966777101</v>
+        <v>-6.753617606182898</v>
       </c>
       <c r="K131" t="n">
-        <v>300.6521756054996</v>
+        <v>3.585887852257436</v>
       </c>
       <c r="L131" t="n">
-        <v>-6.753617606182898</v>
+        <v>-9.859178333569037</v>
       </c>
       <c r="M131" t="n">
-        <v>3.585887852257436</v>
-      </c>
-      <c r="N131" t="n">
-        <v>-9.859178333569037</v>
-      </c>
-      <c r="O131" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6637,33 +5847,27 @@
         <v>-14.4985408782959</v>
       </c>
       <c r="F132" t="n">
-        <v>754.6361822275401</v>
+        <v>28</v>
       </c>
       <c r="G132" t="n">
-        <v>28</v>
+        <v>8263.168897265445</v>
       </c>
       <c r="H132" t="n">
-        <v>28</v>
+        <v>-840.6637804905822</v>
       </c>
       <c r="I132" t="n">
-        <v>8263.168897265445</v>
+        <v>341.6903187191866</v>
       </c>
       <c r="J132" t="n">
-        <v>-840.6637804905822</v>
+        <v>-8.736850010732336</v>
       </c>
       <c r="K132" t="n">
-        <v>341.6903187191866</v>
+        <v>3.579433865551337</v>
       </c>
       <c r="L132" t="n">
-        <v>-8.736850010732336</v>
+        <v>-14.30862728553774</v>
       </c>
       <c r="M132" t="n">
-        <v>3.579433865551337</v>
-      </c>
-      <c r="N132" t="n">
-        <v>-14.30862728553774</v>
-      </c>
-      <c r="O132" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6684,33 +5888,27 @@
         <v>-13.49887561798096</v>
       </c>
       <c r="F133" t="n">
-        <v>762.643677876162</v>
+        <v>25</v>
       </c>
       <c r="G133" t="n">
-        <v>26</v>
+        <v>9049.920631138415</v>
       </c>
       <c r="H133" t="n">
-        <v>25</v>
+        <v>-833.1852930283094</v>
       </c>
       <c r="I133" t="n">
-        <v>9049.920631138415</v>
+        <v>287.6025263441111</v>
       </c>
       <c r="J133" t="n">
-        <v>-833.1852930283094</v>
+        <v>-9.22599073127782</v>
       </c>
       <c r="K133" t="n">
-        <v>287.6025263441111</v>
+        <v>3.615277653293722</v>
       </c>
       <c r="L133" t="n">
-        <v>-9.22599073127782</v>
+        <v>-8.855621333343434</v>
       </c>
       <c r="M133" t="n">
-        <v>3.615277653293722</v>
-      </c>
-      <c r="N133" t="n">
-        <v>-8.855621333343434</v>
-      </c>
-      <c r="O133" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6731,33 +5929,27 @@
         <v>-13.14673328399658</v>
       </c>
       <c r="F134" t="n">
-        <v>764.9507184698575</v>
+        <v>28</v>
       </c>
       <c r="G134" t="n">
-        <v>29</v>
+        <v>7336.355558949867</v>
       </c>
       <c r="H134" t="n">
-        <v>28</v>
+        <v>-855.6392146776652</v>
       </c>
       <c r="I134" t="n">
-        <v>7336.355558949867</v>
+        <v>247.7597926055163</v>
       </c>
       <c r="J134" t="n">
-        <v>-855.6392146776652</v>
+        <v>-6.76315782851957</v>
       </c>
       <c r="K134" t="n">
-        <v>247.7597926055163</v>
+        <v>3.568728304710458</v>
       </c>
       <c r="L134" t="n">
-        <v>-6.76315782851957</v>
+        <v>-10.14922695425147</v>
       </c>
       <c r="M134" t="n">
-        <v>3.568728304710458</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-10.14922695425147</v>
-      </c>
-      <c r="O134" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6778,33 +5970,27 @@
         <v>-13.10223293304443</v>
       </c>
       <c r="F135" t="n">
-        <v>757.0618361747108</v>
+        <v>30</v>
       </c>
       <c r="G135" t="n">
-        <v>31</v>
+        <v>8805.358783839041</v>
       </c>
       <c r="H135" t="n">
-        <v>30</v>
+        <v>-833.4295704134652</v>
       </c>
       <c r="I135" t="n">
-        <v>8805.358783839041</v>
+        <v>363.0791427410566</v>
       </c>
       <c r="J135" t="n">
-        <v>-833.4295704134652</v>
+        <v>-7.303070982957807</v>
       </c>
       <c r="K135" t="n">
-        <v>363.0791427410566</v>
+        <v>3.580471240779441</v>
       </c>
       <c r="L135" t="n">
-        <v>-7.303070982957807</v>
+        <v>-9.473479994197248</v>
       </c>
       <c r="M135" t="n">
-        <v>3.580471240779441</v>
-      </c>
-      <c r="N135" t="n">
-        <v>-9.473479994197248</v>
-      </c>
-      <c r="O135" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6825,33 +6011,27 @@
         <v>-12.37306976318359</v>
       </c>
       <c r="F136" t="n">
-        <v>765.2349447542115</v>
+        <v>26</v>
       </c>
       <c r="G136" t="n">
-        <v>26</v>
+        <v>9551.317005075325</v>
       </c>
       <c r="H136" t="n">
-        <v>26</v>
+        <v>-815.4647905869256</v>
       </c>
       <c r="I136" t="n">
-        <v>9551.317005075325</v>
+        <v>375.7310196800397</v>
       </c>
       <c r="J136" t="n">
-        <v>-815.4647905869256</v>
+        <v>-6.981563282201071</v>
       </c>
       <c r="K136" t="n">
-        <v>375.7310196800397</v>
+        <v>3.605328336398382</v>
       </c>
       <c r="L136" t="n">
-        <v>-6.981563282201071</v>
+        <v>-7.478935504408665</v>
       </c>
       <c r="M136" t="n">
-        <v>3.605328336398382</v>
-      </c>
-      <c r="N136" t="n">
-        <v>-7.478935504408665</v>
-      </c>
-      <c r="O136" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6872,33 +6052,27 @@
         <v>-12.48694705963135</v>
       </c>
       <c r="F137" t="n">
-        <v>757.4120503863013</v>
+        <v>24</v>
       </c>
       <c r="G137" t="n">
-        <v>25</v>
+        <v>7465.886083686164</v>
       </c>
       <c r="H137" t="n">
-        <v>24</v>
+        <v>-864.4289080793299</v>
       </c>
       <c r="I137" t="n">
-        <v>7465.886083686164</v>
+        <v>235.3824785978902</v>
       </c>
       <c r="J137" t="n">
-        <v>-864.4289080793299</v>
+        <v>-7.962529575777841</v>
       </c>
       <c r="K137" t="n">
-        <v>235.3824785978902</v>
+        <v>3.543991578856798</v>
       </c>
       <c r="L137" t="n">
-        <v>-7.962529575777841</v>
+        <v>-7.904899249060874</v>
       </c>
       <c r="M137" t="n">
-        <v>3.543991578856798</v>
-      </c>
-      <c r="N137" t="n">
-        <v>-7.904899249060874</v>
-      </c>
-      <c r="O137" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6919,33 +6093,27 @@
         <v>-12.39899921417236</v>
       </c>
       <c r="F138" t="n">
-        <v>741.0898958134599</v>
+        <v>25</v>
       </c>
       <c r="G138" t="n">
-        <v>25</v>
+        <v>7100.44209089433</v>
       </c>
       <c r="H138" t="n">
-        <v>25</v>
+        <v>-817.2271506041891</v>
       </c>
       <c r="I138" t="n">
-        <v>7100.44209089433</v>
+        <v>243.0563386192653</v>
       </c>
       <c r="J138" t="n">
-        <v>-817.2271506041891</v>
+        <v>-6.600225091718198</v>
       </c>
       <c r="K138" t="n">
-        <v>243.0563386192653</v>
+        <v>3.565967780996481</v>
       </c>
       <c r="L138" t="n">
-        <v>-6.600225091718198</v>
+        <v>-6.69542253264597</v>
       </c>
       <c r="M138" t="n">
-        <v>3.565967780996481</v>
-      </c>
-      <c r="N138" t="n">
-        <v>-6.69542253264597</v>
-      </c>
-      <c r="O138" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6966,33 +6134,27 @@
         <v>-13.01078128814697</v>
       </c>
       <c r="F139" t="n">
-        <v>752.4802238750705</v>
+        <v>24</v>
       </c>
       <c r="G139" t="n">
-        <v>25</v>
+        <v>6395.921255536982</v>
       </c>
       <c r="H139" t="n">
-        <v>24</v>
+        <v>-840.2777339624843</v>
       </c>
       <c r="I139" t="n">
-        <v>6395.921255536982</v>
+        <v>166.0242370540098</v>
       </c>
       <c r="J139" t="n">
-        <v>-840.2777339624843</v>
+        <v>-6.091692086814517</v>
       </c>
       <c r="K139" t="n">
-        <v>166.0242370540098</v>
+        <v>3.521158129205086</v>
       </c>
       <c r="L139" t="n">
-        <v>-6.091692086814517</v>
+        <v>-5.393458652295933</v>
       </c>
       <c r="M139" t="n">
-        <v>3.521158129205086</v>
-      </c>
-      <c r="N139" t="n">
-        <v>-5.393458652295933</v>
-      </c>
-      <c r="O139" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7013,33 +6175,27 @@
         <v>-12.22870922088623</v>
       </c>
       <c r="F140" t="n">
-        <v>747.386921539486</v>
+        <v>27</v>
       </c>
       <c r="G140" t="n">
-        <v>27</v>
+        <v>8349.019343050528</v>
       </c>
       <c r="H140" t="n">
-        <v>27</v>
+        <v>-824.5898707348233</v>
       </c>
       <c r="I140" t="n">
-        <v>8349.019343050528</v>
+        <v>242.3841442747553</v>
       </c>
       <c r="J140" t="n">
-        <v>-824.5898707348233</v>
+        <v>-9.857622549543736</v>
       </c>
       <c r="K140" t="n">
-        <v>242.3841442747553</v>
+        <v>3.581457426038924</v>
       </c>
       <c r="L140" t="n">
-        <v>-9.857622549543736</v>
+        <v>-5.714666755962661</v>
       </c>
       <c r="M140" t="n">
-        <v>3.581457426038924</v>
-      </c>
-      <c r="N140" t="n">
-        <v>-5.714666755962661</v>
-      </c>
-      <c r="O140" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7060,33 +6216,27 @@
         <v>-11.90214443206787</v>
       </c>
       <c r="F141" t="n">
-        <v>753.2819692786321</v>
+        <v>21</v>
       </c>
       <c r="G141" t="n">
-        <v>21</v>
+        <v>8726.572848877964</v>
       </c>
       <c r="H141" t="n">
-        <v>21</v>
+        <v>-808.9081569202563</v>
       </c>
       <c r="I141" t="n">
-        <v>8726.572848877964</v>
+        <v>340.7820592683869</v>
       </c>
       <c r="J141" t="n">
-        <v>-808.9081569202563</v>
+        <v>-6.081232437725876</v>
       </c>
       <c r="K141" t="n">
-        <v>340.7820592683869</v>
+        <v>3.561970190805532</v>
       </c>
       <c r="L141" t="n">
-        <v>-6.081232437725876</v>
+        <v>-6.745234131221065</v>
       </c>
       <c r="M141" t="n">
-        <v>3.561970190805532</v>
-      </c>
-      <c r="N141" t="n">
-        <v>-6.745234131221065</v>
-      </c>
-      <c r="O141" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7107,33 +6257,27 @@
         <v>-13.77463340759277</v>
       </c>
       <c r="F142" t="n">
-        <v>745.9734471000878</v>
+        <v>23</v>
       </c>
       <c r="G142" t="n">
-        <v>23</v>
+        <v>8950.075452472956</v>
       </c>
       <c r="H142" t="n">
-        <v>23</v>
+        <v>-828.772915581118</v>
       </c>
       <c r="I142" t="n">
-        <v>8950.075452472956</v>
+        <v>350.5110025878982</v>
       </c>
       <c r="J142" t="n">
-        <v>-828.772915581118</v>
+        <v>-8.089152303006816</v>
       </c>
       <c r="K142" t="n">
-        <v>350.5110025878982</v>
+        <v>3.529865854845222</v>
       </c>
       <c r="L142" t="n">
-        <v>-8.089152303006816</v>
+        <v>-3.53390649565865</v>
       </c>
       <c r="M142" t="n">
-        <v>3.529865854845222</v>
-      </c>
-      <c r="N142" t="n">
-        <v>-3.53390649565865</v>
-      </c>
-      <c r="O142" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7154,33 +6298,27 @@
         <v>-11.67123699188232</v>
       </c>
       <c r="F143" t="n">
-        <v>743.3145360108743</v>
+        <v>26</v>
       </c>
       <c r="G143" t="n">
-        <v>27</v>
+        <v>7012.257482674831</v>
       </c>
       <c r="H143" t="n">
-        <v>26</v>
+        <v>-788.2616671048795</v>
       </c>
       <c r="I143" t="n">
-        <v>7012.257482674831</v>
+        <v>251.466190246382</v>
       </c>
       <c r="J143" t="n">
-        <v>-788.2616671048795</v>
+        <v>-5.494906164778045</v>
       </c>
       <c r="K143" t="n">
-        <v>251.466190246382</v>
+        <v>3.461353685443138</v>
       </c>
       <c r="L143" t="n">
-        <v>-5.494906164778045</v>
+        <v>-7.284941498391063</v>
       </c>
       <c r="M143" t="n">
-        <v>3.461353685443138</v>
-      </c>
-      <c r="N143" t="n">
-        <v>-7.284941498391063</v>
-      </c>
-      <c r="O143" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7201,33 +6339,27 @@
         <v>-12.44665241241455</v>
       </c>
       <c r="F144" t="n">
-        <v>767.2425168920076</v>
+        <v>26</v>
       </c>
       <c r="G144" t="n">
-        <v>27</v>
+        <v>7860.757910585684</v>
       </c>
       <c r="H144" t="n">
-        <v>26</v>
+        <v>-872.0828865497674</v>
       </c>
       <c r="I144" t="n">
-        <v>7860.757910585684</v>
+        <v>254.5454046579278</v>
       </c>
       <c r="J144" t="n">
-        <v>-872.0828865497674</v>
+        <v>-6.281739680805932</v>
       </c>
       <c r="K144" t="n">
-        <v>254.5454046579278</v>
+        <v>3.589592627191149</v>
       </c>
       <c r="L144" t="n">
-        <v>-6.281739680805932</v>
+        <v>-8.17464444034864</v>
       </c>
       <c r="M144" t="n">
-        <v>3.589592627191149</v>
-      </c>
-      <c r="N144" t="n">
-        <v>-8.17464444034864</v>
-      </c>
-      <c r="O144" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7248,33 +6380,27 @@
         <v>-12.98765563964844</v>
       </c>
       <c r="F145" t="n">
-        <v>765.2903038191903</v>
+        <v>25</v>
       </c>
       <c r="G145" t="n">
-        <v>24</v>
+        <v>9495.237754527137</v>
       </c>
       <c r="H145" t="n">
-        <v>25</v>
+        <v>-845.3597816170575</v>
       </c>
       <c r="I145" t="n">
-        <v>9495.237754527137</v>
+        <v>382.1045480454629</v>
       </c>
       <c r="J145" t="n">
-        <v>-845.3597816170575</v>
+        <v>-6.488688869634349</v>
       </c>
       <c r="K145" t="n">
-        <v>382.1045480454629</v>
+        <v>3.452233070760149</v>
       </c>
       <c r="L145" t="n">
-        <v>-6.488688869634349</v>
+        <v>-7.290387175108767</v>
       </c>
       <c r="M145" t="n">
-        <v>3.452233070760149</v>
-      </c>
-      <c r="N145" t="n">
-        <v>-7.290387175108767</v>
-      </c>
-      <c r="O145" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7295,33 +6421,27 @@
         <v>-12.14881992340088</v>
       </c>
       <c r="F146" t="n">
-        <v>764.7330295860197</v>
+        <v>25</v>
       </c>
       <c r="G146" t="n">
-        <v>26</v>
+        <v>8844.896676317894</v>
       </c>
       <c r="H146" t="n">
-        <v>25</v>
+        <v>-876.3295543100998</v>
       </c>
       <c r="I146" t="n">
-        <v>8844.896676317894</v>
+        <v>316.9113376922263</v>
       </c>
       <c r="J146" t="n">
-        <v>-876.3295543100998</v>
+        <v>-7.237311953267251</v>
       </c>
       <c r="K146" t="n">
-        <v>316.9113376922263</v>
+        <v>3.575920963060887</v>
       </c>
       <c r="L146" t="n">
-        <v>-7.237311953267251</v>
+        <v>-7.607253345618122</v>
       </c>
       <c r="M146" t="n">
-        <v>3.575920963060887</v>
-      </c>
-      <c r="N146" t="n">
-        <v>-7.607253345618122</v>
-      </c>
-      <c r="O146" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7342,33 +6462,27 @@
         <v>-11.88953113555908</v>
       </c>
       <c r="F147" t="n">
-        <v>752.9430471612441</v>
+        <v>25</v>
       </c>
       <c r="G147" t="n">
-        <v>25</v>
+        <v>9132.671618767223</v>
       </c>
       <c r="H147" t="n">
-        <v>25</v>
+        <v>-840.1420916690986</v>
       </c>
       <c r="I147" t="n">
-        <v>9132.671618767223</v>
+        <v>389.55871366126</v>
       </c>
       <c r="J147" t="n">
-        <v>-840.1420916690986</v>
+        <v>-8.508470608209723</v>
       </c>
       <c r="K147" t="n">
-        <v>389.55871366126</v>
+        <v>3.551761893553896</v>
       </c>
       <c r="L147" t="n">
-        <v>-8.508470608209723</v>
+        <v>-7.11435579891637</v>
       </c>
       <c r="M147" t="n">
-        <v>3.551761893553896</v>
-      </c>
-      <c r="N147" t="n">
-        <v>-7.11435579891637</v>
-      </c>
-      <c r="O147" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7389,33 +6503,27 @@
         <v>-13.36572742462158</v>
       </c>
       <c r="F148" t="n">
-        <v>755.7469035781284</v>
+        <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>30</v>
+        <v>8902.834994728437</v>
       </c>
       <c r="H148" t="n">
-        <v>30</v>
+        <v>-828.3984006665141</v>
       </c>
       <c r="I148" t="n">
-        <v>8902.834994728437</v>
+        <v>366.0229598944491</v>
       </c>
       <c r="J148" t="n">
-        <v>-828.3984006665141</v>
+        <v>-7.128797228495739</v>
       </c>
       <c r="K148" t="n">
-        <v>366.0229598944491</v>
+        <v>3.43895778908463</v>
       </c>
       <c r="L148" t="n">
-        <v>-7.128797228495739</v>
+        <v>-12.80467868968503</v>
       </c>
       <c r="M148" t="n">
-        <v>3.43895778908463</v>
-      </c>
-      <c r="N148" t="n">
-        <v>-12.80467868968503</v>
-      </c>
-      <c r="O148" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7436,33 +6544,27 @@
         <v>-11.86255073547363</v>
       </c>
       <c r="F149" t="n">
-        <v>766.6158001681381</v>
+        <v>21</v>
       </c>
       <c r="G149" t="n">
-        <v>22</v>
+        <v>9126.932811938652</v>
       </c>
       <c r="H149" t="n">
-        <v>21</v>
+        <v>-884.9119568086306</v>
       </c>
       <c r="I149" t="n">
-        <v>9126.932811938652</v>
+        <v>329.8301907110568</v>
       </c>
       <c r="J149" t="n">
-        <v>-884.9119568086306</v>
+        <v>-9.434114159497669</v>
       </c>
       <c r="K149" t="n">
-        <v>329.8301907110568</v>
+        <v>3.631085394989024</v>
       </c>
       <c r="L149" t="n">
-        <v>-9.434114159497669</v>
+        <v>-8.436444187217162</v>
       </c>
       <c r="M149" t="n">
-        <v>3.631085394989024</v>
-      </c>
-      <c r="N149" t="n">
-        <v>-8.436444187217162</v>
-      </c>
-      <c r="O149" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7483,33 +6585,27 @@
         <v>-12.48484516143799</v>
       </c>
       <c r="F150" t="n">
-        <v>753.6144685872782</v>
+        <v>27</v>
       </c>
       <c r="G150" t="n">
-        <v>28</v>
+        <v>9235.799632998804</v>
       </c>
       <c r="H150" t="n">
-        <v>27</v>
+        <v>-837.6705583653609</v>
       </c>
       <c r="I150" t="n">
-        <v>9235.799632998804</v>
+        <v>247.1780910594064</v>
       </c>
       <c r="J150" t="n">
-        <v>-837.6705583653609</v>
+        <v>-6.575806334022404</v>
       </c>
       <c r="K150" t="n">
-        <v>247.1780910594064</v>
+        <v>3.55982406859113</v>
       </c>
       <c r="L150" t="n">
-        <v>-6.575806334022404</v>
+        <v>-9.601348265387328</v>
       </c>
       <c r="M150" t="n">
-        <v>3.55982406859113</v>
-      </c>
-      <c r="N150" t="n">
-        <v>-9.601348265387328</v>
-      </c>
-      <c r="O150" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7530,33 +6626,27 @@
         <v>-13.27602672576904</v>
       </c>
       <c r="F151" t="n">
-        <v>791.9526312474098</v>
+        <v>29</v>
       </c>
       <c r="G151" t="n">
-        <v>29</v>
+        <v>10346.0803488901</v>
       </c>
       <c r="H151" t="n">
-        <v>29</v>
+        <v>-838.0903152884362</v>
       </c>
       <c r="I151" t="n">
-        <v>10346.0803488901</v>
+        <v>385.7773633428735</v>
       </c>
       <c r="J151" t="n">
-        <v>-838.0903152884362</v>
+        <v>-6.896158167861949</v>
       </c>
       <c r="K151" t="n">
-        <v>385.7773633428735</v>
+        <v>3.522719838095383</v>
       </c>
       <c r="L151" t="n">
-        <v>-6.896158167861949</v>
+        <v>-4.20143621320306</v>
       </c>
       <c r="M151" t="n">
-        <v>3.522719838095383</v>
-      </c>
-      <c r="N151" t="n">
-        <v>-4.20143621320306</v>
-      </c>
-      <c r="O151" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7577,33 +6667,27 @@
         <v>-11.81419658660889</v>
       </c>
       <c r="F152" t="n">
-        <v>770.8758360701516</v>
+        <v>24</v>
       </c>
       <c r="G152" t="n">
-        <v>24</v>
+        <v>9281.048832932644</v>
       </c>
       <c r="H152" t="n">
-        <v>24</v>
+        <v>-798.6242992769672</v>
       </c>
       <c r="I152" t="n">
-        <v>9281.048832932644</v>
+        <v>340.8316372608322</v>
       </c>
       <c r="J152" t="n">
-        <v>-798.6242992769672</v>
+        <v>-8.366742735863021</v>
       </c>
       <c r="K152" t="n">
-        <v>340.8316372608322</v>
+        <v>3.57228267876004</v>
       </c>
       <c r="L152" t="n">
-        <v>-8.366742735863021</v>
+        <v>-5.774819788748315</v>
       </c>
       <c r="M152" t="n">
-        <v>3.57228267876004</v>
-      </c>
-      <c r="N152" t="n">
-        <v>-5.774819788748315</v>
-      </c>
-      <c r="O152" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7624,33 +6708,27 @@
         <v>-12.14461517333984</v>
       </c>
       <c r="F153" t="n">
-        <v>741.4272562519503</v>
+        <v>27</v>
       </c>
       <c r="G153" t="n">
-        <v>28</v>
+        <v>8907.616564570693</v>
       </c>
       <c r="H153" t="n">
-        <v>27</v>
+        <v>-816.1792670475872</v>
       </c>
       <c r="I153" t="n">
-        <v>8907.616564570693</v>
+        <v>355.0230203937159</v>
       </c>
       <c r="J153" t="n">
-        <v>-816.1792670475872</v>
+        <v>-7.857786916706882</v>
       </c>
       <c r="K153" t="n">
-        <v>355.0230203937159</v>
+        <v>3.564561765787724</v>
       </c>
       <c r="L153" t="n">
-        <v>-7.857786916706882</v>
+        <v>-8.920319194375519</v>
       </c>
       <c r="M153" t="n">
-        <v>3.564561765787724</v>
-      </c>
-      <c r="N153" t="n">
-        <v>-8.920319194375519</v>
-      </c>
-      <c r="O153" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7671,33 +6749,27 @@
         <v>-13.01813983917236</v>
       </c>
       <c r="F154" t="n">
-        <v>755.6050210043743</v>
+        <v>24</v>
       </c>
       <c r="G154" t="n">
-        <v>25</v>
+        <v>8207.15084693105</v>
       </c>
       <c r="H154" t="n">
-        <v>24</v>
+        <v>-859.9718014118628</v>
       </c>
       <c r="I154" t="n">
-        <v>8207.15084693105</v>
+        <v>297.5481245701898</v>
       </c>
       <c r="J154" t="n">
-        <v>-859.9718014118628</v>
+        <v>-5.853924069442069</v>
       </c>
       <c r="K154" t="n">
-        <v>297.5481245701898</v>
+        <v>3.544713948248965</v>
       </c>
       <c r="L154" t="n">
-        <v>-5.853924069442069</v>
+        <v>-7.815028335266258</v>
       </c>
       <c r="M154" t="n">
-        <v>3.544713948248965</v>
-      </c>
-      <c r="N154" t="n">
-        <v>-7.815028335266258</v>
-      </c>
-      <c r="O154" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7718,33 +6790,27 @@
         <v>-12.36956596374512</v>
       </c>
       <c r="F155" t="n">
-        <v>761.0999880950582</v>
+        <v>29</v>
       </c>
       <c r="G155" t="n">
-        <v>30</v>
+        <v>7474.026932320747</v>
       </c>
       <c r="H155" t="n">
-        <v>29</v>
+        <v>-865.6377869969643</v>
       </c>
       <c r="I155" t="n">
-        <v>7474.026932320747</v>
+        <v>214.7911692261619</v>
       </c>
       <c r="J155" t="n">
-        <v>-865.6377869969643</v>
+        <v>-7.64707407750936</v>
       </c>
       <c r="K155" t="n">
-        <v>214.7911692261619</v>
+        <v>3.554998050961629</v>
       </c>
       <c r="L155" t="n">
-        <v>-7.64707407750936</v>
+        <v>-9.137491292735822</v>
       </c>
       <c r="M155" t="n">
-        <v>3.554998050961629</v>
-      </c>
-      <c r="N155" t="n">
-        <v>-9.137491292735822</v>
-      </c>
-      <c r="O155" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7765,33 +6831,27 @@
         <v>-12.05071067810059</v>
       </c>
       <c r="F156" t="n">
-        <v>760.302932700312</v>
+        <v>32</v>
       </c>
       <c r="G156" t="n">
-        <v>33</v>
+        <v>8234.858756436701</v>
       </c>
       <c r="H156" t="n">
-        <v>32</v>
+        <v>-859.2566639360734</v>
       </c>
       <c r="I156" t="n">
-        <v>8234.858756436701</v>
+        <v>306.3872463205747</v>
       </c>
       <c r="J156" t="n">
-        <v>-859.2566639360734</v>
+        <v>-5.985589876481171</v>
       </c>
       <c r="K156" t="n">
-        <v>306.3872463205747</v>
+        <v>3.557585732583936</v>
       </c>
       <c r="L156" t="n">
-        <v>-5.985589876481171</v>
+        <v>-6.671759366213571</v>
       </c>
       <c r="M156" t="n">
-        <v>3.557585732583936</v>
-      </c>
-      <c r="N156" t="n">
-        <v>-6.671759366213571</v>
-      </c>
-      <c r="O156" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7812,33 +6872,27 @@
         <v>-12.46767520904541</v>
       </c>
       <c r="F157" t="n">
-        <v>769.1876377668153</v>
+        <v>25</v>
       </c>
       <c r="G157" t="n">
-        <v>25</v>
+        <v>8911.12162552185</v>
       </c>
       <c r="H157" t="n">
-        <v>25</v>
+        <v>-833.7775073311072</v>
       </c>
       <c r="I157" t="n">
-        <v>8911.12162552185</v>
+        <v>350.3422469061564</v>
       </c>
       <c r="J157" t="n">
-        <v>-833.7775073311072</v>
+        <v>-8.682488954305343</v>
       </c>
       <c r="K157" t="n">
-        <v>350.3422469061564</v>
+        <v>3.574795838567679</v>
       </c>
       <c r="L157" t="n">
-        <v>-8.682488954305343</v>
+        <v>-6.832634618992779</v>
       </c>
       <c r="M157" t="n">
-        <v>3.574795838567679</v>
-      </c>
-      <c r="N157" t="n">
-        <v>-6.832634618992779</v>
-      </c>
-      <c r="O157" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7859,33 +6913,27 @@
         <v>-11.85028743743896</v>
       </c>
       <c r="F158" t="n">
-        <v>769.2665304000936</v>
+        <v>31</v>
       </c>
       <c r="G158" t="n">
-        <v>31</v>
+        <v>8114.426094702667</v>
       </c>
       <c r="H158" t="n">
-        <v>31</v>
+        <v>-826.2189821996471</v>
       </c>
       <c r="I158" t="n">
-        <v>8114.426094702667</v>
+        <v>324.3516208638504</v>
       </c>
       <c r="J158" t="n">
-        <v>-826.2189821996471</v>
+        <v>-11.14976281727388</v>
       </c>
       <c r="K158" t="n">
-        <v>324.3516208638504</v>
+        <v>3.570551225316792</v>
       </c>
       <c r="L158" t="n">
-        <v>-11.14976281727388</v>
+        <v>-6.533790415395282</v>
       </c>
       <c r="M158" t="n">
-        <v>3.570551225316792</v>
-      </c>
-      <c r="N158" t="n">
-        <v>-6.533790415395282</v>
-      </c>
-      <c r="O158" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7906,33 +6954,27 @@
         <v>-12.10502147674561</v>
       </c>
       <c r="F159" t="n">
-        <v>758.7447217114268</v>
+        <v>24</v>
       </c>
       <c r="G159" t="n">
-        <v>24</v>
+        <v>6733.32611951898</v>
       </c>
       <c r="H159" t="n">
-        <v>24</v>
+        <v>-844.3362197413808</v>
       </c>
       <c r="I159" t="n">
-        <v>6733.32611951898</v>
+        <v>241.9121112505725</v>
       </c>
       <c r="J159" t="n">
-        <v>-844.3362197413808</v>
+        <v>-7.942143601459704</v>
       </c>
       <c r="K159" t="n">
-        <v>241.9121112505725</v>
+        <v>3.533376000580967</v>
       </c>
       <c r="L159" t="n">
-        <v>-7.942143601459704</v>
+        <v>-6.946802260560331</v>
       </c>
       <c r="M159" t="n">
-        <v>3.533376000580967</v>
-      </c>
-      <c r="N159" t="n">
-        <v>-6.946802260560331</v>
-      </c>
-      <c r="O159" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7953,33 +6995,27 @@
         <v>-13.45893096923828</v>
       </c>
       <c r="F160" t="n">
-        <v>771.5189220984628</v>
+        <v>24</v>
       </c>
       <c r="G160" t="n">
-        <v>25</v>
+        <v>7783.367596411783</v>
       </c>
       <c r="H160" t="n">
-        <v>24</v>
+        <v>-864.1211327511794</v>
       </c>
       <c r="I160" t="n">
-        <v>7783.367596411783</v>
+        <v>250.9978215965066</v>
       </c>
       <c r="J160" t="n">
-        <v>-864.1211327511794</v>
+        <v>-15.19751979044465</v>
       </c>
       <c r="K160" t="n">
-        <v>250.9978215965066</v>
+        <v>3.527743173554046</v>
       </c>
       <c r="L160" t="n">
-        <v>-15.19751979044465</v>
+        <v>-6.861207315262318</v>
       </c>
       <c r="M160" t="n">
-        <v>3.527743173554046</v>
-      </c>
-      <c r="N160" t="n">
-        <v>-6.861207315262318</v>
-      </c>
-      <c r="O160" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8000,33 +7036,27 @@
         <v>-12.13690662384033</v>
       </c>
       <c r="F161" t="n">
-        <v>767.8109476925619</v>
+        <v>27</v>
       </c>
       <c r="G161" t="n">
-        <v>27</v>
+        <v>7611.673657534608</v>
       </c>
       <c r="H161" t="n">
-        <v>27</v>
+        <v>-888.2863960271792</v>
       </c>
       <c r="I161" t="n">
-        <v>7611.673657534608</v>
+        <v>286.9586783512833</v>
       </c>
       <c r="J161" t="n">
-        <v>-888.2863960271792</v>
+        <v>-10.06748283521856</v>
       </c>
       <c r="K161" t="n">
-        <v>286.9586783512833</v>
+        <v>3.554025528583221</v>
       </c>
       <c r="L161" t="n">
-        <v>-10.06748283521856</v>
+        <v>-12.67303265085766</v>
       </c>
       <c r="M161" t="n">
-        <v>3.554025528583221</v>
-      </c>
-      <c r="N161" t="n">
-        <v>-12.67303265085766</v>
-      </c>
-      <c r="O161" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8047,33 +7077,27 @@
         <v>-12.19717407226562</v>
       </c>
       <c r="F162" t="n">
-        <v>766.7881818735568</v>
+        <v>24</v>
       </c>
       <c r="G162" t="n">
-        <v>23</v>
+        <v>8526.866680041259</v>
       </c>
       <c r="H162" t="n">
-        <v>24</v>
+        <v>-850.8137074772601</v>
       </c>
       <c r="I162" t="n">
-        <v>8526.866680041259</v>
+        <v>279.2199206853464</v>
       </c>
       <c r="J162" t="n">
-        <v>-850.8137074772601</v>
+        <v>-6.783219574711183</v>
       </c>
       <c r="K162" t="n">
-        <v>279.2199206853464</v>
+        <v>3.513925763723548</v>
       </c>
       <c r="L162" t="n">
-        <v>-6.783219574711183</v>
+        <v>-8.522993387421364</v>
       </c>
       <c r="M162" t="n">
-        <v>3.513925763723548</v>
-      </c>
-      <c r="N162" t="n">
-        <v>-8.522993387421364</v>
-      </c>
-      <c r="O162" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8094,33 +7118,27 @@
         <v>-13.74344825744629</v>
       </c>
       <c r="F163" t="n">
-        <v>768.3836126620334</v>
+        <v>24</v>
       </c>
       <c r="G163" t="n">
-        <v>24</v>
+        <v>7422.23075311203</v>
       </c>
       <c r="H163" t="n">
-        <v>24</v>
+        <v>-858.0524338383066</v>
       </c>
       <c r="I163" t="n">
-        <v>7422.23075311203</v>
+        <v>289.5790050986201</v>
       </c>
       <c r="J163" t="n">
-        <v>-858.0524338383066</v>
+        <v>-8.789206840951461</v>
       </c>
       <c r="K163" t="n">
-        <v>289.5790050986201</v>
+        <v>3.453862412085241</v>
       </c>
       <c r="L163" t="n">
-        <v>-8.789206840951461</v>
+        <v>-5.433097071435554</v>
       </c>
       <c r="M163" t="n">
-        <v>3.453862412085241</v>
-      </c>
-      <c r="N163" t="n">
-        <v>-5.433097071435554</v>
-      </c>
-      <c r="O163" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8141,33 +7159,27 @@
         <v>-11.86710548400879</v>
       </c>
       <c r="F164" t="n">
-        <v>755.2208394495815</v>
+        <v>26</v>
       </c>
       <c r="G164" t="n">
-        <v>27</v>
+        <v>9563.85731048297</v>
       </c>
       <c r="H164" t="n">
-        <v>26</v>
+        <v>-824.5451255161865</v>
       </c>
       <c r="I164" t="n">
-        <v>9563.85731048297</v>
+        <v>393.922862108727</v>
       </c>
       <c r="J164" t="n">
-        <v>-824.5451255161865</v>
+        <v>-6.735333627586878</v>
       </c>
       <c r="K164" t="n">
-        <v>393.922862108727</v>
+        <v>3.54744054135383</v>
       </c>
       <c r="L164" t="n">
-        <v>-6.735333627586878</v>
+        <v>-7.717014203122401</v>
       </c>
       <c r="M164" t="n">
-        <v>3.54744054135383</v>
-      </c>
-      <c r="N164" t="n">
-        <v>-7.717014203122401</v>
-      </c>
-      <c r="O164" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8188,33 +7200,27 @@
         <v>-12.03424263000488</v>
       </c>
       <c r="F165" t="n">
-        <v>814.5209199796525</v>
+        <v>20</v>
       </c>
       <c r="G165" t="n">
-        <v>21</v>
+        <v>8604.571319146251</v>
       </c>
       <c r="H165" t="n">
-        <v>20</v>
+        <v>-869.7856265359487</v>
       </c>
       <c r="I165" t="n">
-        <v>8604.571319146251</v>
+        <v>244.4443953445665</v>
       </c>
       <c r="J165" t="n">
-        <v>-869.7856265359487</v>
+        <v>-6.11080882947476</v>
       </c>
       <c r="K165" t="n">
-        <v>244.4443953445665</v>
+        <v>3.521073952248673</v>
       </c>
       <c r="L165" t="n">
-        <v>-6.11080882947476</v>
+        <v>-10.49171661191854</v>
       </c>
       <c r="M165" t="n">
-        <v>3.521073952248673</v>
-      </c>
-      <c r="N165" t="n">
-        <v>-10.49171661191854</v>
-      </c>
-      <c r="O165" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8235,33 +7241,27 @@
         <v>-13.16425228118896</v>
       </c>
       <c r="F166" t="n">
-        <v>815.8665605657432</v>
+        <v>28</v>
       </c>
       <c r="G166" t="n">
-        <v>29</v>
+        <v>8152.552084303199</v>
       </c>
       <c r="H166" t="n">
-        <v>28</v>
+        <v>-829.7881875941116</v>
       </c>
       <c r="I166" t="n">
-        <v>8152.552084303199</v>
+        <v>268.2570642599227</v>
       </c>
       <c r="J166" t="n">
-        <v>-829.7881875941116</v>
+        <v>-7.657807831880856</v>
       </c>
       <c r="K166" t="n">
-        <v>268.2570642599227</v>
+        <v>3.3869399721844</v>
       </c>
       <c r="L166" t="n">
-        <v>-7.657807831880856</v>
+        <v>-4.255743776958903</v>
       </c>
       <c r="M166" t="n">
-        <v>3.3869399721844</v>
-      </c>
-      <c r="N166" t="n">
-        <v>-4.255743776958903</v>
-      </c>
-      <c r="O166" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8282,33 +7282,27 @@
         <v>-12.253586769104</v>
       </c>
       <c r="F167" t="n">
-        <v>814.3673475414588</v>
+        <v>24</v>
       </c>
       <c r="G167" t="n">
-        <v>25</v>
+        <v>11151.60354927137</v>
       </c>
       <c r="H167" t="n">
-        <v>24</v>
+        <v>-822.3096020718081</v>
       </c>
       <c r="I167" t="n">
-        <v>11151.60354927137</v>
+        <v>429.2986390905282</v>
       </c>
       <c r="J167" t="n">
-        <v>-822.3096020718081</v>
+        <v>-11.45349994325447</v>
       </c>
       <c r="K167" t="n">
-        <v>429.2986390905282</v>
+        <v>3.578811066158938</v>
       </c>
       <c r="L167" t="n">
-        <v>-11.45349994325447</v>
+        <v>-7.281563634502528</v>
       </c>
       <c r="M167" t="n">
-        <v>3.578811066158938</v>
-      </c>
-      <c r="N167" t="n">
-        <v>-7.281563634502528</v>
-      </c>
-      <c r="O167" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8329,33 +7323,27 @@
         <v>-12.47923851013184</v>
       </c>
       <c r="F168" t="n">
-        <v>858.4717896729314</v>
+        <v>29</v>
       </c>
       <c r="G168" t="n">
-        <v>30</v>
+        <v>11980.34341160116</v>
       </c>
       <c r="H168" t="n">
-        <v>29</v>
+        <v>-870.5962275274935</v>
       </c>
       <c r="I168" t="n">
-        <v>11980.34341160116</v>
+        <v>417.7679571418156</v>
       </c>
       <c r="J168" t="n">
-        <v>-870.5962275274935</v>
+        <v>-11.67236317693213</v>
       </c>
       <c r="K168" t="n">
-        <v>417.7679571418156</v>
+        <v>3.536972832754524</v>
       </c>
       <c r="L168" t="n">
-        <v>-11.67236317693213</v>
+        <v>-7.148166025696872</v>
       </c>
       <c r="M168" t="n">
-        <v>3.536972832754524</v>
-      </c>
-      <c r="N168" t="n">
-        <v>-7.148166025696872</v>
-      </c>
-      <c r="O168" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8376,33 +7364,27 @@
         <v>-13.26831817626953</v>
       </c>
       <c r="F169" t="n">
-        <v>858.0691235811014</v>
+        <v>30</v>
       </c>
       <c r="G169" t="n">
-        <v>30</v>
+        <v>12085.12335184849</v>
       </c>
       <c r="H169" t="n">
-        <v>30</v>
+        <v>-805.0073518192594</v>
       </c>
       <c r="I169" t="n">
-        <v>12085.12335184849</v>
+        <v>309.1148163563334</v>
       </c>
       <c r="J169" t="n">
-        <v>-805.0073518192594</v>
+        <v>-10.27817506211147</v>
       </c>
       <c r="K169" t="n">
-        <v>309.1148163563334</v>
+        <v>3.468043523696341</v>
       </c>
       <c r="L169" t="n">
-        <v>-10.27817506211147</v>
+        <v>-7.718683029758784</v>
       </c>
       <c r="M169" t="n">
-        <v>3.468043523696341</v>
-      </c>
-      <c r="N169" t="n">
-        <v>-7.718683029758784</v>
-      </c>
-      <c r="O169" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8423,33 +7405,27 @@
         <v>-11.81314563751221</v>
       </c>
       <c r="F170" t="n">
-        <v>961.4715209524569</v>
+        <v>22</v>
       </c>
       <c r="G170" t="n">
-        <v>22</v>
+        <v>15174.07102997303</v>
       </c>
       <c r="H170" t="n">
-        <v>22</v>
+        <v>-866.8052995504913</v>
       </c>
       <c r="I170" t="n">
-        <v>15174.07102997303</v>
+        <v>474.2475352220682</v>
       </c>
       <c r="J170" t="n">
-        <v>-866.8052995504913</v>
+        <v>-14.98789702933528</v>
       </c>
       <c r="K170" t="n">
-        <v>474.2475352220682</v>
+        <v>3.569970828437079</v>
       </c>
       <c r="L170" t="n">
-        <v>-14.98789702933528</v>
+        <v>-6.646838658757838</v>
       </c>
       <c r="M170" t="n">
-        <v>3.569970828437079</v>
-      </c>
-      <c r="N170" t="n">
-        <v>-6.646838658757838</v>
-      </c>
-      <c r="O170" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8470,33 +7446,27 @@
         <v>-11.99079418182373</v>
       </c>
       <c r="F171" t="n">
-        <v>946.8978186779284</v>
+        <v>28</v>
       </c>
       <c r="G171" t="n">
-        <v>28</v>
+        <v>14107.88928796345</v>
       </c>
       <c r="H171" t="n">
-        <v>28</v>
+        <v>-888.8574917500852</v>
       </c>
       <c r="I171" t="n">
-        <v>14107.88928796345</v>
+        <v>565.0274226747428</v>
       </c>
       <c r="J171" t="n">
-        <v>-888.8574917500852</v>
+        <v>-11.10218025634449</v>
       </c>
       <c r="K171" t="n">
-        <v>565.0274226747428</v>
+        <v>3.525379020877358</v>
       </c>
       <c r="L171" t="n">
-        <v>-11.10218025634449</v>
+        <v>-4.34307382915257</v>
       </c>
       <c r="M171" t="n">
-        <v>3.525379020877358</v>
-      </c>
-      <c r="N171" t="n">
-        <v>-4.34307382915257</v>
-      </c>
-      <c r="O171" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8517,33 +7487,27 @@
         <v>-13.57841396331787</v>
       </c>
       <c r="F172" t="n">
-        <v>941.8347916482809</v>
+        <v>27</v>
       </c>
       <c r="G172" t="n">
-        <v>27</v>
+        <v>14665.79861544622</v>
       </c>
       <c r="H172" t="n">
-        <v>27</v>
+        <v>-919.4225782860733</v>
       </c>
       <c r="I172" t="n">
-        <v>14665.79861544622</v>
+        <v>571.9411042509487</v>
       </c>
       <c r="J172" t="n">
-        <v>-919.4225782860733</v>
+        <v>-8.080828687922828</v>
       </c>
       <c r="K172" t="n">
-        <v>571.9411042509487</v>
+        <v>3.494605736363067</v>
       </c>
       <c r="L172" t="n">
-        <v>-8.080828687922828</v>
+        <v>-5.778251848035049</v>
       </c>
       <c r="M172" t="n">
-        <v>3.494605736363067</v>
-      </c>
-      <c r="N172" t="n">
-        <v>-5.778251848035049</v>
-      </c>
-      <c r="O172" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8564,33 +7528,27 @@
         <v>-11.77320098876953</v>
       </c>
       <c r="F173" t="n">
-        <v>926.9591652599205</v>
+        <v>30</v>
       </c>
       <c r="G173" t="n">
-        <v>31</v>
+        <v>8414.348330600653</v>
       </c>
       <c r="H173" t="n">
-        <v>30</v>
+        <v>-842.5036557869073</v>
       </c>
       <c r="I173" t="n">
-        <v>8414.348330600653</v>
+        <v>300.5105312694029</v>
       </c>
       <c r="J173" t="n">
-        <v>-842.5036557869073</v>
+        <v>-8.667022336869705</v>
       </c>
       <c r="K173" t="n">
-        <v>300.5105312694029</v>
+        <v>3.555665458680777</v>
       </c>
       <c r="L173" t="n">
-        <v>-8.667022336869705</v>
+        <v>-5.890864269476108</v>
       </c>
       <c r="M173" t="n">
-        <v>3.555665458680777</v>
-      </c>
-      <c r="N173" t="n">
-        <v>-5.890864269476108</v>
-      </c>
-      <c r="O173" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8611,33 +7569,27 @@
         <v>-12.18771362304688</v>
       </c>
       <c r="F174" t="n">
-        <v>963.9032383156278</v>
+        <v>27</v>
       </c>
       <c r="G174" t="n">
-        <v>27</v>
+        <v>15247.12456537997</v>
       </c>
       <c r="H174" t="n">
-        <v>27</v>
+        <v>-872.9816638752818</v>
       </c>
       <c r="I174" t="n">
-        <v>15247.12456537997</v>
+        <v>585.4935006734806</v>
       </c>
       <c r="J174" t="n">
-        <v>-872.9816638752818</v>
+        <v>-12.46143304646834</v>
       </c>
       <c r="K174" t="n">
-        <v>585.4935006734806</v>
+        <v>3.543539132105265</v>
       </c>
       <c r="L174" t="n">
-        <v>-12.46143304646834</v>
+        <v>-10.15419681079073</v>
       </c>
       <c r="M174" t="n">
-        <v>3.543539132105265</v>
-      </c>
-      <c r="N174" t="n">
-        <v>-10.15419681079073</v>
-      </c>
-      <c r="O174" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8658,33 +7610,27 @@
         <v>-12.69262599945068</v>
       </c>
       <c r="F175" t="n">
-        <v>940.0986048828197</v>
+        <v>28</v>
       </c>
       <c r="G175" t="n">
-        <v>28</v>
+        <v>14877.9793975474</v>
       </c>
       <c r="H175" t="n">
-        <v>28</v>
+        <v>-849.5968174273853</v>
       </c>
       <c r="I175" t="n">
-        <v>14877.9793975474</v>
+        <v>614.2870269947377</v>
       </c>
       <c r="J175" t="n">
-        <v>-849.5968174273853</v>
+        <v>-12.17991329569593</v>
       </c>
       <c r="K175" t="n">
-        <v>614.2870269947377</v>
+        <v>3.535816284866524</v>
       </c>
       <c r="L175" t="n">
-        <v>-12.17991329569593</v>
+        <v>-7.508132691246451</v>
       </c>
       <c r="M175" t="n">
-        <v>3.535816284866524</v>
-      </c>
-      <c r="N175" t="n">
-        <v>-7.508132691246451</v>
-      </c>
-      <c r="O175" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8705,33 +7651,27 @@
         <v>-12.50761985778809</v>
       </c>
       <c r="F176" t="n">
-        <v>942.0997653837095</v>
+        <v>31</v>
       </c>
       <c r="G176" t="n">
-        <v>31</v>
+        <v>14948.75443460032</v>
       </c>
       <c r="H176" t="n">
-        <v>31</v>
+        <v>-840.4276884043163</v>
       </c>
       <c r="I176" t="n">
-        <v>14948.75443460032</v>
+        <v>545.695032655156</v>
       </c>
       <c r="J176" t="n">
-        <v>-840.4276884043163</v>
+        <v>-14.66434410780941</v>
       </c>
       <c r="K176" t="n">
-        <v>545.695032655156</v>
+        <v>3.551434175656291</v>
       </c>
       <c r="L176" t="n">
-        <v>-14.66434410780941</v>
+        <v>-5.919603261237189</v>
       </c>
       <c r="M176" t="n">
-        <v>3.551434175656291</v>
-      </c>
-      <c r="N176" t="n">
-        <v>-5.919603261237189</v>
-      </c>
-      <c r="O176" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8752,33 +7692,27 @@
         <v>-12.63796520233154</v>
       </c>
       <c r="F177" t="n">
-        <v>944.3781085248627</v>
+        <v>29</v>
       </c>
       <c r="G177" t="n">
-        <v>30</v>
+        <v>13606.40789604501</v>
       </c>
       <c r="H177" t="n">
-        <v>29</v>
+        <v>-875.9334837705948</v>
       </c>
       <c r="I177" t="n">
-        <v>13606.40789604501</v>
+        <v>440.404293301675</v>
       </c>
       <c r="J177" t="n">
-        <v>-875.9334837705948</v>
+        <v>-7.763465668275874</v>
       </c>
       <c r="K177" t="n">
-        <v>440.404293301675</v>
+        <v>3.528138735666943</v>
       </c>
       <c r="L177" t="n">
-        <v>-7.763465668275874</v>
+        <v>-6.951026950294681</v>
       </c>
       <c r="M177" t="n">
-        <v>3.528138735666943</v>
-      </c>
-      <c r="N177" t="n">
-        <v>-6.951026950294681</v>
-      </c>
-      <c r="O177" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8799,33 +7733,27 @@
         <v>-11.90109348297119</v>
       </c>
       <c r="F178" t="n">
-        <v>922.7412318579527</v>
+        <v>31</v>
       </c>
       <c r="G178" t="n">
-        <v>30</v>
+        <v>13818.15020725205</v>
       </c>
       <c r="H178" t="n">
-        <v>31</v>
+        <v>-831.6832166652248</v>
       </c>
       <c r="I178" t="n">
-        <v>13818.15020725205</v>
+        <v>530.2993952325123</v>
       </c>
       <c r="J178" t="n">
-        <v>-831.6832166652248</v>
+        <v>-11.9000541900568</v>
       </c>
       <c r="K178" t="n">
-        <v>530.2993952325123</v>
+        <v>3.56379863339377</v>
       </c>
       <c r="L178" t="n">
-        <v>-11.9000541900568</v>
+        <v>-5.066654243226649</v>
       </c>
       <c r="M178" t="n">
-        <v>3.56379863339377</v>
-      </c>
-      <c r="N178" t="n">
-        <v>-5.066654243226649</v>
-      </c>
-      <c r="O178" t="n">
         <v>300</v>
       </c>
     </row>

--- a/Korrelation/DOE2_features_reduced_features.xlsx
+++ b/Korrelation/DOE2_features_reduced_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>signal_energy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>global_maxima</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>global_minima</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>minima_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
@@ -511,33 +516,36 @@
         <v>499.3834602522287</v>
       </c>
       <c r="D2" t="n">
+        <v>3979237.546282795</v>
+      </c>
+      <c r="E2" t="n">
         <v>348.5066833496094</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-12.51357650756836</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8763.272700517256</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-851.8818012497936</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>267.4665407192271</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-6.642470533199469</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3.650691982844232</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-13.96977494918673</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -552,33 +560,36 @@
         <v>512.8641824871</v>
       </c>
       <c r="D3" t="n">
+        <v>3872492.588225823</v>
+      </c>
+      <c r="E3" t="n">
         <v>346.0928344726562</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-11.48237705230713</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8198.752635243722</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-864.4946424851287</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>168.846826059785</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-4.084430922082472</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3.621845981142731</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-14.44173495756528</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -593,33 +604,36 @@
         <v>496.7008829411938</v>
       </c>
       <c r="D4" t="n">
+        <v>3932076.867796993</v>
+      </c>
+      <c r="E4" t="n">
         <v>345.6765747070312</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-11.80859088897705</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>23</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8564.332685610021</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-856.0616319628148</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>323.8859487683093</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-6.049243688316164</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3.642235441330973</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-10.94479215966778</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -634,33 +648,36 @@
         <v>499.456320434214</v>
       </c>
       <c r="D5" t="n">
+        <v>3915932.046583076</v>
+      </c>
+      <c r="E5" t="n">
         <v>348.4383544921875</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-13.02900123596191</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7114.380702775554</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-1260.636555188319</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>258.5960809649355</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-9.500590205390456</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3.681940361171194</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>-19.11206905706532</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -675,33 +692,36 @@
         <v>508.3451178425571</v>
       </c>
       <c r="D6" t="n">
+        <v>4124773.359895894</v>
+      </c>
+      <c r="E6" t="n">
         <v>343.7697448730469</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-11.56051349639893</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>22</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>8699.308725925765</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-841.5537744627829</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>270.0543976451958</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>-9.332547096777994</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.651835755080313</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-12.40769799321375</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -716,33 +736,36 @@
         <v>500.9658576543261</v>
       </c>
       <c r="D7" t="n">
+        <v>4012298.500148913</v>
+      </c>
+      <c r="E7" t="n">
         <v>349.5340270996094</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-12.30334186553955</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>26</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>8960.662052828055</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-857.6895109319196</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>269.2522607761431</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-9.513055781880913</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>3.683419169639217</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>-8.854906825537356</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -757,33 +780,36 @@
         <v>510.0441566816122</v>
       </c>
       <c r="D8" t="n">
+        <v>4065419.678770947</v>
+      </c>
+      <c r="E8" t="n">
         <v>351.390380859375</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-12.56788730621338</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>26</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>8973.245193916879</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-824.6238248202205</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>317.1478791008322</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-7.213521510923938</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3.615788847773181</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>-9.872512147066679</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -798,33 +824,36 @@
         <v>514.0167921744837</v>
       </c>
       <c r="D9" t="n">
+        <v>4076720.784532772</v>
+      </c>
+      <c r="E9" t="n">
         <v>348.2393188476562</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-11.97397518157959</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>23</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>8343.420123958898</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-856.4469012882214</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>333.8170601439424</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>-8.671630773158542</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>3.681849526903629</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>-11.95213335622883</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -839,33 +868,36 @@
         <v>516.1400366113097</v>
       </c>
       <c r="D10" t="n">
+        <v>3824085.918443314</v>
+      </c>
+      <c r="E10" t="n">
         <v>342.9004211425781</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-11.32680320739746</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>22</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>8275.073961739034</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-849.0769045404768</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>179.3489144888887</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>-5.817521065228659</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>3.687080669831222</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>-9.900342766744563</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -880,33 +912,36 @@
         <v>497.7185059953937</v>
       </c>
       <c r="D11" t="n">
+        <v>3939738.14200369</v>
+      </c>
+      <c r="E11" t="n">
         <v>343.6047058105469</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-12.95016384124756</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>24</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>8161.713165347614</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-845.5384514954403</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>299.4802181035957</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>-9.230204200631787</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>3.535858674413475</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>-15.25555563538972</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -921,33 +956,36 @@
         <v>510.3681460541234</v>
       </c>
       <c r="D12" t="n">
+        <v>4002862.577688799</v>
+      </c>
+      <c r="E12" t="n">
         <v>346.4740600585938</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-11.27669715881348</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>8510.642174952796</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-851.9307028732565</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>328.8815687578856</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>-10.08437613973075</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>3.678525297158354</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>-9.172535376823088</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -962,33 +1000,36 @@
         <v>501.7853034588129</v>
       </c>
       <c r="D13" t="n">
+        <v>3781812.650496369</v>
+      </c>
+      <c r="E13" t="n">
         <v>342.5437316894531</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-12.21994972229004</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>24</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>6354.71321507303</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-870.6818618656773</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>126.6649130277487</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>-5.006397148766629</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>3.654049745679222</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>-14.306803792029</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1003,33 +1044,36 @@
         <v>503.986664964356</v>
       </c>
       <c r="D14" t="n">
+        <v>3858973.731715114</v>
+      </c>
+      <c r="E14" t="n">
         <v>349.5431213378906</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-13.2402868270874</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>26</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>8309.349106303165</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-823.1730296125938</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>227.4547455321415</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>-4.671383277763046</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>3.567155485532448</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>-11.15769002124251</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1044,33 +1088,36 @@
         <v>503.9452454951949</v>
       </c>
       <c r="D15" t="n">
+        <v>4096357.899403818</v>
+      </c>
+      <c r="E15" t="n">
         <v>344.8727722167969</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-11.377610206604</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>21</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>9470.64001029206</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-1063.011189173723</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>354.2353780293042</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>-6.645572990490842</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>3.662358699993515</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>-19.22737665224279</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1085,33 +1132,36 @@
         <v>507.9329080481695</v>
       </c>
       <c r="D16" t="n">
+        <v>3953496.377451318</v>
+      </c>
+      <c r="E16" t="n">
         <v>342.1316528320312</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-12.22100067138672</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>25</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>8182.859121760152</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-852.5733378954371</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>252.5273679587022</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>-7.978123674184419</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>3.69202382763983</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>-10.68321211498335</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1126,33 +1176,36 @@
         <v>493.7409897550869</v>
       </c>
       <c r="D17" t="n">
+        <v>4112860.488424434</v>
+      </c>
+      <c r="E17" t="n">
         <v>346.7582397460938</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-12.95436859130859</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>8956.965554099323</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-819.747814776845</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>322.6813778772677</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>-6.748131504861309</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>3.61070101157187</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>-15.33342027827259</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1167,33 +1220,36 @@
         <v>506.8636068616153</v>
       </c>
       <c r="D18" t="n">
+        <v>4048113.658213144</v>
+      </c>
+      <c r="E18" t="n">
         <v>345.7024841308594</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-11.57978534698486</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>8450.377691702934</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-842.853073158398</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>320.1231508777573</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>-8.313941439093176</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>3.673632622269664</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>-8.129910412882023</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1208,33 +1264,36 @@
         <v>497.4459448920609</v>
       </c>
       <c r="D19" t="n">
+        <v>3885859.358141343</v>
+      </c>
+      <c r="E19" t="n">
         <v>341.0125122070312</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-12.03319072723389</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>23</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>8340.093071505427</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-815.1508857985027</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>362.9141650241227</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>-8.46141077641995</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>3.667947437098015</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>-8.257819406821623</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1249,33 +1308,36 @@
         <v>503.7584814311321</v>
       </c>
       <c r="D20" t="n">
+        <v>4057595.902878446</v>
+      </c>
+      <c r="E20" t="n">
         <v>344.2680053710938</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-11.86570453643799</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>27</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>7999.00675978871</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-842.727875231808</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>263.6101511633374</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>-8.50491063723878</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>3.67527562912406</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>-12.29352449026777</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1290,33 +1352,36 @@
         <v>490.2087520716778</v>
       </c>
       <c r="D21" t="n">
+        <v>3709193.781924688</v>
+      </c>
+      <c r="E21" t="n">
         <v>339.245849609375</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-12.04195117950439</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>6509.507121103804</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-1523.848019198157</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>227.7396937812805</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>-4.937419059860038</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>3.618735435548155</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>-25.42011651910399</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1331,33 +1396,36 @@
         <v>494.0090647249968</v>
       </c>
       <c r="D22" t="n">
+        <v>3862426.479987925</v>
+      </c>
+      <c r="E22" t="n">
         <v>346.4337768554688</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-11.93473148345947</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>25</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>8558.289200656935</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-859.888677112594</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>251.4361468622566</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>-8.174114407144959</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>3.667825975647876</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>-14.33058890291828</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1372,33 +1440,36 @@
         <v>480.0416932680964</v>
       </c>
       <c r="D23" t="n">
+        <v>3863626.515413998</v>
+      </c>
+      <c r="E23" t="n">
         <v>342.9585876464844</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-13.12991428375244</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>27</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>9442.071524038058</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-826.6459808070147</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>307.9772240556566</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>-4.86360845314748</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>3.61603888877932</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>-8.113308319107331</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1413,33 +1484,36 @@
         <v>493.2624111060764</v>
       </c>
       <c r="D24" t="n">
+        <v>3873746.443484444</v>
+      </c>
+      <c r="E24" t="n">
         <v>347.15380859375</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-12.03739547729492</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>26</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>9654.157488818788</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-869.4809251004252</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>243.1027513945306</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>-4.868671804015016</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>3.629291494249401</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>-13.71272035131037</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1454,33 +1528,36 @@
         <v>498.8632507733939</v>
       </c>
       <c r="D25" t="n">
+        <v>3978559.341741156</v>
+      </c>
+      <c r="E25" t="n">
         <v>344.2935791015625</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>-11.76163768768311</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>23</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>8245.855654382556</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-861.6113089932119</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>251.2223848439261</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>-6.291604988803702</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>3.656479298569905</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>-9.209412538539238</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1495,33 +1572,36 @@
         <v>486.403939171278</v>
       </c>
       <c r="D26" t="n">
+        <v>3994872.627991015</v>
+      </c>
+      <c r="E26" t="n">
         <v>342.4364929199219</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>-13.38675022125244</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>8384.129555941196</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-1489.625108076286</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>301.9165491587858</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>-7.924943066856589</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>3.600752992226957</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>-25.51103993943071</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1536,33 +1616,36 @@
         <v>518.4915686616063</v>
       </c>
       <c r="D27" t="n">
+        <v>5095335.036606299</v>
+      </c>
+      <c r="E27" t="n">
         <v>437.1888427734375</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-11.78301239013672</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>22</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>12884.1964024039</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-904.3375335376247</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>466.4906826352217</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>-7.305611467111946</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>3.674483288549808</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>-16.12869126284002</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1577,33 +1660,36 @@
         <v>512.5497405923237</v>
       </c>
       <c r="D28" t="n">
+        <v>5293728.076767603</v>
+      </c>
+      <c r="E28" t="n">
         <v>445.021484375</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-12.11202907562256</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>25</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>14253.57010294373</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>-1216.685679889346</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>523.2851494285026</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-8.433729840921238</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>3.64596611556457</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>-18.61547646508891</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1618,33 +1704,36 @@
         <v>507.3535337621927</v>
       </c>
       <c r="D29" t="n">
+        <v>5005344.220397058</v>
+      </c>
+      <c r="E29" t="n">
         <v>434.1979064941406</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>-13.43580532073975</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>21</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>13842.08355559507</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-853.32111492433</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>515.3269000136233</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>-7.627347655966926</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>3.562958736486952</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>-11.33342780338499</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1659,33 +1748,36 @@
         <v>524.58927447937</v>
       </c>
       <c r="D30" t="n">
+        <v>4860481.63198858</v>
+      </c>
+      <c r="E30" t="n">
         <v>436.1012268066406</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-11.46976280212402</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>24</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>10408.67622776553</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>-830.0295513456547</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>359.3184197439523</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>-6.205904010198129</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>3.661200876517171</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>-11.32367023952095</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1700,33 +1792,36 @@
         <v>520.0904594024479</v>
       </c>
       <c r="D31" t="n">
+        <v>4930805.216388224</v>
+      </c>
+      <c r="E31" t="n">
         <v>430.6522827148438</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-11.61097049713135</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>25</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>13305.57103911321</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>-840.5697067225146</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>392.0689330044219</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>-8.226705433994653</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>3.693936496553483</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>-10.54334720428378</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1741,33 +1836,36 @@
         <v>513.6993052780718</v>
       </c>
       <c r="D32" t="n">
+        <v>4906887.951582462</v>
+      </c>
+      <c r="E32" t="n">
         <v>434.6236267089844</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-12.79318904876709</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>21</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>13815.43625887935</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>-907.6854189493937</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>531.1022383979772</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>-6.611031066183592</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>3.585301895071651</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>-9.194336519272541</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1782,33 +1880,36 @@
         <v>505.124414338988</v>
       </c>
       <c r="D33" t="n">
+        <v>5048646.301152471</v>
+      </c>
+      <c r="E33" t="n">
         <v>437.8272399902344</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-11.92176628112793</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>22</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>12899.97549008364</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>-901.186208079125</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>330.5164396127092</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>-6.690951641336023</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>3.655253196516403</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>-9.808044081982105</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1823,33 +1924,36 @@
         <v>519.8943799581007</v>
       </c>
       <c r="D34" t="n">
+        <v>5162516.105364647</v>
+      </c>
+      <c r="E34" t="n">
         <v>441.7123718261719</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-12.00936412811279</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>22</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>14338.61247222452</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-888.4222717019262</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>547.2428315651265</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>-9.646969730339084</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>3.681136589036932</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>-9.196476997765972</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1864,33 +1968,36 @@
         <v>511.8791128055307</v>
       </c>
       <c r="D35" t="n">
+        <v>5021297.541923453</v>
+      </c>
+      <c r="E35" t="n">
         <v>432.5661315917969</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-12.92458534240723</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>24</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>13148.77618283678</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>-855.0824058022226</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>550.1430267792715</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>-9.579680502450822</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>3.648946733275062</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>-10.66028388341531</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1905,33 +2012,36 @@
         <v>530.4291209439843</v>
       </c>
       <c r="D36" t="n">
+        <v>5088638.014167925</v>
+      </c>
+      <c r="E36" t="n">
         <v>443.0834655761719</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-11.711181640625</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>21</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>9244.431790844872</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>-876.8981735702373</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>384.5136906088264</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>-7.234483353187781</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>3.698344075917921</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>-9.45128820619316</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1946,33 +2056,36 @@
         <v>523.8852440558339</v>
       </c>
       <c r="D37" t="n">
+        <v>5042061.594646659</v>
+      </c>
+      <c r="E37" t="n">
         <v>439.9621887207031</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-11.77460289001465</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>24</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>14370.87923836797</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>-866.8213854995104</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>536.7534724462957</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>-7.145633550407847</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>3.639967842919351</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>-11.62064911940915</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1987,33 +2100,36 @@
         <v>512.5555159617617</v>
       </c>
       <c r="D38" t="n">
+        <v>5098618.076032325</v>
+      </c>
+      <c r="E38" t="n">
         <v>436.7410278320312</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-12.79388904571533</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>21</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>9684.400399464008</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>-856.0259526954155</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>411.0986545640834</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>-7.494226316033822</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>3.65141626589664</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>-11.52343771884522</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2028,33 +2144,36 @@
         <v>526.9857891688148</v>
       </c>
       <c r="D39" t="n">
+        <v>5045456.387274166</v>
+      </c>
+      <c r="E39" t="n">
         <v>437.5269470214844</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>-11.65546989440918</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>22</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>13984.67572999715</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-1046.929589100145</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>515.4379745071384</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>-6.844638871707101</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>3.673414546960326</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>-17.5076843335414</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2069,33 +2188,36 @@
         <v>510.2334075639137</v>
       </c>
       <c r="D40" t="n">
+        <v>5311288.002312638</v>
+      </c>
+      <c r="E40" t="n">
         <v>441.6083068847656</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-12.23256301879883</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>13191.73474522827</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>-1048.42405044254</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>516.6027123880217</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>-8.17036084475496</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>3.658801012555135</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>-16.92749604288219</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2110,33 +2232,36 @@
         <v>529.6607907399906</v>
       </c>
       <c r="D41" t="n">
+        <v>4890383.227747351</v>
+      </c>
+      <c r="E41" t="n">
         <v>433.22802734375</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>-11.77460289001465</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>24</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>13754.08779642542</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>-809.9688909342656</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>492.6889924406782</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>-6.244783977232022</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>3.683847773039003</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>-11.2992880841045</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2151,33 +2276,36 @@
         <v>485.2363567943504</v>
       </c>
       <c r="D42" t="n">
+        <v>5078909.093580908</v>
+      </c>
+      <c r="E42" t="n">
         <v>449.4619750976562</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>-12.89830589294434</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>25</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>11184.69589989291</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-866.9983829606831</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>394.9582181915106</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>-7.905798902617158</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>3.616768961971482</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>-13.86901337411022</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2192,33 +2320,36 @@
         <v>504.9187129882845</v>
       </c>
       <c r="D43" t="n">
+        <v>5431365.965995716</v>
+      </c>
+      <c r="E43" t="n">
         <v>449.7850341796875</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>-11.58293914794922</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>26</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>15240.60513234784</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>-1334.582653722447</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>492.7922810534984</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>-7.648686726013919</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>3.627359003905156</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>-21.77036919508694</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2233,33 +2364,36 @@
         <v>497.8239600054233</v>
       </c>
       <c r="D44" t="n">
+        <v>4812938.916712813</v>
+      </c>
+      <c r="E44" t="n">
         <v>441.7775573730469</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-11.92281818389893</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>25</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>13776.09818379642</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>-861.1096669665321</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>540.2205726994732</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>-8.246464617670267</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>3.632991946558553</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>-8.187089522287041</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2274,33 +2408,36 @@
         <v>485.8185922934032</v>
       </c>
       <c r="D45" t="n">
+        <v>5164388.880358539</v>
+      </c>
+      <c r="E45" t="n">
         <v>442.3784790039062</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-13.24974822998047</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>13340.97756514288</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-1278.344782450409</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>585.1076307237448</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>-11.27291725332527</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>3.598924403544998</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>-20.89502780607805</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2315,33 +2452,36 @@
         <v>490.2196783453701</v>
       </c>
       <c r="D46" t="n">
+        <v>4927065.923408548</v>
+      </c>
+      <c r="E46" t="n">
         <v>434.7329406738281</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>-12.02688407897949</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>30</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>13890.88906796857</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>-836.9728077140612</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>584.7142605348756</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>-6.76329767429364</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>3.628076068292593</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>-7.477169070779717</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2356,33 +2496,36 @@
         <v>531.3473167523612</v>
       </c>
       <c r="D47" t="n">
+        <v>4702340.841094115</v>
+      </c>
+      <c r="E47" t="n">
         <v>357.822509765625</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>-11.82260608673096</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>24</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>7263.335317543071</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>-877.076167259107</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>286.3146438715427</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>-7.74963710489654</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>3.60314466077097</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>-13.14091700308204</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2397,33 +2540,36 @@
         <v>531.6606561861415</v>
       </c>
       <c r="D48" t="n">
+        <v>4898029.414320003</v>
+      </c>
+      <c r="E48" t="n">
         <v>361.7419738769531</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>-13.31281852722168</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>24</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>8320.605278122905</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>-900.8052942547488</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>313.0801477187783</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>-9.786738046956271</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>3.532519460904277</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>-9.631689203121546</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2438,33 +2584,36 @@
         <v>544.930956560126</v>
       </c>
       <c r="D49" t="n">
+        <v>4851070.549809865</v>
+      </c>
+      <c r="E49" t="n">
         <v>363.3975830078125</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-11.57242679595947</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>27</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>8208.316062665743</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>-878.7214244691636</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>298.9016272820882</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>-11.94846412820433</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>3.585386677169892</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>-7.568429913645461</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2479,33 +2628,36 @@
         <v>534.9554040115556</v>
       </c>
       <c r="D50" t="n">
+        <v>4788093.587687407</v>
+      </c>
+      <c r="E50" t="n">
         <v>365.1043395996094</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>-11.91616058349609</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>23</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>8841.986998574213</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>-879.1399025088394</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>363.7139461401939</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>-10.28717787080858</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>3.636572226022393</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>-5.735406450665171</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2520,33 +2672,36 @@
         <v>516.7415119800423</v>
       </c>
       <c r="D51" t="n">
+        <v>4744857.543293536</v>
+      </c>
+      <c r="E51" t="n">
         <v>363.3656921386719</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-13.31877517700195</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>8720.14498598289</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>-928.8837188637953</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>332.7237827633671</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>-12.50482857627238</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>3.487403793595102</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>-8.644779130605553</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2561,33 +2716,36 @@
         <v>544.819982062193</v>
       </c>
       <c r="D52" t="n">
+        <v>4780994.578379157</v>
+      </c>
+      <c r="E52" t="n">
         <v>360.9974060058594</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>-11.66598129272461</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>24</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>8039.399192366636</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>-961.5924659254185</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>286.8536059620913</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>-10.46180288611075</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>3.639922542434449</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>-15.44632008517958</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2602,33 +2760,36 @@
         <v>530.5501851825125</v>
       </c>
       <c r="D53" t="n">
+        <v>4908895.343840005</v>
+      </c>
+      <c r="E53" t="n">
         <v>361.3281860351562</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>-11.90599918365479</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>21</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>8298.916259895999</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>-888.493307576211</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>354.2387692185596</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>-15.58411256148259</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>3.627697028155695</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>-12.8170473394149</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2643,33 +2804,36 @@
         <v>517.5904739416875</v>
       </c>
       <c r="D54" t="n">
+        <v>4652833.436075808</v>
+      </c>
+      <c r="E54" t="n">
         <v>361.9263000488281</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-12.92633724212646</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>33</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>7341.04747802901</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>-884.4421466195238</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>262.7002016908529</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>-10.17345060884493</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>3.529600242029689</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>-13.33451429869217</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2684,33 +2848,36 @@
         <v>532.0913080488001</v>
       </c>
       <c r="D55" t="n">
+        <v>4791355.029214089</v>
+      </c>
+      <c r="E55" t="n">
         <v>365.0153503417969</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-11.73500823974609</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>25</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>9127.624428375388</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>-844.8240320119039</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>373.8946725636171</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>-9.347424227101625</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>3.629639738764138</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>-13.33523754377758</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2725,33 +2892,36 @@
         <v>538.3917274865316</v>
       </c>
       <c r="D56" t="n">
+        <v>4980757.435862701</v>
+      </c>
+      <c r="E56" t="n">
         <v>367.5101318359375</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-11.99219512939453</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>23</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>8890.659506447339</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>-854.233608867482</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>324.1219131818034</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>-11.36626633249817</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>3.615764970146973</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>-9.206159460058343</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2766,33 +2936,36 @@
         <v>532.7311749419646</v>
       </c>
       <c r="D57" t="n">
+        <v>4577514.192578787</v>
+      </c>
+      <c r="E57" t="n">
         <v>361.2181396484375</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-12.4599666595459</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>26</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>8656.315430555085</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>-867.7508278999092</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>346.3208870670255</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>-8.132697929629945</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>3.601350595857779</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>-14.5993009688409</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2807,33 +2980,36 @@
         <v>528.1978664338722</v>
       </c>
       <c r="D58" t="n">
+        <v>4737052.40863364</v>
+      </c>
+      <c r="E58" t="n">
         <v>361.6995849609375</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>-12.61448955535889</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>25</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>8656.796748729415</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>-885.9377934478377</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>387.5344894465047</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>-9.967612752057436</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>3.575348393988441</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>-5.672376249361506</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2848,33 +3024,36 @@
         <v>465.164403553295</v>
       </c>
       <c r="D59" t="n">
+        <v>4810673.506719825</v>
+      </c>
+      <c r="E59" t="n">
         <v>364.7973937988281</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>-22.24988555908203</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>22</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>9784.821589929457</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>-870.1110578718731</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>391.1545765460449</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>-10.75656941658075</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>2.993189168886122</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>-12.31777594757467</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2889,33 +3068,36 @@
         <v>501.7548216058575</v>
       </c>
       <c r="D60" t="n">
+        <v>4864909.837463804</v>
+      </c>
+      <c r="E60" t="n">
         <v>368.5640869140625</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>-23.17036247253418</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>26</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>9904.951177533216</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>-911.9272216168613</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>426.3575858468323</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>-9.316797783407983</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>2.966055148990067</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>-10.76688669886751</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2930,33 +3112,36 @@
         <v>522.9564719670485</v>
       </c>
       <c r="D61" t="n">
+        <v>4187946.213572799</v>
+      </c>
+      <c r="E61" t="n">
         <v>350.6668395996094</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>-20.77824401855469</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>25</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>9028.187265403769</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>-873.2824823348124</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>325.0253616512633</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>-7.822100978846374</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>3.344394910154735</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>-19.72675132429277</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>350</v>
       </c>
     </row>
@@ -2971,33 +3156,36 @@
         <v>575.3962618390517</v>
       </c>
       <c r="D62" t="n">
+        <v>4407492.190418608</v>
+      </c>
+      <c r="E62" t="n">
         <v>352.08837890625</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-19.04696273803711</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>25</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>9231.755534167125</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>-845.8611803208319</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>305.9038517358887</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>-8.694762354100245</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>3.414574861300817</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>-16.43883903905081</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3012,33 +3200,36 @@
         <v>636.4124199493742</v>
       </c>
       <c r="D63" t="n">
+        <v>4612694.515892021</v>
+      </c>
+      <c r="E63" t="n">
         <v>354.1465759277344</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>-15.91972541809082</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>30</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>9306.270119712488</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>-983.4421077834627</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>342.0562016487456</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>-8.401922780964153</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>3.52378056298321</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>-16.62265863826967</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3053,33 +3244,36 @@
         <v>664.9278333789616</v>
       </c>
       <c r="D64" t="n">
+        <v>4735741.319103222</v>
+      </c>
+      <c r="E64" t="n">
         <v>355.0505676269531</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>-13.33839702606201</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>31</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>9246.958511264602</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>-851.9178900929463</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>364.7202601780988</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>-12.24334639692797</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>3.463645078546196</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>-15.97312447300497</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3094,33 +3288,36 @@
         <v>687.3124303806179</v>
       </c>
       <c r="D65" t="n">
+        <v>4737573.3760321</v>
+      </c>
+      <c r="E65" t="n">
         <v>359.7875061035156</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>-11.22063446044922</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>26</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>7437.958048356813</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>-913.8569670722932</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>285.1058070151507</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>-7.553627059608901</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>3.349151026933202</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>-15.84019297114647</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3135,33 +3332,36 @@
         <v>692.3497267943787</v>
       </c>
       <c r="D66" t="n">
+        <v>4682141.895730975</v>
+      </c>
+      <c r="E66" t="n">
         <v>363.8537902832031</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-10.12391185760498</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>23</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>8883.409336164234</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>-1003.258559365896</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>260.9639464254464</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>-6.60764035617199</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>3.327204704668514</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>-16.69596190488796</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3176,33 +3376,36 @@
         <v>676.2104008495688</v>
       </c>
       <c r="D67" t="n">
+        <v>4931534.910309751</v>
+      </c>
+      <c r="E67" t="n">
         <v>362.6670227050781</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-10.48621559143066</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>22</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>9096.869618617722</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>-853.6636606759525</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>324.7653013732555</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>-9.201602987826343</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>3.229007735345647</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>-14.53556948343171</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3217,33 +3420,36 @@
         <v>687.0877546381848</v>
       </c>
       <c r="D68" t="n">
+        <v>4820813.662255593</v>
+      </c>
+      <c r="E68" t="n">
         <v>365.1989440917969</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>-8.756687164306641</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>27</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>9940.083142429274</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>-893.643725299507</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>380.7146387309092</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>-8.639922143198564</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>3.308625561734645</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>-12.42133310833207</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3258,33 +3464,36 @@
         <v>659.9673965797772</v>
       </c>
       <c r="D69" t="n">
+        <v>4617814.524442013</v>
+      </c>
+      <c r="E69" t="n">
         <v>361.1336975097656</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>-9.977798461914062</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>26</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>9258.249708242143</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>-905.9094440191643</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>287.9796216658135</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>-9.357393293128892</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>3.285368845502136</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>-12.59692547098505</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3299,33 +3508,36 @@
         <v>650.5552359395218</v>
       </c>
       <c r="D70" t="n">
+        <v>4635500.700018712</v>
+      </c>
+      <c r="E70" t="n">
         <v>356.4051818847656</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>-10.80892562866211</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>22</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>9372.782458633099</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>-933.2122526628841</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>317.4450667662313</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>-8.52384045940259</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>3.181452523343445</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>-17.62132106742616</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3340,33 +3552,36 @@
         <v>651.4513095295097</v>
       </c>
       <c r="D71" t="n">
+        <v>4596049.710726426</v>
+      </c>
+      <c r="E71" t="n">
         <v>358.4364013671875</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>-9.85270881652832</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>22</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>8490.038354261866</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>-1084.660457043718</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>330.8633190617712</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>-8.914458665385668</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>3.349547220071997</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>-19.70825315368703</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3381,33 +3596,36 @@
         <v>637.7582157724495</v>
       </c>
       <c r="D72" t="n">
+        <v>4600522.556774813</v>
+      </c>
+      <c r="E72" t="n">
         <v>357.5232849121094</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>-10.66806888580322</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>23</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>9828.693230954381</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>-1233.266899849341</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>384.0102530466447</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>-10.23050797513927</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>3.341771535277827</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>-20.92713463509149</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3422,33 +3640,36 @@
         <v>630.2713877018707</v>
       </c>
       <c r="D73" t="n">
+        <v>4622645.34481783</v>
+      </c>
+      <c r="E73" t="n">
         <v>358.7748718261719</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>-11.18945026397705</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>21</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>9300.592484590157</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>-891.1212895216549</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>300.8907310388158</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>-7.432528249747878</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>3.208850525045119</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>-12.31166686568859</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3463,33 +3684,36 @@
         <v>627.593252321754</v>
       </c>
       <c r="D74" t="n">
+        <v>4486018.252663559</v>
+      </c>
+      <c r="E74" t="n">
         <v>353.6045227050781</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>-10.37654304504395</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>22</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>8525.243246564012</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>-951.971877320665</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>314.683168233619</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>-7.630506426704899</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>3.331334156622889</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>-16.9777281020115</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3504,33 +3728,36 @@
         <v>613.4021941727108</v>
       </c>
       <c r="D75" t="n">
+        <v>4589917.727503685</v>
+      </c>
+      <c r="E75" t="n">
         <v>355.5057373046875</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>-10.99007797241211</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>28</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>9000.084323478823</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>-889.2577620655943</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>282.4702522539794</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>-10.25911413806562</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>3.310327350072238</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>-11.55360660751868</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3545,33 +3772,36 @@
         <v>612.3128643109106</v>
       </c>
       <c r="D76" t="n">
+        <v>4556237.0358591</v>
+      </c>
+      <c r="E76" t="n">
         <v>351.7716064453125</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>-11.71713829040527</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>26</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>6914.77894062453</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>-1142.584252847762</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>218.6392543003249</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>-11.95706741178979</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>3.346261941658097</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>-16.94832258391992</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3586,33 +3816,36 @@
         <v>638.4353254539367</v>
       </c>
       <c r="D77" t="n">
+        <v>4628200.094699571</v>
+      </c>
+      <c r="E77" t="n">
         <v>359.2412414550781</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>-10.50373554229736</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>23</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>8539.906308550746</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>-973.341870627652</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>281.3624213947264</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>-9.39410355315276</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>3.352523842757587</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>-13.3916023862963</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3627,33 +3860,36 @@
         <v>632.0177444123486</v>
       </c>
       <c r="D78" t="n">
+        <v>4495780.59296738</v>
+      </c>
+      <c r="E78" t="n">
         <v>353.3168334960938</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>-11.60676574707031</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>26</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>8146.476495040464</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>-962.7493347554474</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>317.4296893786417</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>-9.598696061338305</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>3.344974642639624</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>-13.16074856647764</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3668,33 +3904,36 @@
         <v>631.4539169491734</v>
       </c>
       <c r="D79" t="n">
+        <v>4456392.258063148</v>
+      </c>
+      <c r="E79" t="n">
         <v>353.2320556640625</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>-10.97430992126465</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>20</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>9194.928115689501</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>-885.1195609911285</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>331.6603730497554</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>-7.415720153370323</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>3.346215088131756</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>-14.10818007846217</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3709,33 +3948,36 @@
         <v>630.5693847873788</v>
       </c>
       <c r="D80" t="n">
+        <v>4675171.251190129</v>
+      </c>
+      <c r="E80" t="n">
         <v>358.336181640625</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>-10.82259082794189</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>23</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>8812.717902687571</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>-910.278652441023</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>311.3929743836643</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>-11.20998308636743</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>3.33677138049267</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>-13.25164193981461</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3750,33 +3992,36 @@
         <v>626.3712954321387</v>
       </c>
       <c r="D81" t="n">
+        <v>4505103.560168709</v>
+      </c>
+      <c r="E81" t="n">
         <v>359.2251281738281</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>-11.58854484558105</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>27</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>9050.122187533896</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>-977.667075698881</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>301.8308788327388</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>-9.230979511873999</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>3.323526075339753</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>-16.81224412307698</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3791,33 +4036,36 @@
         <v>620.9276911030481</v>
       </c>
       <c r="D82" t="n">
+        <v>4483033.688124058</v>
+      </c>
+      <c r="E82" t="n">
         <v>354.1591796875</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>-11.55841159820557</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>23</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>8748.772343862813</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>-917.0894034952955</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>330.3526452197988</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>-8.910426350196911</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>3.307577226733167</v>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>-12.37606030632751</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3832,33 +4080,36 @@
         <v>626.9374858703397</v>
       </c>
       <c r="D83" t="n">
+        <v>4496989.396466801</v>
+      </c>
+      <c r="E83" t="n">
         <v>355.7538146972656</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>-11.00058937072754</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>20</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>8704.277183262682</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>-870.2735087886263</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>337.6315431050046</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>-8.243686949943619</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>3.351172734076941</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>-13.55956351064776</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3873,33 +4124,36 @@
         <v>634.8416931918041</v>
       </c>
       <c r="D84" t="n">
+        <v>4574698.618952693</v>
+      </c>
+      <c r="E84" t="n">
         <v>355.1427307128906</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>-11.18909931182861</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>25</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>7976.15855343956</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>-938.607187338976</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>294.9742854387009</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>-10.05864743328266</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>3.25876101726906</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>-15.30695805050063</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3914,33 +4168,36 @@
         <v>631.178395651338</v>
       </c>
       <c r="D85" t="n">
+        <v>4586136.088249808</v>
+      </c>
+      <c r="E85" t="n">
         <v>357.6203308105469</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>-11.38812160491943</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>21</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>8881.611077209134</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>-829.037240370352</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>301.6982209578359</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>-8.911433222180383</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>3.304912081044467</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>-11.13267131086138</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3955,33 +4212,36 @@
         <v>628.4151163032316</v>
       </c>
       <c r="D86" t="n">
+        <v>4680140.995085059</v>
+      </c>
+      <c r="E86" t="n">
         <v>359.9350280761719</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>-11.89864063262939</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>22</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>8945.183791289288</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>-1055.054717898021</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>313.2146750675703</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>-8.694697921789874</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>3.271560645448143</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>-17.23402280864056</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>350</v>
       </c>
     </row>
@@ -3996,33 +4256,36 @@
         <v>634.093912142583</v>
       </c>
       <c r="D87" t="n">
+        <v>4443641.265551029</v>
+      </c>
+      <c r="E87" t="n">
         <v>352.6448059082031</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>-10.90388107299805</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>26</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>8413.80015847442</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>-897.0581514635708</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>195.5550393112645</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>-6.145804778665219</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>3.319076934518328</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>-15.36232854299923</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4037,33 +4300,36 @@
         <v>627.6720584593593</v>
       </c>
       <c r="D88" t="n">
+        <v>4551836.633587951</v>
+      </c>
+      <c r="E88" t="n">
         <v>356.6553649902344</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>-11.91475868225098</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>18</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>9534.805003947229</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>-918.0054005120933</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>381.8895391201073</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>-7.781533971819511</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>3.23182998433825</v>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>-12.52314652505857</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4078,33 +4344,36 @@
         <v>630.7934890651801</v>
       </c>
       <c r="D89" t="n">
+        <v>4589051.993936488</v>
+      </c>
+      <c r="E89" t="n">
         <v>359.0538024902344</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>-10.95573902130127</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>26</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>6792.978561407914</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>-921.9767420601906</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>239.187726729256</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>-8.582284074898816</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>3.34981309555707</v>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>-13.11586347636841</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4119,33 +4388,36 @@
         <v>629.7872508686053</v>
       </c>
       <c r="D90" t="n">
+        <v>4599104.721296286</v>
+      </c>
+      <c r="E90" t="n">
         <v>365.6169738769531</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>-10.61270713806152</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>27</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>9611.630185173104</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>-1067.180632865197</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>335.2151864472593</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>-7.86739771626268</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>3.317080929036991</v>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>-17.95117774537845</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4160,33 +4432,36 @@
         <v>618.8885785467361</v>
       </c>
       <c r="D91" t="n">
+        <v>4416749.381153383</v>
+      </c>
+      <c r="E91" t="n">
         <v>360.1764526367188</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>-12.369215965271</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>23</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>7175.067272435377</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>-924.85956437236</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>297.9266185489892</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>-6.18224123168126</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>3.202374020787347</v>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>-15.91522654303042</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4201,33 +4476,36 @@
         <v>617.3056521496949</v>
       </c>
       <c r="D92" t="n">
+        <v>4546205.304684198</v>
+      </c>
+      <c r="E92" t="n">
         <v>355.841064453125</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>-10.95924282073975</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>26</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>8043.939839793598</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>-952.7851681223907</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>280.9847554533492</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>-10.22472024553304</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>3.309708118090924</v>
       </c>
-      <c r="L92" t="n">
+      <c r="M92" t="n">
         <v>-12.98788307097912</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4242,33 +4520,36 @@
         <v>623.8287360285908</v>
       </c>
       <c r="D93" t="n">
+        <v>4636302.070905795</v>
+      </c>
+      <c r="E93" t="n">
         <v>360.4122619628906</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>-11.01916027069092</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>30</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>9170.090434415582</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>-860.43949373633</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>330.2545920048985</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>-8.034255454566027</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>3.32090214519991</v>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>-13.02627143718681</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4283,33 +4564,36 @@
         <v>616.2609544745312</v>
       </c>
       <c r="D94" t="n">
+        <v>4512458.958894454</v>
+      </c>
+      <c r="E94" t="n">
         <v>358.4938659667969</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>-11.70837879180908</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>24</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>9126.465729156898</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>-919.3920629499661</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>314.3629927086984</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>-7.872927695899495</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>3.268844196584149</v>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>-15.81566941209291</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4324,33 +4608,36 @@
         <v>622.7117303412017</v>
       </c>
       <c r="D95" t="n">
+        <v>4575070.248505526</v>
+      </c>
+      <c r="E95" t="n">
         <v>359.2790832519531</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>-10.77283573150635</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>18</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>9398.660185150926</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>-1216.474808292772</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>291.2667845205262</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>-10.16587625060652</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>3.326451659579905</v>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>-22.12831932074102</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4365,33 +4652,36 @@
         <v>616.747627076054</v>
       </c>
       <c r="D96" t="n">
+        <v>4576075.254999835</v>
+      </c>
+      <c r="E96" t="n">
         <v>360.3824768066406</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>-11.12778091430664</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>24</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>8917.575831620248</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>-890.278782102904</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>382.9040962499678</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>-6.833422658925849</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>3.293370158196303</v>
       </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
         <v>-15.20466577910534</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4406,33 +4696,36 @@
         <v>616.5437227026786</v>
       </c>
       <c r="D97" t="n">
+        <v>4521466.392984568</v>
+      </c>
+      <c r="E97" t="n">
         <v>360.3498840332031</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>-11.70242214202881</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>30</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>10324.59849780598</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>-890.3351140976363</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>334.4320787797056</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>-9.311635811515186</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>3.298959828880389</v>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>-14.92984889918601</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4447,33 +4740,36 @@
         <v>605.5411988085318</v>
       </c>
       <c r="D98" t="n">
+        <v>4349961.222070884</v>
+      </c>
+      <c r="E98" t="n">
         <v>359.5912780761719</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>-11.45890045166016</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>23</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>9139.060531884141</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>-910.5855887214648</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>297.9511780659902</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>-8.919906583492281</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>3.289071934531038</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>-12.16743132285701</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4488,33 +4784,36 @@
         <v>607.871681536996</v>
       </c>
       <c r="D99" t="n">
+        <v>4450049.987948312</v>
+      </c>
+      <c r="E99" t="n">
         <v>356.3634948730469</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>-11.45469570159912</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>27</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>6539.808326150149</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>-920.8303469742045</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>229.8687443073267</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>-7.104151935537994</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>3.305354382999587</v>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>-13.46674825148159</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4529,33 +4828,36 @@
         <v>612.2174232681048</v>
       </c>
       <c r="D100" t="n">
+        <v>4464215.320247923</v>
+      </c>
+      <c r="E100" t="n">
         <v>354.4013061523438</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>-11.27950000762939</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>25</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>8992.279859327382</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>-939.1149994525949</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>361.7703427532344</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>-8.515830747969122</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>3.335527407184755</v>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>-12.23331447758475</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4570,33 +4872,36 @@
         <v>601.827661370975</v>
       </c>
       <c r="D101" t="n">
+        <v>4475932.128327789</v>
+      </c>
+      <c r="E101" t="n">
         <v>354.7446899414062</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>-11.74061489105225</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>25</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>8768.504887190858</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>-928.1557378184689</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>347.9391362157248</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>-8.844762654298412</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>3.295071906314699</v>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>-12.72613221752416</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4611,33 +4916,36 @@
         <v>610.3098424242811</v>
       </c>
       <c r="D102" t="n">
+        <v>4558552.008858505</v>
+      </c>
+      <c r="E102" t="n">
         <v>355.0495300292969</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>-10.71221733093262</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>20</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>8993.23497310474</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>-1040.156377876845</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>257.1046309053814</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>-8.956375731184712</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>3.319126884913069</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>-16.21869531873602</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4652,33 +4960,36 @@
         <v>603.4989316126159</v>
       </c>
       <c r="D103" t="n">
+        <v>4445615.711019235</v>
+      </c>
+      <c r="E103" t="n">
         <v>354.965087890625</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>-11.42876720428467</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>21</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>8256.335653302682</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>-916.0471232919938</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>349.4200900546244</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>-11.80785391203266</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>3.312857771754556</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>-10.85953624054318</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4693,33 +5004,36 @@
         <v>598.2068003371633</v>
       </c>
       <c r="D104" t="n">
+        <v>4375534.670042595</v>
+      </c>
+      <c r="E104" t="n">
         <v>352.3746337890625</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>-11.87796783447266</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>24</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>8700.439815399426</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>-982.9319649018403</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>248.4929382543762</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>-6.554481207191548</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>3.235939745507916</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>-15.51682940517017</v>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4734,33 +5048,36 @@
         <v>603.9592896078215</v>
       </c>
       <c r="D105" t="n">
+        <v>4415209.679955748</v>
+      </c>
+      <c r="E105" t="n">
         <v>356.8813781738281</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>-11.43752670288086</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>25</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>8503.860605766311</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>-891.4026504371892</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>365.3109900404122</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>-7.987624955354397</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>3.325159826379303</v>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>-8.072585195651627</v>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4775,33 +5092,36 @@
         <v>602.3186339109874</v>
       </c>
       <c r="D106" t="n">
+        <v>4445626.569263735</v>
+      </c>
+      <c r="E106" t="n">
         <v>358.8824462890625</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>-11.46625900268555</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>25</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>9794.405643305543</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>-916.0852038674557</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>275.5297644953307</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>-7.74031765058987</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>3.297353942849223</v>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>-16.55874307142063</v>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4816,33 +5136,36 @@
         <v>600.2295868075827</v>
       </c>
       <c r="D107" t="n">
+        <v>4404296.022794513</v>
+      </c>
+      <c r="E107" t="n">
         <v>355.2496032714844</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>-12.36150741577148</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>25</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>8589.320713817553</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>-900.9489082571356</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>296.8825708666402</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>-8.615151095653276</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>3.188243762750333</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>-11.96337627337298</v>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4857,33 +5180,36 @@
         <v>612.6853157978301</v>
       </c>
       <c r="D108" t="n">
+        <v>4477423.179965369</v>
+      </c>
+      <c r="E108" t="n">
         <v>358.090576171875</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>-10.61796283721924</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>21</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>10062.47802921961</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>-906.1176976017712</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>388.0743736578644</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>-7.903807806786371</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>3.317082865372996</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>-15.5048140917638</v>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4898,33 +5224,36 @@
         <v>600.2669723259648</v>
       </c>
       <c r="D109" t="n">
+        <v>4365172.881078919</v>
+      </c>
+      <c r="E109" t="n">
         <v>352.4166870117188</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>-11.12287616729736</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>27</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>8275.458295164384</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>-1035.246977732882</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>274.8576086155986</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>-10.07640226134048</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>3.296696291048374</v>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>-17.55563271385635</v>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4939,33 +5268,36 @@
         <v>602.0537910883858</v>
       </c>
       <c r="D110" t="n">
+        <v>4452621.843756411</v>
+      </c>
+      <c r="E110" t="n">
         <v>353.4993896484375</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>-12.52198600769043</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>25</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>8832.943802248599</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>-1238.534807395608</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>311.4641562475002</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>-8.729865181970386</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>3.234567585078858</v>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>-23.78106484030479</v>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4980,33 +5312,36 @@
         <v>610.651240563983</v>
       </c>
       <c r="D111" t="n">
+        <v>4509733.870180902</v>
+      </c>
+      <c r="E111" t="n">
         <v>357.3950500488281</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>-10.62216758728027</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>27</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>8666.263034418462</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>-923.6120219043478</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>398.5307972331757</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>-9.674595038038964</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>3.290304244227769</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>-11.43844903326154</v>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5021,33 +5356,36 @@
         <v>602.1040599386142</v>
       </c>
       <c r="D112" t="n">
+        <v>4353524.297176521</v>
+      </c>
+      <c r="E112" t="n">
         <v>356.0379638671875</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>-11.0517463684082</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>21</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>9427.728759886939</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>-885.3061813585537</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>258.9177562365064</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>-6.767766428664868</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>3.300300654385017</v>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>-11.9206547560912</v>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5062,33 +5400,36 @@
         <v>597.9940800805732</v>
       </c>
       <c r="D113" t="n">
+        <v>4427852.289672735</v>
+      </c>
+      <c r="E113" t="n">
         <v>358.6052856445312</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>-11.29246520996094</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>21</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>9199.969934585723</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>-942.1084021221091</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>356.696662059297</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>-9.668372451261776</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>3.312065873231025</v>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>-14.4607783702484</v>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5103,33 +5444,36 @@
         <v>698.6898496327077</v>
       </c>
       <c r="D114" t="n">
+        <v>4661877.689318227</v>
+      </c>
+      <c r="E114" t="n">
         <v>356.8361511230469</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>-0.02740056812763214</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>20</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>9179.990822377074</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>-947.6107674545694</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>313.2561047507901</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>-8.540302909069835</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>4.248049936678377</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>-14.60444045652602</v>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5144,33 +5488,36 @@
         <v>550.24634918782</v>
       </c>
       <c r="D115" t="n">
+        <v>4227632.893611096</v>
+      </c>
+      <c r="E115" t="n">
         <v>349.4944152832031</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>-9.838693618774414</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>27</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>9057.982614013854</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>-977.5227749237076</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>310.2743286077874</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>-5.661482514701326</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>3.695482856627434</v>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>-18.05125319845554</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5185,33 +5532,36 @@
         <v>560.8977529012716</v>
       </c>
       <c r="D116" t="n">
+        <v>4123164.966807486</v>
+      </c>
+      <c r="E116" t="n">
         <v>349.454833984375</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>-5.101759910583496</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>19</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>7416.005779553183</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>-910.3644306753406</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>260.1660053888003</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>-7.342526319708885</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>3.720290151646142</v>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>-12.45287097881969</v>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5226,33 +5576,36 @@
         <v>520.6118882668912</v>
       </c>
       <c r="D117" t="n">
+        <v>3915835.733699995</v>
+      </c>
+      <c r="E117" t="n">
         <v>344.3268737792969</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>-7.553093910217285</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>23</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>8310.849543148861</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>-936.6910488744446</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>307.6486218212719</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>-8.501942033624443</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>3.661594449665169</v>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>-15.90945023501561</v>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5267,33 +5620,36 @@
         <v>515.6594196121329</v>
       </c>
       <c r="D118" t="n">
+        <v>4018514.660858298</v>
+      </c>
+      <c r="E118" t="n">
         <v>345.3538513183594</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>-5.466866970062256</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>27</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>6305.454990419313</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>-896.144789717436</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>200.5009028451088</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>-14.09997618829336</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>3.644379262269149</v>
       </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
         <v>-5.510641977562884</v>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5308,33 +5664,36 @@
         <v>479.6110320471257</v>
       </c>
       <c r="D119" t="n">
+        <v>3884438.81790583</v>
+      </c>
+      <c r="E119" t="n">
         <v>343.9708557128906</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>-6.839698314666748</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>24</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>9085.22202068819</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>-886.1580352676958</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>353.5867529376331</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>-8.736022012702422</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>3.618162122023706</v>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>-7.148346620365396</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5349,33 +5708,36 @@
         <v>439.9129835234436</v>
       </c>
       <c r="D120" t="n">
+        <v>3646741.207446903</v>
+      </c>
+      <c r="E120" t="n">
         <v>346.9537353515625</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>-9.557680130004883</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>22</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>9703.047707170903</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>-889.5743024532271</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>365.4709490083587</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>-6.9152275567341</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>3.48069967064256</v>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>-6.374461626301528</v>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5390,33 +5752,36 @@
         <v>449.4649142523012</v>
       </c>
       <c r="D121" t="n">
+        <v>3757684.10950412</v>
+      </c>
+      <c r="E121" t="n">
         <v>343.2833862304688</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>-8.290316581726074</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>27</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>10107.97448153079</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>-865.42303515752</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>408.2120967840654</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>-7.598544006451588</v>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>3.648017938378119</v>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>-5.172846913435091</v>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5431,33 +5796,36 @@
         <v>417.4050708658607</v>
       </c>
       <c r="D122" t="n">
+        <v>3678088.068061809</v>
+      </c>
+      <c r="E122" t="n">
         <v>338.6817321777344</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>-10.12356090545654</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>23</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>9356.277419600161</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>-848.1432614857197</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>367.8542956027981</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>-8.550498178515429</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>3.576408674869473</v>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>-5.36080744171506</v>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5472,33 +5840,36 @@
         <v>385.3267485641874</v>
       </c>
       <c r="D123" t="n">
+        <v>3477041.771354602</v>
+      </c>
+      <c r="E123" t="n">
         <v>338.0569763183594</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>-12.64041805267334</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>24</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>7485.358586866711</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>-887.2972122995933</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J123" t="n">
         <v>146.3312430550912</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>-6.203003273462457</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>3.509900379484409</v>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>-7.301022900358152</v>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5513,33 +5884,36 @@
         <v>398.6408328995432</v>
       </c>
       <c r="D124" t="n">
+        <v>3528452.543746724</v>
+      </c>
+      <c r="E124" t="n">
         <v>339.8495788574219</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>-11.96171092987061</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>26</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>8169.56761623041</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>-861.5700110316857</v>
       </c>
-      <c r="I124" t="n">
+      <c r="J124" t="n">
         <v>243.7265967549002</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>-6.259343903426428</v>
       </c>
-      <c r="K124" t="n">
+      <c r="L124" t="n">
         <v>3.644198654312254</v>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>-5.496759325041529</v>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5554,33 +5928,36 @@
         <v>378.0556876328453</v>
       </c>
       <c r="D125" t="n">
+        <v>3551355.010361782</v>
+      </c>
+      <c r="E125" t="n">
         <v>332.6469421386719</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>-13.10328483581543</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>26</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>8374.248552437242</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>-859.096625261097</v>
       </c>
-      <c r="I125" t="n">
+      <c r="J125" t="n">
         <v>325.6037618485988</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>-9.354620866875479</v>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>3.62092170099434</v>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>-5.816206530839415</v>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5595,33 +5972,36 @@
         <v>357.3130122342371</v>
       </c>
       <c r="D126" t="n">
+        <v>3427590.271375619</v>
+      </c>
+      <c r="E126" t="n">
         <v>333.5341186523438</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>-17.064453125</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>27</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
         <v>8278.608634765469</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>-858.7309341411381</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J126" t="n">
         <v>328.606632275646</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>-7.492901346749322</v>
       </c>
-      <c r="K126" t="n">
+      <c r="L126" t="n">
         <v>3.369138485769442</v>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>-5.832141616916458</v>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5636,33 +6016,36 @@
         <v>400.1871988809378</v>
       </c>
       <c r="D127" t="n">
+        <v>3621841.035950945</v>
+      </c>
+      <c r="E127" t="n">
         <v>336.5415344238281</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>-12.25533866882324</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>27</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>8729.176994775258</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>-814.7402080811244</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J127" t="n">
         <v>288.8574880637673</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>-7.597539750148918</v>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>3.726660009684334</v>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>-6.368951072483899</v>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5677,33 +6060,36 @@
         <v>380.2328038342391</v>
       </c>
       <c r="D128" t="n">
+        <v>3606794.475626496</v>
+      </c>
+      <c r="E128" t="n">
         <v>333.3634948730469</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>-14.45509243011475</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>25</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>8812.278041852074</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>-799.1964321239848</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J128" t="n">
         <v>330.8209475215959</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>-8.39017877906014</v>
       </c>
-      <c r="K128" t="n">
+      <c r="L128" t="n">
         <v>3.663701206312227</v>
       </c>
-      <c r="L128" t="n">
+      <c r="M128" t="n">
         <v>-10.2908462594989</v>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5718,33 +6104,36 @@
         <v>377.0101174844342</v>
       </c>
       <c r="D129" t="n">
+        <v>3608683.923833751</v>
+      </c>
+      <c r="E129" t="n">
         <v>338.0352478027344</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>-15.51117038726807</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>24</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
         <v>8459.049276708947</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>-893.0885504118489</v>
       </c>
-      <c r="I129" t="n">
+      <c r="J129" t="n">
         <v>296.4721502144881</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>-9.63007420883444</v>
       </c>
-      <c r="K129" t="n">
+      <c r="L129" t="n">
         <v>3.517497882108705</v>
       </c>
-      <c r="L129" t="n">
+      <c r="M129" t="n">
         <v>-7.818660162633642</v>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5759,33 +6148,36 @@
         <v>406.123710955568</v>
       </c>
       <c r="D130" t="n">
+        <v>3634514.242039478</v>
+      </c>
+      <c r="E130" t="n">
         <v>335.2885437011719</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>-13.23853492736816</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>28</v>
       </c>
-      <c r="G130" t="n">
+      <c r="H130" t="n">
         <v>7578.856759704368</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>-848.7705840960352</v>
       </c>
-      <c r="I130" t="n">
+      <c r="J130" t="n">
         <v>255.034397422446</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>-7.641037780791852</v>
       </c>
-      <c r="K130" t="n">
+      <c r="L130" t="n">
         <v>3.668085003634589</v>
       </c>
-      <c r="L130" t="n">
+      <c r="M130" t="n">
         <v>-7.866671694555979</v>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5800,33 +6192,36 @@
         <v>393.4104530652581</v>
       </c>
       <c r="D131" t="n">
+        <v>3674472.038054032</v>
+      </c>
+      <c r="E131" t="n">
         <v>334.5740966796875</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>-14.1663703918457</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>22</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>7815.824383485175</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>-843.3517966777101</v>
       </c>
-      <c r="I131" t="n">
+      <c r="J131" t="n">
         <v>300.6521756054996</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>-6.753617606182898</v>
       </c>
-      <c r="K131" t="n">
+      <c r="L131" t="n">
         <v>3.585887852257436</v>
       </c>
-      <c r="L131" t="n">
+      <c r="M131" t="n">
         <v>-9.859178333569037</v>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5841,33 +6236,36 @@
         <v>407.6415928355186</v>
       </c>
       <c r="D132" t="n">
+        <v>3637898.286295796</v>
+      </c>
+      <c r="E132" t="n">
         <v>334.99560546875</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>-14.4985408782959</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>28</v>
       </c>
-      <c r="G132" t="n">
+      <c r="H132" t="n">
         <v>8263.168897265445</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>-840.6637804905822</v>
       </c>
-      <c r="I132" t="n">
+      <c r="J132" t="n">
         <v>341.6903187191866</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>-8.736850010732336</v>
       </c>
-      <c r="K132" t="n">
+      <c r="L132" t="n">
         <v>3.579433865551337</v>
       </c>
-      <c r="L132" t="n">
+      <c r="M132" t="n">
         <v>-14.30862728553774</v>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5882,33 +6280,36 @@
         <v>422.6091948562912</v>
       </c>
       <c r="D133" t="n">
+        <v>3797840.248907774</v>
+      </c>
+      <c r="E133" t="n">
         <v>341.4928894042969</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>-13.49887561798096</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>25</v>
       </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>9049.920631138415</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
         <v>-833.1852930283094</v>
       </c>
-      <c r="I133" t="n">
+      <c r="J133" t="n">
         <v>287.6025263441111</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>-9.22599073127782</v>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>3.615277653293722</v>
       </c>
-      <c r="L133" t="n">
+      <c r="M133" t="n">
         <v>-8.855621333343434</v>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5923,33 +6324,36 @@
         <v>436.0497814903791</v>
       </c>
       <c r="D134" t="n">
+        <v>3732485.423469116</v>
+      </c>
+      <c r="E134" t="n">
         <v>342.4014587402344</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>-13.14673328399658</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>28</v>
       </c>
-      <c r="G134" t="n">
+      <c r="H134" t="n">
         <v>7336.355558949867</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>-855.6392146776652</v>
       </c>
-      <c r="I134" t="n">
+      <c r="J134" t="n">
         <v>247.7597926055163</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>-6.76315782851957</v>
       </c>
-      <c r="K134" t="n">
+      <c r="L134" t="n">
         <v>3.568728304710458</v>
       </c>
-      <c r="L134" t="n">
+      <c r="M134" t="n">
         <v>-10.14922695425147</v>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5964,33 +6368,36 @@
         <v>436.2743391984088</v>
       </c>
       <c r="D135" t="n">
+        <v>3697875.95610411</v>
+      </c>
+      <c r="E135" t="n">
         <v>338.3005065917969</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>-13.10223293304443</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>30</v>
       </c>
-      <c r="G135" t="n">
+      <c r="H135" t="n">
         <v>8805.358783839041</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>-833.4295704134652</v>
       </c>
-      <c r="I135" t="n">
+      <c r="J135" t="n">
         <v>363.0791427410566</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>-7.303070982957807</v>
       </c>
-      <c r="K135" t="n">
+      <c r="L135" t="n">
         <v>3.580471240779441</v>
       </c>
-      <c r="L135" t="n">
+      <c r="M135" t="n">
         <v>-9.473479994197248</v>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6005,33 +6412,36 @@
         <v>445.7379108670072</v>
       </c>
       <c r="D136" t="n">
+        <v>3856912.117660318</v>
+      </c>
+      <c r="E136" t="n">
         <v>343.1793212890625</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>-12.37306976318359</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>26</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>9551.317005075325</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>-815.4647905869256</v>
       </c>
-      <c r="I136" t="n">
+      <c r="J136" t="n">
         <v>375.7310196800397</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>-6.981563282201071</v>
       </c>
-      <c r="K136" t="n">
+      <c r="L136" t="n">
         <v>3.605328336398382</v>
       </c>
-      <c r="L136" t="n">
+      <c r="M136" t="n">
         <v>-7.478935504408665</v>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6046,33 +6456,36 @@
         <v>429.8799281234347</v>
       </c>
       <c r="D137" t="n">
+        <v>3656791.528457222</v>
+      </c>
+      <c r="E137" t="n">
         <v>332.8414001464844</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>-12.48694705963135</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>24</v>
       </c>
-      <c r="G137" t="n">
+      <c r="H137" t="n">
         <v>7465.886083686164</v>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>-864.4289080793299</v>
       </c>
-      <c r="I137" t="n">
+      <c r="J137" t="n">
         <v>235.3824785978902</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>-7.962529575777841</v>
       </c>
-      <c r="K137" t="n">
+      <c r="L137" t="n">
         <v>3.543991578856798</v>
       </c>
-      <c r="L137" t="n">
+      <c r="M137" t="n">
         <v>-7.904899249060874</v>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6087,33 +6500,36 @@
         <v>433.543620038063</v>
       </c>
       <c r="D138" t="n">
+        <v>3603161.018103498</v>
+      </c>
+      <c r="E138" t="n">
         <v>336.1116027832031</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>-12.39899921417236</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>25</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
         <v>7100.44209089433</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>-817.2271506041891</v>
       </c>
-      <c r="I138" t="n">
+      <c r="J138" t="n">
         <v>243.0563386192653</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>-6.600225091718198</v>
       </c>
-      <c r="K138" t="n">
+      <c r="L138" t="n">
         <v>3.565967780996481</v>
       </c>
-      <c r="L138" t="n">
+      <c r="M138" t="n">
         <v>-6.69542253264597</v>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6128,33 +6544,36 @@
         <v>421.7697387604186</v>
       </c>
       <c r="D139" t="n">
+        <v>3625479.245117902</v>
+      </c>
+      <c r="E139" t="n">
         <v>335.0481567382812</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>-13.01078128814697</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>24</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
         <v>6395.921255536982</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>-840.2777339624843</v>
       </c>
-      <c r="I139" t="n">
+      <c r="J139" t="n">
         <v>166.0242370540098</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>-6.091692086814517</v>
       </c>
-      <c r="K139" t="n">
+      <c r="L139" t="n">
         <v>3.521158129205086</v>
       </c>
-      <c r="L139" t="n">
+      <c r="M139" t="n">
         <v>-5.393458652295933</v>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6169,33 +6588,36 @@
         <v>439.3869515513034</v>
       </c>
       <c r="D140" t="n">
+        <v>3854049.720583359</v>
+      </c>
+      <c r="E140" t="n">
         <v>336.6473388671875</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>-12.22870922088623</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>27</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
         <v>8349.019343050528</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>-824.5898707348233</v>
       </c>
-      <c r="I140" t="n">
+      <c r="J140" t="n">
         <v>242.3841442747553</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>-9.857622549543736</v>
       </c>
-      <c r="K140" t="n">
+      <c r="L140" t="n">
         <v>3.581457426038924</v>
       </c>
-      <c r="L140" t="n">
+      <c r="M140" t="n">
         <v>-5.714666755962661</v>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6210,33 +6632,36 @@
         <v>444.4258421761593</v>
       </c>
       <c r="D141" t="n">
+        <v>3684524.598655167</v>
+      </c>
+      <c r="E141" t="n">
         <v>338.6883850097656</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>-11.90214443206787</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>21</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>8726.572848877964</v>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>-808.9081569202563</v>
       </c>
-      <c r="I141" t="n">
+      <c r="J141" t="n">
         <v>340.7820592683869</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>-6.081232437725876</v>
       </c>
-      <c r="K141" t="n">
+      <c r="L141" t="n">
         <v>3.561970190805532</v>
       </c>
-      <c r="L141" t="n">
+      <c r="M141" t="n">
         <v>-6.745234131221065</v>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6251,33 +6676,36 @@
         <v>433.2775740904192</v>
       </c>
       <c r="D142" t="n">
+        <v>3826098.351128708</v>
+      </c>
+      <c r="E142" t="n">
         <v>337.1841430664062</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>-13.77463340759277</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>23</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
         <v>8950.075452472956</v>
       </c>
-      <c r="H142" t="n">
+      <c r="I142" t="n">
         <v>-828.772915581118</v>
       </c>
-      <c r="I142" t="n">
+      <c r="J142" t="n">
         <v>350.5110025878982</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>-8.089152303006816</v>
       </c>
-      <c r="K142" t="n">
+      <c r="L142" t="n">
         <v>3.529865854845222</v>
       </c>
-      <c r="L142" t="n">
+      <c r="M142" t="n">
         <v>-3.53390649565865</v>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6292,33 +6720,36 @@
         <v>449.0810500317186</v>
       </c>
       <c r="D143" t="n">
+        <v>3709919.100769112</v>
+      </c>
+      <c r="E143" t="n">
         <v>335.6827087402344</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>-11.67123699188232</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>26</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>7012.257482674831</v>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
         <v>-788.2616671048795</v>
       </c>
-      <c r="I143" t="n">
+      <c r="J143" t="n">
         <v>251.466190246382</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>-5.494906164778045</v>
       </c>
-      <c r="K143" t="n">
+      <c r="L143" t="n">
         <v>3.461353685443138</v>
       </c>
-      <c r="L143" t="n">
+      <c r="M143" t="n">
         <v>-7.284941498391063</v>
       </c>
-      <c r="M143" t="n">
+      <c r="N143" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6333,33 +6764,36 @@
         <v>438.3734275372288</v>
       </c>
       <c r="D144" t="n">
+        <v>3642005.646707587</v>
+      </c>
+      <c r="E144" t="n">
         <v>339.0913391113281</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>-12.44665241241455</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>26</v>
       </c>
-      <c r="G144" t="n">
+      <c r="H144" t="n">
         <v>7860.757910585684</v>
       </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
         <v>-872.0828865497674</v>
       </c>
-      <c r="I144" t="n">
+      <c r="J144" t="n">
         <v>254.5454046579278</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>-6.281739680805932</v>
       </c>
-      <c r="K144" t="n">
+      <c r="L144" t="n">
         <v>3.589592627191149</v>
       </c>
-      <c r="L144" t="n">
+      <c r="M144" t="n">
         <v>-8.17464444034864</v>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6374,33 +6808,36 @@
         <v>436.2404772942579</v>
       </c>
       <c r="D145" t="n">
+        <v>3801684.927006528</v>
+      </c>
+      <c r="E145" t="n">
         <v>343.4530029296875</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>-12.98765563964844</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>25</v>
       </c>
-      <c r="G145" t="n">
+      <c r="H145" t="n">
         <v>9495.237754527137</v>
       </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
         <v>-845.3597816170575</v>
       </c>
-      <c r="I145" t="n">
+      <c r="J145" t="n">
         <v>382.1045480454629</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>-6.488688869634349</v>
       </c>
-      <c r="K145" t="n">
+      <c r="L145" t="n">
         <v>3.452233070760149</v>
       </c>
-      <c r="L145" t="n">
+      <c r="M145" t="n">
         <v>-7.290387175108767</v>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6415,33 +6852,36 @@
         <v>447.8238324799757</v>
       </c>
       <c r="D146" t="n">
+        <v>3737448.603517991</v>
+      </c>
+      <c r="E146" t="n">
         <v>340.8075256347656</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>-12.14881992340088</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>25</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
         <v>8844.896676317894</v>
       </c>
-      <c r="H146" t="n">
+      <c r="I146" t="n">
         <v>-876.3295543100998</v>
       </c>
-      <c r="I146" t="n">
+      <c r="J146" t="n">
         <v>316.9113376922263</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>-7.237311953267251</v>
       </c>
-      <c r="K146" t="n">
+      <c r="L146" t="n">
         <v>3.575920963060887</v>
       </c>
-      <c r="L146" t="n">
+      <c r="M146" t="n">
         <v>-7.607253345618122</v>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6456,33 +6896,36 @@
         <v>439.4141712078633</v>
       </c>
       <c r="D147" t="n">
+        <v>3762755.577869514</v>
+      </c>
+      <c r="E147" t="n">
         <v>338.2083435058594</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>-11.88953113555908</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>25</v>
       </c>
-      <c r="G147" t="n">
+      <c r="H147" t="n">
         <v>9132.671618767223</v>
       </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
         <v>-840.1420916690986</v>
       </c>
-      <c r="I147" t="n">
+      <c r="J147" t="n">
         <v>389.55871366126</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>-8.508470608209723</v>
       </c>
-      <c r="K147" t="n">
+      <c r="L147" t="n">
         <v>3.551761893553896</v>
       </c>
-      <c r="L147" t="n">
+      <c r="M147" t="n">
         <v>-7.11435579891637</v>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6497,33 +6940,36 @@
         <v>437.430915648486</v>
       </c>
       <c r="D148" t="n">
+        <v>3793492.806056505</v>
+      </c>
+      <c r="E148" t="n">
         <v>342.0980224609375</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>-13.36572742462158</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>30</v>
       </c>
-      <c r="G148" t="n">
+      <c r="H148" t="n">
         <v>8902.834994728437</v>
       </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
         <v>-828.3984006665141</v>
       </c>
-      <c r="I148" t="n">
+      <c r="J148" t="n">
         <v>366.0229598944491</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>-7.128797228495739</v>
       </c>
-      <c r="K148" t="n">
+      <c r="L148" t="n">
         <v>3.43895778908463</v>
       </c>
-      <c r="L148" t="n">
+      <c r="M148" t="n">
         <v>-12.80467868968503</v>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6538,33 +6984,36 @@
         <v>447.9082759202316</v>
       </c>
       <c r="D149" t="n">
+        <v>3864220.317117654</v>
+      </c>
+      <c r="E149" t="n">
         <v>342.9151306152344</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>-11.86255073547363</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>21</v>
       </c>
-      <c r="G149" t="n">
+      <c r="H149" t="n">
         <v>9126.932811938652</v>
       </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
         <v>-884.9119568086306</v>
       </c>
-      <c r="I149" t="n">
+      <c r="J149" t="n">
         <v>329.8301907110568</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>-9.434114159497669</v>
       </c>
-      <c r="K149" t="n">
+      <c r="L149" t="n">
         <v>3.631085394989024</v>
       </c>
-      <c r="L149" t="n">
+      <c r="M149" t="n">
         <v>-8.436444187217162</v>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6579,33 +7028,36 @@
         <v>442.1828337858992</v>
       </c>
       <c r="D150" t="n">
+        <v>3688812.848606044</v>
+      </c>
+      <c r="E150" t="n">
         <v>342.3359375</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>-12.48484516143799</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>27</v>
       </c>
-      <c r="G150" t="n">
+      <c r="H150" t="n">
         <v>9235.799632998804</v>
       </c>
-      <c r="H150" t="n">
+      <c r="I150" t="n">
         <v>-837.6705583653609</v>
       </c>
-      <c r="I150" t="n">
+      <c r="J150" t="n">
         <v>247.1780910594064</v>
       </c>
-      <c r="J150" t="n">
+      <c r="K150" t="n">
         <v>-6.575806334022404</v>
       </c>
-      <c r="K150" t="n">
+      <c r="L150" t="n">
         <v>3.55982406859113</v>
       </c>
-      <c r="L150" t="n">
+      <c r="M150" t="n">
         <v>-9.601348265387328</v>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6620,33 +7072,36 @@
         <v>439.8274030435759</v>
       </c>
       <c r="D151" t="n">
+        <v>3916648.695289793</v>
+      </c>
+      <c r="E151" t="n">
         <v>355.2664184570312</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>-13.27602672576904</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>29</v>
       </c>
-      <c r="G151" t="n">
+      <c r="H151" t="n">
         <v>10346.0803488901</v>
       </c>
-      <c r="H151" t="n">
+      <c r="I151" t="n">
         <v>-838.0903152884362</v>
       </c>
-      <c r="I151" t="n">
+      <c r="J151" t="n">
         <v>385.7773633428735</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>-6.896158167861949</v>
       </c>
-      <c r="K151" t="n">
+      <c r="L151" t="n">
         <v>3.522719838095383</v>
       </c>
-      <c r="L151" t="n">
+      <c r="M151" t="n">
         <v>-4.20143621320306</v>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6661,33 +7116,36 @@
         <v>442.2513094175151</v>
       </c>
       <c r="D152" t="n">
+        <v>3893703.359138301</v>
+      </c>
+      <c r="E152" t="n">
         <v>345.9870300292969</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>-11.81419658660889</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>24</v>
       </c>
-      <c r="G152" t="n">
+      <c r="H152" t="n">
         <v>9281.048832932644</v>
       </c>
-      <c r="H152" t="n">
+      <c r="I152" t="n">
         <v>-798.6242992769672</v>
       </c>
-      <c r="I152" t="n">
+      <c r="J152" t="n">
         <v>340.8316372608322</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>-8.366742735863021</v>
       </c>
-      <c r="K152" t="n">
+      <c r="L152" t="n">
         <v>3.57228267876004</v>
       </c>
-      <c r="L152" t="n">
+      <c r="M152" t="n">
         <v>-5.774819788748315</v>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6702,33 +7160,36 @@
         <v>430.8481557131773</v>
       </c>
       <c r="D153" t="n">
+        <v>3689629.816186755</v>
+      </c>
+      <c r="E153" t="n">
         <v>335.9213256835938</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>-12.14461517333984</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>27</v>
       </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
         <v>8907.616564570693</v>
       </c>
-      <c r="H153" t="n">
+      <c r="I153" t="n">
         <v>-816.1792670475872</v>
       </c>
-      <c r="I153" t="n">
+      <c r="J153" t="n">
         <v>355.0230203937159</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>-7.857786916706882</v>
       </c>
-      <c r="K153" t="n">
+      <c r="L153" t="n">
         <v>3.564561765787724</v>
       </c>
-      <c r="L153" t="n">
+      <c r="M153" t="n">
         <v>-8.920319194375519</v>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6743,33 +7204,36 @@
         <v>429.1558968510005</v>
       </c>
       <c r="D154" t="n">
+        <v>3685210.050092886</v>
+      </c>
+      <c r="E154" t="n">
         <v>336.0387268066406</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>-13.01813983917236</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>24</v>
       </c>
-      <c r="G154" t="n">
+      <c r="H154" t="n">
         <v>8207.15084693105</v>
       </c>
-      <c r="H154" t="n">
+      <c r="I154" t="n">
         <v>-859.9718014118628</v>
       </c>
-      <c r="I154" t="n">
+      <c r="J154" t="n">
         <v>297.5481245701898</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>-5.853924069442069</v>
       </c>
-      <c r="K154" t="n">
+      <c r="L154" t="n">
         <v>3.544713948248965</v>
       </c>
-      <c r="L154" t="n">
+      <c r="M154" t="n">
         <v>-7.815028335266258</v>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6784,33 +7248,36 @@
         <v>437.220235242372</v>
       </c>
       <c r="D155" t="n">
+        <v>3549108.477000793</v>
+      </c>
+      <c r="E155" t="n">
         <v>338.2721252441406</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>-12.36956596374512</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>29</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>7474.026932320747</v>
       </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
         <v>-865.6377869969643</v>
       </c>
-      <c r="I155" t="n">
+      <c r="J155" t="n">
         <v>214.7911692261619</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>-7.64707407750936</v>
       </c>
-      <c r="K155" t="n">
+      <c r="L155" t="n">
         <v>3.554998050961629</v>
       </c>
-      <c r="L155" t="n">
+      <c r="M155" t="n">
         <v>-9.137491292735822</v>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6825,33 +7292,36 @@
         <v>448.6502895484435</v>
       </c>
       <c r="D156" t="n">
+        <v>3616267.02994405</v>
+      </c>
+      <c r="E156" t="n">
         <v>336.5643005371094</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>-12.05071067810059</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>32</v>
       </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>8234.858756436701</v>
       </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
         <v>-859.2566639360734</v>
       </c>
-      <c r="I156" t="n">
+      <c r="J156" t="n">
         <v>306.3872463205747</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>-5.985589876481171</v>
       </c>
-      <c r="K156" t="n">
+      <c r="L156" t="n">
         <v>3.557585732583936</v>
       </c>
-      <c r="L156" t="n">
+      <c r="M156" t="n">
         <v>-6.671759366213571</v>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6866,33 +7336,36 @@
         <v>441.7145835172374</v>
       </c>
       <c r="D157" t="n">
+        <v>3802407.128878967</v>
+      </c>
+      <c r="E157" t="n">
         <v>340.9876403808594</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>-12.46767520904541</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>25</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>8911.12162552185</v>
       </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
         <v>-833.7775073311072</v>
       </c>
-      <c r="I157" t="n">
+      <c r="J157" t="n">
         <v>350.3422469061564</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>-8.682488954305343</v>
       </c>
-      <c r="K157" t="n">
+      <c r="L157" t="n">
         <v>3.574795838567679</v>
       </c>
-      <c r="L157" t="n">
+      <c r="M157" t="n">
         <v>-6.832634618992779</v>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6907,33 +7380,36 @@
         <v>437.5235430259154</v>
       </c>
       <c r="D158" t="n">
+        <v>3749635.767447885</v>
+      </c>
+      <c r="E158" t="n">
         <v>335.9395446777344</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>-11.85028743743896</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>31</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
         <v>8114.426094702667</v>
       </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
         <v>-826.2189821996471</v>
       </c>
-      <c r="I158" t="n">
+      <c r="J158" t="n">
         <v>324.3516208638504</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>-11.14976281727388</v>
       </c>
-      <c r="K158" t="n">
+      <c r="L158" t="n">
         <v>3.570551225316792</v>
       </c>
-      <c r="L158" t="n">
+      <c r="M158" t="n">
         <v>-6.533790415395282</v>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6948,33 +7424,36 @@
         <v>441.429130895119</v>
       </c>
       <c r="D159" t="n">
+        <v>3790574.941603369</v>
+      </c>
+      <c r="E159" t="n">
         <v>336.5212097167969</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>-12.10502147674561</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>24</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
         <v>6733.32611951898</v>
       </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
         <v>-844.3362197413808</v>
       </c>
-      <c r="I159" t="n">
+      <c r="J159" t="n">
         <v>241.9121112505725</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>-7.942143601459704</v>
       </c>
-      <c r="K159" t="n">
+      <c r="L159" t="n">
         <v>3.533376000580967</v>
       </c>
-      <c r="L159" t="n">
+      <c r="M159" t="n">
         <v>-6.946802260560331</v>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6989,33 +7468,36 @@
         <v>440.7488888928825</v>
       </c>
       <c r="D160" t="n">
+        <v>4111450.48377354</v>
+      </c>
+      <c r="E160" t="n">
         <v>341.2118835449219</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>-13.45893096923828</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>24</v>
       </c>
-      <c r="G160" t="n">
+      <c r="H160" t="n">
         <v>7783.367596411783</v>
       </c>
-      <c r="H160" t="n">
+      <c r="I160" t="n">
         <v>-864.1211327511794</v>
       </c>
-      <c r="I160" t="n">
+      <c r="J160" t="n">
         <v>250.9978215965066</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>-15.19751979044465</v>
       </c>
-      <c r="K160" t="n">
+      <c r="L160" t="n">
         <v>3.527743173554046</v>
       </c>
-      <c r="L160" t="n">
+      <c r="M160" t="n">
         <v>-6.861207315262318</v>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7030,33 +7512,36 @@
         <v>465.15626461212</v>
       </c>
       <c r="D161" t="n">
+        <v>4084728.171430843</v>
+      </c>
+      <c r="E161" t="n">
         <v>341.2132873535156</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>-12.13690662384033</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>27</v>
       </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>7611.673657534608</v>
       </c>
-      <c r="H161" t="n">
+      <c r="I161" t="n">
         <v>-888.2863960271792</v>
       </c>
-      <c r="I161" t="n">
+      <c r="J161" t="n">
         <v>286.9586783512833</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>-10.06748283521856</v>
       </c>
-      <c r="K161" t="n">
+      <c r="L161" t="n">
         <v>3.554025528583221</v>
       </c>
-      <c r="L161" t="n">
+      <c r="M161" t="n">
         <v>-12.67303265085766</v>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7071,33 +7556,36 @@
         <v>453.1408656685015</v>
       </c>
       <c r="D162" t="n">
+        <v>4026675.617949774</v>
+      </c>
+      <c r="E162" t="n">
         <v>345.9961242675781</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>-12.19717407226562</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>24</v>
       </c>
-      <c r="G162" t="n">
+      <c r="H162" t="n">
         <v>8526.866680041259</v>
       </c>
-      <c r="H162" t="n">
+      <c r="I162" t="n">
         <v>-850.8137074772601</v>
       </c>
-      <c r="I162" t="n">
+      <c r="J162" t="n">
         <v>279.2199206853464</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>-6.783219574711183</v>
       </c>
-      <c r="K162" t="n">
+      <c r="L162" t="n">
         <v>3.513925763723548</v>
       </c>
-      <c r="L162" t="n">
+      <c r="M162" t="n">
         <v>-8.522993387421364</v>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7112,33 +7600,36 @@
         <v>448.7496949939134</v>
       </c>
       <c r="D163" t="n">
+        <v>3912894.878966928</v>
+      </c>
+      <c r="E163" t="n">
         <v>346.8212890625</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>-13.74344825744629</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>24</v>
       </c>
-      <c r="G163" t="n">
+      <c r="H163" t="n">
         <v>7422.23075311203</v>
       </c>
-      <c r="H163" t="n">
+      <c r="I163" t="n">
         <v>-858.0524338383066</v>
       </c>
-      <c r="I163" t="n">
+      <c r="J163" t="n">
         <v>289.5790050986201</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>-8.789206840951461</v>
       </c>
-      <c r="K163" t="n">
+      <c r="L163" t="n">
         <v>3.453862412085241</v>
       </c>
-      <c r="L163" t="n">
+      <c r="M163" t="n">
         <v>-5.433097071435554</v>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7153,33 +7644,36 @@
         <v>447.8447470442565</v>
       </c>
       <c r="D164" t="n">
+        <v>3765453.921938375</v>
+      </c>
+      <c r="E164" t="n">
         <v>340.064697265625</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>-11.86710548400879</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>26</v>
       </c>
-      <c r="G164" t="n">
+      <c r="H164" t="n">
         <v>9563.85731048297</v>
       </c>
-      <c r="H164" t="n">
+      <c r="I164" t="n">
         <v>-824.5451255161865</v>
       </c>
-      <c r="I164" t="n">
+      <c r="J164" t="n">
         <v>393.922862108727</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>-6.735333627586878</v>
       </c>
-      <c r="K164" t="n">
+      <c r="L164" t="n">
         <v>3.54744054135383</v>
       </c>
-      <c r="L164" t="n">
+      <c r="M164" t="n">
         <v>-7.717014203122401</v>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7194,33 +7688,36 @@
         <v>437.8276770122661</v>
       </c>
       <c r="D165" t="n">
+        <v>3950444.903288201</v>
+      </c>
+      <c r="E165" t="n">
         <v>367.0335998535156</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>-12.03424263000488</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>20</v>
       </c>
-      <c r="G165" t="n">
+      <c r="H165" t="n">
         <v>8604.571319146251</v>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>-869.7856265359487</v>
       </c>
-      <c r="I165" t="n">
+      <c r="J165" t="n">
         <v>244.4443953445665</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>-6.11080882947476</v>
       </c>
-      <c r="K165" t="n">
+      <c r="L165" t="n">
         <v>3.521073952248673</v>
       </c>
-      <c r="L165" t="n">
+      <c r="M165" t="n">
         <v>-10.49171661191854</v>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7235,33 +7732,36 @@
         <v>425.351008522279</v>
       </c>
       <c r="D166" t="n">
+        <v>3969986.086136355</v>
+      </c>
+      <c r="E166" t="n">
         <v>373.1538696289062</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>-13.16425228118896</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>28</v>
       </c>
-      <c r="G166" t="n">
+      <c r="H166" t="n">
         <v>8152.552084303199</v>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>-829.7881875941116</v>
       </c>
-      <c r="I166" t="n">
+      <c r="J166" t="n">
         <v>268.2570642599227</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>-7.657807831880856</v>
       </c>
-      <c r="K166" t="n">
+      <c r="L166" t="n">
         <v>3.3869399721844</v>
       </c>
-      <c r="L166" t="n">
+      <c r="M166" t="n">
         <v>-4.255743776958903</v>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7276,33 +7776,36 @@
         <v>439.5755031086748</v>
       </c>
       <c r="D167" t="n">
+        <v>4032337.153473658</v>
+      </c>
+      <c r="E167" t="n">
         <v>370.5339965820312</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>-12.253586769104</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>24</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>11151.60354927137</v>
       </c>
-      <c r="H167" t="n">
+      <c r="I167" t="n">
         <v>-822.3096020718081</v>
       </c>
-      <c r="I167" t="n">
+      <c r="J167" t="n">
         <v>429.2986390905282</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>-11.45349994325447</v>
       </c>
-      <c r="K167" t="n">
+      <c r="L167" t="n">
         <v>3.578811066158938</v>
       </c>
-      <c r="L167" t="n">
+      <c r="M167" t="n">
         <v>-7.281563634502528</v>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7317,33 +7820,36 @@
         <v>438.7625642171871</v>
       </c>
       <c r="D168" t="n">
+        <v>4303614.853475865</v>
+      </c>
+      <c r="E168" t="n">
         <v>385.0559387207031</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>-12.47923851013184</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>29</v>
       </c>
-      <c r="G168" t="n">
+      <c r="H168" t="n">
         <v>11980.34341160116</v>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>-870.5962275274935</v>
       </c>
-      <c r="I168" t="n">
+      <c r="J168" t="n">
         <v>417.7679571418156</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>-11.67236317693213</v>
       </c>
-      <c r="K168" t="n">
+      <c r="L168" t="n">
         <v>3.536972832754524</v>
       </c>
-      <c r="L168" t="n">
+      <c r="M168" t="n">
         <v>-7.148166025696872</v>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7358,33 +7864,36 @@
         <v>441.9325956132583</v>
       </c>
       <c r="D169" t="n">
+        <v>4274786.624024746</v>
+      </c>
+      <c r="E169" t="n">
         <v>383.83447265625</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>-13.26831817626953</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>30</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>12085.12335184849</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>-805.0073518192594</v>
       </c>
-      <c r="I169" t="n">
+      <c r="J169" t="n">
         <v>309.1148163563334</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>-10.27817506211147</v>
       </c>
-      <c r="K169" t="n">
+      <c r="L169" t="n">
         <v>3.468043523696341</v>
       </c>
-      <c r="L169" t="n">
+      <c r="M169" t="n">
         <v>-7.718683029758784</v>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7399,33 +7908,36 @@
         <v>450.4932114401249</v>
       </c>
       <c r="D170" t="n">
+        <v>5195787.7281565</v>
+      </c>
+      <c r="E170" t="n">
         <v>438.1979675292969</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>-11.81314563751221</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>22</v>
       </c>
-      <c r="G170" t="n">
+      <c r="H170" t="n">
         <v>15174.07102997303</v>
       </c>
-      <c r="H170" t="n">
+      <c r="I170" t="n">
         <v>-866.8052995504913</v>
       </c>
-      <c r="I170" t="n">
+      <c r="J170" t="n">
         <v>474.2475352220682</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>-14.98789702933528</v>
       </c>
-      <c r="K170" t="n">
+      <c r="L170" t="n">
         <v>3.569970828437079</v>
       </c>
-      <c r="L170" t="n">
+      <c r="M170" t="n">
         <v>-6.646838658757838</v>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7440,33 +7952,36 @@
         <v>442.73635062849</v>
       </c>
       <c r="D171" t="n">
+        <v>4749514.133822884</v>
+      </c>
+      <c r="E171" t="n">
         <v>430.4357604980469</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>-11.99079418182373</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>28</v>
       </c>
-      <c r="G171" t="n">
+      <c r="H171" t="n">
         <v>14107.88928796345</v>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>-888.8574917500852</v>
       </c>
-      <c r="I171" t="n">
+      <c r="J171" t="n">
         <v>565.0274226747428</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>-11.10218025634449</v>
       </c>
-      <c r="K171" t="n">
+      <c r="L171" t="n">
         <v>3.525379020877358</v>
       </c>
-      <c r="L171" t="n">
+      <c r="M171" t="n">
         <v>-4.34307382915257</v>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7481,33 +7996,36 @@
         <v>433.4582519928515</v>
       </c>
       <c r="D172" t="n">
+        <v>4987575.30565976</v>
+      </c>
+      <c r="E172" t="n">
         <v>436.4028930664062</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>-13.57841396331787</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>27</v>
       </c>
-      <c r="G172" t="n">
+      <c r="H172" t="n">
         <v>14665.79861544622</v>
       </c>
-      <c r="H172" t="n">
+      <c r="I172" t="n">
         <v>-919.4225782860733</v>
       </c>
-      <c r="I172" t="n">
+      <c r="J172" t="n">
         <v>571.9411042509487</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>-8.080828687922828</v>
       </c>
-      <c r="K172" t="n">
+      <c r="L172" t="n">
         <v>3.494605736363067</v>
       </c>
-      <c r="L172" t="n">
+      <c r="M172" t="n">
         <v>-5.778251848035049</v>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7522,33 +8040,36 @@
         <v>442.3100016053261</v>
       </c>
       <c r="D173" t="n">
+        <v>4582579.540138169</v>
+      </c>
+      <c r="E173" t="n">
         <v>422.8963928222656</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>-11.77320098876953</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>30</v>
       </c>
-      <c r="G173" t="n">
+      <c r="H173" t="n">
         <v>8414.348330600653</v>
       </c>
-      <c r="H173" t="n">
+      <c r="I173" t="n">
         <v>-842.5036557869073</v>
       </c>
-      <c r="I173" t="n">
+      <c r="J173" t="n">
         <v>300.5105312694029</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>-8.667022336869705</v>
       </c>
-      <c r="K173" t="n">
+      <c r="L173" t="n">
         <v>3.555665458680777</v>
       </c>
-      <c r="L173" t="n">
+      <c r="M173" t="n">
         <v>-5.890864269476108</v>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7563,33 +8084,36 @@
         <v>453.4752317589677</v>
       </c>
       <c r="D174" t="n">
+        <v>5216851.660563448</v>
+      </c>
+      <c r="E174" t="n">
         <v>438.3170776367188</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>-12.18771362304688</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>27</v>
       </c>
-      <c r="G174" t="n">
+      <c r="H174" t="n">
         <v>15247.12456537997</v>
       </c>
-      <c r="H174" t="n">
+      <c r="I174" t="n">
         <v>-872.9816638752818</v>
       </c>
-      <c r="I174" t="n">
+      <c r="J174" t="n">
         <v>585.4935006734806</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>-12.46143304646834</v>
       </c>
-      <c r="K174" t="n">
+      <c r="L174" t="n">
         <v>3.543539132105265</v>
       </c>
-      <c r="L174" t="n">
+      <c r="M174" t="n">
         <v>-10.15419681079073</v>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7604,33 +8128,36 @@
         <v>434.3343001483101</v>
       </c>
       <c r="D175" t="n">
+        <v>4877606.452205973</v>
+      </c>
+      <c r="E175" t="n">
         <v>433.103271484375</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>-12.69262599945068</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>28</v>
       </c>
-      <c r="G175" t="n">
+      <c r="H175" t="n">
         <v>14877.9793975474</v>
       </c>
-      <c r="H175" t="n">
+      <c r="I175" t="n">
         <v>-849.5968174273853</v>
       </c>
-      <c r="I175" t="n">
+      <c r="J175" t="n">
         <v>614.2870269947377</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>-12.17991329569593</v>
       </c>
-      <c r="K175" t="n">
+      <c r="L175" t="n">
         <v>3.535816284866524</v>
       </c>
-      <c r="L175" t="n">
+      <c r="M175" t="n">
         <v>-7.508132691246451</v>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7645,33 +8172,36 @@
         <v>442.0857426878728</v>
       </c>
       <c r="D176" t="n">
+        <v>4938116.527074161</v>
+      </c>
+      <c r="E176" t="n">
         <v>431.8096313476562</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>-12.50761985778809</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>31</v>
       </c>
-      <c r="G176" t="n">
+      <c r="H176" t="n">
         <v>14948.75443460032</v>
       </c>
-      <c r="H176" t="n">
+      <c r="I176" t="n">
         <v>-840.4276884043163</v>
       </c>
-      <c r="I176" t="n">
+      <c r="J176" t="n">
         <v>545.695032655156</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>-14.66434410780941</v>
       </c>
-      <c r="K176" t="n">
+      <c r="L176" t="n">
         <v>3.551434175656291</v>
       </c>
-      <c r="L176" t="n">
+      <c r="M176" t="n">
         <v>-5.919603261237189</v>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7686,33 +8216,36 @@
         <v>446.5017126991009</v>
       </c>
       <c r="D177" t="n">
+        <v>4695033.989586462</v>
+      </c>
+      <c r="E177" t="n">
         <v>430.0678405761719</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>-12.63796520233154</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>29</v>
       </c>
-      <c r="G177" t="n">
+      <c r="H177" t="n">
         <v>13606.40789604501</v>
       </c>
-      <c r="H177" t="n">
+      <c r="I177" t="n">
         <v>-875.9334837705948</v>
       </c>
-      <c r="I177" t="n">
+      <c r="J177" t="n">
         <v>440.404293301675</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>-7.763465668275874</v>
       </c>
-      <c r="K177" t="n">
+      <c r="L177" t="n">
         <v>3.528138735666943</v>
       </c>
-      <c r="L177" t="n">
+      <c r="M177" t="n">
         <v>-6.951026950294681</v>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>300</v>
       </c>
     </row>
@@ -7727,33 +8260,36 @@
         <v>450.9776943040214</v>
       </c>
       <c r="D178" t="n">
+        <v>4712090.994911683</v>
+      </c>
+      <c r="E178" t="n">
         <v>421.3399658203125</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>-11.90109348297119</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>31</v>
       </c>
-      <c r="G178" t="n">
+      <c r="H178" t="n">
         <v>13818.15020725205</v>
       </c>
-      <c r="H178" t="n">
+      <c r="I178" t="n">
         <v>-831.6832166652248</v>
       </c>
-      <c r="I178" t="n">
+      <c r="J178" t="n">
         <v>530.2993952325123</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>-11.9000541900568</v>
       </c>
-      <c r="K178" t="n">
+      <c r="L178" t="n">
         <v>3.56379863339377</v>
       </c>
-      <c r="L178" t="n">
+      <c r="M178" t="n">
         <v>-5.066654243226649</v>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>300</v>
       </c>
     </row>
